--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T249"/>
+  <dimension ref="A1:T251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -8520,24 +8520,24 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="N102" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O102" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P102" t="n">
-        <v>20000</v>
+        <v>18600</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,10 +8546,10 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1667</v>
+        <v>1860</v>
       </c>
       <c r="T102" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -8600,24 +8600,24 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="N103" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O103" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P103" t="n">
-        <v>20000</v>
+        <v>18500</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,10 +8626,10 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1429</v>
+        <v>1542</v>
       </c>
       <c r="T103" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -8687,13 +8687,13 @@
         <v>162</v>
       </c>
       <c r="N104" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O104" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P104" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T104" t="n">
         <v>12</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -8767,13 +8767,13 @@
         <v>108</v>
       </c>
       <c r="N105" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O105" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P105" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T105" t="n">
         <v>14</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -8840,24 +8840,24 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="N106" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O106" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P106" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -8866,10 +8866,10 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T106" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M107" t="n">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T107" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -9000,24 +9000,24 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="N108" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O108" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P108" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,10 +9026,10 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T108" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N109" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O109" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P109" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T109" t="n">
         <v>12</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -9160,24 +9160,24 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N110" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O110" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P110" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -9186,10 +9186,10 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T110" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -9240,11 +9240,11 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N111" t="n">
         <v>17000</v>
@@ -9257,7 +9257,7 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T111" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -9327,13 +9327,13 @@
         <v>108</v>
       </c>
       <c r="N112" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O112" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P112" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T112" t="n">
         <v>12</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44225</v>
+        <v>44257</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -9400,24 +9400,24 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N113" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O113" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P113" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -9426,10 +9426,10 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1250</v>
+        <v>1214</v>
       </c>
       <c r="T113" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -9480,24 +9480,24 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
         <v>108</v>
       </c>
       <c r="N114" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O114" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P114" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1071</v>
+        <v>1667</v>
       </c>
       <c r="T114" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115">
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -9567,13 +9567,13 @@
         <v>162</v>
       </c>
       <c r="N115" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O115" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P115" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1333</v>
+        <v>1250</v>
       </c>
       <c r="T115" t="n">
         <v>12</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -9640,24 +9640,24 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M116" t="n">
         <v>108</v>
       </c>
       <c r="N116" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O116" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P116" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,10 +9666,10 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1600</v>
+        <v>1071</v>
       </c>
       <c r="T116" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -9800,7 +9800,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M118" t="n">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -9826,10 +9826,10 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1143</v>
+        <v>1600</v>
       </c>
       <c r="T118" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N119" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O119" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P119" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T119" t="n">
         <v>12</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -9967,13 +9967,13 @@
         <v>108</v>
       </c>
       <c r="N120" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O120" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P120" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T120" t="n">
         <v>14</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N121" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O121" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P121" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T121" t="n">
         <v>12</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -10120,24 +10120,24 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N122" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O122" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P122" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -10146,10 +10146,10 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T122" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -10200,11 +10200,11 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N123" t="n">
         <v>16000</v>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10226,10 +10226,10 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T123" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -10280,24 +10280,24 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
         <v>162</v>
       </c>
       <c r="N124" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O124" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P124" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10306,10 +10306,10 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T124" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125">
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -10360,11 +10360,11 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N125" t="n">
         <v>16000</v>
@@ -10377,7 +10377,7 @@
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,10 +10386,10 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T125" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N126" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O126" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P126" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T126" t="n">
         <v>14</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -10527,13 +10527,13 @@
         <v>162</v>
       </c>
       <c r="N127" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O127" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P127" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T127" t="n">
         <v>12</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -10600,24 +10600,24 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M128" t="n">
         <v>108</v>
       </c>
       <c r="N128" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O128" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P128" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -10626,10 +10626,10 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1667</v>
+        <v>1143</v>
       </c>
       <c r="T128" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129">
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -10680,24 +10680,24 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M129" t="n">
         <v>162</v>
       </c>
       <c r="N129" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O129" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P129" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -10706,10 +10706,10 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1429</v>
+        <v>1833</v>
       </c>
       <c r="T129" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130">
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -10760,11 +10760,11 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N130" t="n">
         <v>20000</v>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10786,10 +10786,10 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1429</v>
+        <v>1667</v>
       </c>
       <c r="T130" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -10840,24 +10840,24 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M131" t="n">
         <v>162</v>
       </c>
       <c r="N131" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O131" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P131" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,10 +10866,10 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T131" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132">
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -10924,16 +10924,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N132" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O132" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P132" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T132" t="n">
         <v>14</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -11004,16 +11004,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N133" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O133" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P133" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T133" t="n">
         <v>12</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N134" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O134" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P134" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T134" t="n">
         <v>14</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="N135" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O135" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P135" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T135" t="n">
         <v>12</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44214</v>
+        <v>44300</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -11240,11 +11240,11 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N136" t="n">
         <v>16000</v>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11266,10 +11266,10 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T136" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -11320,24 +11320,24 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="N137" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O137" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P137" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11346,10 +11346,10 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1143</v>
+        <v>1833</v>
       </c>
       <c r="T137" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138">
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -11407,13 +11407,13 @@
         <v>162</v>
       </c>
       <c r="N138" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O138" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P138" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T138" t="n">
         <v>12</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N139" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O139" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P139" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T139" t="n">
         <v>14</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -11560,24 +11560,24 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="N140" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O140" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P140" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11589,7 +11589,7 @@
         <v>1500</v>
       </c>
       <c r="T140" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44274</v>
+        <v>44371</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N141" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O141" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P141" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1143</v>
+        <v>1286</v>
       </c>
       <c r="T141" t="n">
         <v>14</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -11720,24 +11720,24 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>162</v>
+        <v>260</v>
       </c>
       <c r="N142" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O142" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P142" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11746,10 +11746,10 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T142" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44314</v>
+        <v>44274</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -11795,16 +11795,16 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Caramelo</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N143" t="n">
         <v>16000</v>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11826,10 +11826,10 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T143" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144">
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -11875,16 +11875,16 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Caramelo</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N144" t="n">
         <v>16000</v>
@@ -11897,7 +11897,7 @@
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,10 +11906,10 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T144" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Caramelo</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N145" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O145" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P145" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T145" t="n">
         <v>12</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Caramelo</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -12047,13 +12047,13 @@
         <v>108</v>
       </c>
       <c r="N146" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O146" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P146" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T146" t="n">
         <v>14</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N147" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O147" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P147" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T147" t="n">
         <v>12</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -12207,13 +12207,13 @@
         <v>108</v>
       </c>
       <c r="N148" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O148" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P148" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1429</v>
+        <v>1286</v>
       </c>
       <c r="T148" t="n">
         <v>14</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -12280,24 +12280,24 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
         <v>108</v>
       </c>
       <c r="N149" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O149" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P149" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,10 +12306,10 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T149" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -12360,24 +12360,24 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N150" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O150" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P150" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -12386,10 +12386,10 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1250</v>
+        <v>1429</v>
       </c>
       <c r="T150" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M151" t="n">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,10 +12466,10 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1071</v>
+        <v>1500</v>
       </c>
       <c r="T151" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -12524,16 +12524,16 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N152" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O152" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P152" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1417</v>
+        <v>1250</v>
       </c>
       <c r="T152" t="n">
         <v>12</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44209</v>
+        <v>44224</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -12600,24 +12600,24 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N153" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O153" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P153" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>1333</v>
+        <v>1071</v>
       </c>
       <c r="T153" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154">
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44209</v>
+        <v>44260</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -12680,24 +12680,24 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N154" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O154" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P154" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -12706,10 +12706,10 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T154" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44330</v>
+        <v>44209</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -12760,7 +12760,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M155" t="n">
@@ -12777,7 +12777,7 @@
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -12786,10 +12786,10 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T155" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156">
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44391</v>
+        <v>44209</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -12840,24 +12840,24 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M156" t="n">
         <v>162</v>
       </c>
       <c r="N156" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O156" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P156" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -12866,10 +12866,10 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T156" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157">
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -12920,7 +12920,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M157" t="n">
@@ -12937,7 +12937,7 @@
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -12946,10 +12946,10 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T157" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -13000,24 +13000,24 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
         <v>162</v>
       </c>
       <c r="N158" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O158" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P158" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
@@ -13026,10 +13026,10 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T158" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159">
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -13084,7 +13084,7 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N159" t="n">
         <v>16000</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -13164,7 +13164,7 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N160" t="n">
         <v>16000</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -13484,7 +13484,7 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N164" t="n">
         <v>16000</v>
@@ -13560,7 +13560,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M165" t="n">
@@ -13577,7 +13577,7 @@
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -13586,10 +13586,10 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T165" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166">
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -13640,11 +13640,11 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N166" t="n">
         <v>16000</v>
@@ -13657,7 +13657,7 @@
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
@@ -13666,10 +13666,10 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T166" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167">
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44278</v>
+        <v>44196</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -13720,11 +13720,11 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N167" t="n">
         <v>16000</v>
@@ -13737,7 +13737,7 @@
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
@@ -13746,10 +13746,10 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="T167" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168">
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -13800,24 +13800,24 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M168" t="n">
         <v>108</v>
       </c>
       <c r="N168" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O168" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P168" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -13826,10 +13826,10 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T168" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169">
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -13880,11 +13880,11 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N169" t="n">
         <v>16000</v>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -13906,10 +13906,10 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T169" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170">
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44389</v>
+        <v>44278</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -13960,11 +13960,11 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N170" t="n">
         <v>17000</v>
@@ -13977,7 +13977,7 @@
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -13986,10 +13986,10 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T170" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171">
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -14047,13 +14047,13 @@
         <v>108</v>
       </c>
       <c r="N171" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O171" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P171" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T171" t="n">
         <v>14</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N172" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O172" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P172" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T172" t="n">
         <v>12</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -14207,13 +14207,13 @@
         <v>108</v>
       </c>
       <c r="N173" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O173" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P173" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1429</v>
+        <v>1214</v>
       </c>
       <c r="T173" t="n">
         <v>14</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -14287,13 +14287,13 @@
         <v>108</v>
       </c>
       <c r="N174" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O174" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P174" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T174" t="n">
         <v>12</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -14367,13 +14367,13 @@
         <v>108</v>
       </c>
       <c r="N175" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O175" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P175" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T175" t="n">
         <v>14</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -14607,17 +14607,17 @@
         <v>108</v>
       </c>
       <c r="N178" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O178" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P178" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,10 +14626,10 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T178" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44305</v>
+        <v>44250</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -14680,7 +14680,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,10 +14706,10 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T179" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
         <v>108</v>
       </c>
       <c r="N180" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O180" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P180" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T180" t="n">
         <v>14</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -14844,7 +14844,7 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N181" t="n">
         <v>16000</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -15007,13 +15007,13 @@
         <v>162</v>
       </c>
       <c r="N183" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O183" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P183" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T183" t="n">
         <v>12</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -15087,13 +15087,13 @@
         <v>108</v>
       </c>
       <c r="N184" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O184" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P184" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T184" t="n">
         <v>14</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -15167,13 +15167,13 @@
         <v>162</v>
       </c>
       <c r="N185" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O185" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P185" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T185" t="n">
         <v>12</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N186" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O186" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P186" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T186" t="n">
         <v>14</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -15327,13 +15327,13 @@
         <v>162</v>
       </c>
       <c r="N187" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O187" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P187" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1583</v>
+        <v>1333</v>
       </c>
       <c r="T187" t="n">
         <v>12</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -15404,16 +15404,16 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N188" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O188" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P188" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T188" t="n">
         <v>14</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -15484,16 +15484,16 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N189" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O189" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P189" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T189" t="n">
         <v>12</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N190" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O190" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P190" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1286</v>
+        <v>1357</v>
       </c>
       <c r="T190" t="n">
         <v>14</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -15647,13 +15647,13 @@
         <v>108</v>
       </c>
       <c r="N191" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O191" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P191" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T191" t="n">
         <v>12</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N192" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O192" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P192" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1214</v>
+        <v>1286</v>
       </c>
       <c r="T192" t="n">
         <v>14</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N193" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O193" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P193" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T193" t="n">
         <v>12</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -15887,13 +15887,13 @@
         <v>108</v>
       </c>
       <c r="N194" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O194" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P194" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1571</v>
+        <v>1214</v>
       </c>
       <c r="T194" t="n">
         <v>14</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -15960,24 +15960,24 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N195" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O195" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P195" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1600</v>
+        <v>1833</v>
       </c>
       <c r="T195" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196">
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -16040,24 +16040,24 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N196" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O196" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P196" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -16066,10 +16066,10 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1333</v>
+        <v>1571</v>
       </c>
       <c r="T196" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197">
@@ -16120,11 +16120,11 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N197" t="n">
         <v>16000</v>
@@ -16137,7 +16137,7 @@
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -16146,10 +16146,10 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1143</v>
+        <v>1600</v>
       </c>
       <c r="T197" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198">
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N198" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O198" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P198" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T198" t="n">
         <v>12</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44333</v>
+        <v>44195</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -16280,24 +16280,24 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M199" t="n">
         <v>162</v>
       </c>
       <c r="N199" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O199" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P199" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
@@ -16306,10 +16306,10 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T199" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200">
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -16360,24 +16360,24 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M200" t="n">
         <v>108</v>
       </c>
       <c r="N200" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O200" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P200" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -16386,10 +16386,10 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1214</v>
+        <v>1833</v>
       </c>
       <c r="T200" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201">
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N201" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O201" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P201" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T201" t="n">
         <v>12</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N202" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O202" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P202" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T202" t="n">
         <v>14</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -16607,13 +16607,13 @@
         <v>108</v>
       </c>
       <c r="N203" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O203" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P203" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T203" t="n">
         <v>12</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -16687,13 +16687,13 @@
         <v>162</v>
       </c>
       <c r="N204" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O204" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P204" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T204" t="n">
         <v>14</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -16767,13 +16767,13 @@
         <v>108</v>
       </c>
       <c r="N205" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O205" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P205" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T205" t="n">
         <v>12</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44188</v>
+        <v>44277</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -16840,11 +16840,11 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N206" t="n">
         <v>17000</v>
@@ -16857,7 +16857,7 @@
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
@@ -16866,10 +16866,10 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T206" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -16920,24 +16920,24 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N207" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O207" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P207" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
@@ -16946,10 +16946,10 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T207" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208">
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N208" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O208" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P208" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T208" t="n">
         <v>12</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44319</v>
+        <v>44188</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -17080,24 +17080,24 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N209" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O209" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P209" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
@@ -17106,10 +17106,10 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T209" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -17160,11 +17160,11 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N210" t="n">
         <v>16000</v>
@@ -17177,7 +17177,7 @@
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -17186,10 +17186,10 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T210" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211">
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -17244,7 +17244,7 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N211" t="n">
         <v>16000</v>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
@@ -17266,10 +17266,10 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T211" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212">
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44281</v>
+        <v>44319</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -17320,24 +17320,24 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M212" t="n">
         <v>108</v>
       </c>
       <c r="N212" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O212" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P212" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -17346,10 +17346,10 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T212" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213">
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -17407,17 +17407,17 @@
         <v>162</v>
       </c>
       <c r="N213" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O213" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P213" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -17426,10 +17426,10 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T213" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214">
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -17480,24 +17480,24 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M214" t="n">
         <v>108</v>
       </c>
       <c r="N214" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O214" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P214" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
@@ -17506,10 +17506,10 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1571</v>
+        <v>1417</v>
       </c>
       <c r="T214" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -17567,13 +17567,13 @@
         <v>162</v>
       </c>
       <c r="N215" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O215" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P215" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1500</v>
+        <v>1833</v>
       </c>
       <c r="T215" t="n">
         <v>12</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -17647,13 +17647,13 @@
         <v>108</v>
       </c>
       <c r="N216" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O216" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P216" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1286</v>
+        <v>1571</v>
       </c>
       <c r="T216" t="n">
         <v>14</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N217" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O217" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P217" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T217" t="n">
         <v>12</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N218" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O218" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P218" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1143</v>
+        <v>1286</v>
       </c>
       <c r="T218" t="n">
         <v>14</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N219" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O219" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P219" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T219" t="n">
         <v>12</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N220" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O220" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P220" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T220" t="n">
         <v>14</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N221" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O221" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P221" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T221" t="n">
         <v>12</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -18120,24 +18120,24 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N222" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O222" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P222" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -18146,10 +18146,10 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1500</v>
+        <v>1214</v>
       </c>
       <c r="T222" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223">
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44230</v>
+        <v>44272</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -18204,20 +18204,20 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="N223" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O223" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P223" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T223" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224">
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N224" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O224" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P224" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T224" t="n">
         <v>12</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -18360,24 +18360,24 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="N225" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O225" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P225" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
@@ -18386,10 +18386,10 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T225" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226">
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -18440,24 +18440,24 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N226" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O226" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P226" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
@@ -18466,10 +18466,10 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1500</v>
+        <v>1417</v>
       </c>
       <c r="T226" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -18520,7 +18520,7 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M227" t="n">
@@ -18537,7 +18537,7 @@
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
@@ -18546,10 +18546,10 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T227" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228">
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -18600,24 +18600,24 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="N228" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O228" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P228" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R228" t="inlineStr">
@@ -18626,10 +18626,10 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T228" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229">
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -18687,13 +18687,13 @@
         <v>108</v>
       </c>
       <c r="N229" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O229" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P229" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T229" t="n">
         <v>12</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -18767,13 +18767,13 @@
         <v>108</v>
       </c>
       <c r="N230" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O230" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P230" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T230" t="n">
         <v>14</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -18840,11 +18840,11 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N231" t="n">
         <v>16000</v>
@@ -18857,7 +18857,7 @@
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
@@ -18866,10 +18866,10 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T231" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232">
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -18920,11 +18920,11 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N232" t="n">
         <v>16000</v>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
@@ -18946,10 +18946,10 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T232" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233">
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -19004,7 +19004,7 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N233" t="n">
         <v>16000</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -19087,13 +19087,13 @@
         <v>162</v>
       </c>
       <c r="N234" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O234" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P234" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1250</v>
+        <v>1333</v>
       </c>
       <c r="T234" t="n">
         <v>12</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -19167,13 +19167,13 @@
         <v>108</v>
       </c>
       <c r="N235" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O235" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P235" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1071</v>
+        <v>1143</v>
       </c>
       <c r="T235" t="n">
         <v>14</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -19247,13 +19247,13 @@
         <v>162</v>
       </c>
       <c r="N236" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O236" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P236" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1417</v>
+        <v>1250</v>
       </c>
       <c r="T236" t="n">
         <v>12</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -19327,13 +19327,13 @@
         <v>108</v>
       </c>
       <c r="N237" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O237" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P237" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1143</v>
+        <v>1071</v>
       </c>
       <c r="T237" t="n">
         <v>14</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -19407,13 +19407,13 @@
         <v>162</v>
       </c>
       <c r="N238" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O238" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P238" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T238" t="n">
         <v>12</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N240" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O240" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P240" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T240" t="n">
         <v>12</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -19727,13 +19727,13 @@
         <v>108</v>
       </c>
       <c r="N242" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O242" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P242" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T242" t="n">
         <v>12</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19804,7 +19804,7 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N243" t="n">
         <v>16000</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N244" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O244" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P244" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="T244" t="n">
         <v>12</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N245" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O245" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P245" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T245" t="n">
         <v>14</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20040,24 +20040,24 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M246" t="n">
         <v>162</v>
       </c>
       <c r="N246" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O246" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P246" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1143</v>
+        <v>1667</v>
       </c>
       <c r="T246" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -20120,24 +20120,24 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N247" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O247" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P247" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T247" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44168</v>
+        <v>44284</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N248" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O248" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P248" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T248" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20280,35 +20280,195 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
         <v>162</v>
       </c>
       <c r="N249" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O249" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P249" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S249" t="n">
+        <v>1417</v>
+      </c>
+      <c r="T249" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>3</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E250" t="n">
+        <v>5</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>108</v>
+      </c>
+      <c r="N250" t="n">
         <v>22000</v>
       </c>
-      <c r="O249" t="n">
+      <c r="O250" t="n">
         <v>22000</v>
       </c>
-      <c r="P249" t="n">
+      <c r="P250" t="n">
         <v>22000</v>
       </c>
-      <c r="Q249" t="inlineStr">
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S250" t="n">
+        <v>1833</v>
+      </c>
+      <c r="T250" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>3</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E251" t="n">
+        <v>5</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>162</v>
+      </c>
+      <c r="N251" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O251" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P251" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q251" t="inlineStr">
         <is>
           <t>$/caja 14 unidades</t>
         </is>
       </c>
-      <c r="R249" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S249" t="n">
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S251" t="n">
         <v>1571</v>
       </c>
-      <c r="T249" t="n">
+      <c r="T251" t="n">
         <v>14</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T251"/>
+  <dimension ref="A1:T253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N57" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O57" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P57" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1250</v>
+        <v>1583</v>
       </c>
       <c r="T57" t="n">
         <v>12</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E58" t="n">
         <v>5</v>
@@ -5007,13 +5007,13 @@
         <v>108</v>
       </c>
       <c r="N58" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O58" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P58" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1071</v>
+        <v>1357</v>
       </c>
       <c r="T58" t="n">
         <v>14</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44308</v>
+        <v>44215</v>
       </c>
       <c r="E59" t="n">
         <v>5</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N59" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O59" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P59" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1333</v>
+        <v>1250</v>
       </c>
       <c r="T59" t="n">
         <v>12</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44403</v>
+        <v>44215</v>
       </c>
       <c r="E60" t="n">
         <v>5</v>
@@ -5160,24 +5160,24 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="N60" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O60" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P60" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1667</v>
+        <v>1071</v>
       </c>
       <c r="T60" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44239</v>
+        <v>44308</v>
       </c>
       <c r="E61" t="n">
         <v>5</v>
@@ -5240,24 +5240,24 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="N61" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O61" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P61" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T61" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44379</v>
+        <v>44403</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="N62" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O62" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P62" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T62" t="n">
         <v>12</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44306</v>
+        <v>44239</v>
       </c>
       <c r="E63" t="n">
         <v>5</v>
@@ -5400,24 +5400,24 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N63" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O63" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P63" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,10 +5426,10 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T63" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44356</v>
+        <v>44379</v>
       </c>
       <c r="E64" t="n">
         <v>5</v>
@@ -5487,13 +5487,13 @@
         <v>108</v>
       </c>
       <c r="N64" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O64" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P64" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T64" t="n">
         <v>12</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44396</v>
+        <v>44306</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -5567,13 +5567,13 @@
         <v>108</v>
       </c>
       <c r="N65" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O65" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P65" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T65" t="n">
         <v>12</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -5640,24 +5640,24 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N66" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O66" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P66" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T66" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N67" t="n">
         <v>17000</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N68" t="n">
         <v>17000</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -5887,13 +5887,13 @@
         <v>162</v>
       </c>
       <c r="N69" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O69" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P69" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T69" t="n">
         <v>12</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N70" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O70" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P70" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1571</v>
+        <v>1214</v>
       </c>
       <c r="T70" t="n">
         <v>14</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44221</v>
+        <v>44174</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
@@ -6047,13 +6047,13 @@
         <v>162</v>
       </c>
       <c r="N71" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O71" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P71" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T71" t="n">
         <v>12</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44271</v>
+        <v>44174</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -6120,24 +6120,24 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N72" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O72" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P72" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1333</v>
+        <v>1571</v>
       </c>
       <c r="T72" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -6200,11 +6200,11 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N73" t="n">
         <v>16000</v>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T73" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -6287,13 +6287,13 @@
         <v>162</v>
       </c>
       <c r="N74" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O74" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P74" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T74" t="n">
         <v>12</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N75" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O75" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P75" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T75" t="n">
         <v>14</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N76" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O76" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P76" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T76" t="n">
         <v>12</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -6520,24 +6520,24 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
         <v>54</v>
       </c>
       <c r="N77" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O77" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P77" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,10 +6546,10 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T77" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N78" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O78" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P78" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T78" t="n">
         <v>12</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44342</v>
+        <v>44299</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -6680,24 +6680,24 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N79" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O79" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P79" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1417</v>
+        <v>1000</v>
       </c>
       <c r="T79" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -6760,24 +6760,24 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N80" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O80" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P80" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1214</v>
+        <v>1833</v>
       </c>
       <c r="T80" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -6847,13 +6847,13 @@
         <v>108</v>
       </c>
       <c r="N81" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O81" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P81" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T81" t="n">
         <v>12</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44175</v>
+        <v>44342</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -6920,24 +6920,24 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N82" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O82" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P82" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1750</v>
+        <v>1214</v>
       </c>
       <c r="T82" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44175</v>
+        <v>44362</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -7000,24 +7000,24 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
         <v>108</v>
       </c>
       <c r="N83" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O83" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P83" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T83" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44384</v>
+        <v>44175</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -7084,16 +7084,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N84" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O84" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P84" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1417</v>
+        <v>1750</v>
       </c>
       <c r="T84" t="n">
         <v>12</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44242</v>
+        <v>44175</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -7160,24 +7160,24 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
         <v>108</v>
       </c>
       <c r="N85" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O85" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P85" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T85" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44242</v>
+        <v>44384</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T86" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44204</v>
+        <v>44242</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44204</v>
+        <v>44242</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N88" t="n">
         <v>17000</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44200</v>
+        <v>44204</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N89" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O89" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P89" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T89" t="n">
         <v>12</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44200</v>
+        <v>44204</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N90" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O90" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P90" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T90" t="n">
         <v>14</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44363</v>
+        <v>44200</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N91" t="n">
         <v>16000</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44363</v>
+        <v>44200</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -7720,11 +7720,11 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N92" t="n">
         <v>16000</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7807,13 +7807,13 @@
         <v>108</v>
       </c>
       <c r="N93" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O93" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P93" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1250</v>
+        <v>1333</v>
       </c>
       <c r="T93" t="n">
         <v>12</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
         <v>162</v>
       </c>
       <c r="N94" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O94" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P94" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1071</v>
+        <v>1143</v>
       </c>
       <c r="T94" t="n">
         <v>14</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7960,24 +7960,24 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
         <v>108</v>
       </c>
       <c r="N95" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O95" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P95" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,10 +7986,10 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1600</v>
+        <v>1250</v>
       </c>
       <c r="T95" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -8040,24 +8040,24 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N96" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O96" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P96" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,10 +8066,10 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1333</v>
+        <v>1071</v>
       </c>
       <c r="T96" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -8120,24 +8120,24 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N97" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O97" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P97" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8146,10 +8146,10 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1417</v>
+        <v>1600</v>
       </c>
       <c r="T97" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -8200,24 +8200,24 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
         <v>108</v>
       </c>
       <c r="N98" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O98" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P98" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8226,10 +8226,10 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T98" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44258</v>
+        <v>44385</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N99" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O99" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P99" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T99" t="n">
         <v>12</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44258</v>
+        <v>44385</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -8367,13 +8367,13 @@
         <v>108</v>
       </c>
       <c r="N100" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O100" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P100" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T100" t="n">
         <v>14</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44243</v>
+        <v>44258</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -8447,13 +8447,13 @@
         <v>108</v>
       </c>
       <c r="N101" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O101" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P101" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T101" t="n">
         <v>12</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44413</v>
+        <v>44258</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -8520,24 +8520,24 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="N102" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O102" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P102" t="n">
-        <v>18600</v>
+        <v>16000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,10 +8546,10 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1860</v>
+        <v>1143</v>
       </c>
       <c r="T102" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103">
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -8604,16 +8604,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="N103" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O103" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P103" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1542</v>
+        <v>1417</v>
       </c>
       <c r="T103" t="n">
         <v>12</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -8680,24 +8680,24 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="N104" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O104" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P104" t="n">
-        <v>20000</v>
+        <v>18600</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1667</v>
+        <v>1860</v>
       </c>
       <c r="T104" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -8760,24 +8760,24 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="N105" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O105" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P105" t="n">
-        <v>20000</v>
+        <v>18500</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1429</v>
+        <v>1542</v>
       </c>
       <c r="T105" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -8847,13 +8847,13 @@
         <v>162</v>
       </c>
       <c r="N106" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O106" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P106" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T106" t="n">
         <v>12</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8927,13 +8927,13 @@
         <v>108</v>
       </c>
       <c r="N107" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O107" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P107" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T107" t="n">
         <v>14</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -9000,24 +9000,24 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="N108" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O108" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P108" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,10 +9026,10 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T108" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -9080,7 +9080,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M109" t="n">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -9106,10 +9106,10 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T109" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -9160,24 +9160,24 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="N110" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O110" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P110" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -9186,10 +9186,10 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T110" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N111" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O111" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P111" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T111" t="n">
         <v>12</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -9320,24 +9320,24 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N112" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O112" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P112" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -9346,10 +9346,10 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T112" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -9400,11 +9400,11 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N113" t="n">
         <v>17000</v>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -9426,10 +9426,10 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T113" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -9487,13 +9487,13 @@
         <v>108</v>
       </c>
       <c r="N114" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O114" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P114" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T114" t="n">
         <v>12</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44225</v>
+        <v>44257</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -9560,24 +9560,24 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N115" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O115" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P115" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -9586,10 +9586,10 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1250</v>
+        <v>1214</v>
       </c>
       <c r="T115" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -9640,24 +9640,24 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
         <v>108</v>
       </c>
       <c r="N116" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O116" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P116" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,10 +9666,10 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1071</v>
+        <v>1667</v>
       </c>
       <c r="T116" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -9727,13 +9727,13 @@
         <v>162</v>
       </c>
       <c r="N117" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O117" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P117" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1333</v>
+        <v>1250</v>
       </c>
       <c r="T117" t="n">
         <v>12</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -9800,24 +9800,24 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M118" t="n">
         <v>108</v>
       </c>
       <c r="N118" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O118" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P118" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -9826,10 +9826,10 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1600</v>
+        <v>1071</v>
       </c>
       <c r="T118" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -9960,7 +9960,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,10 +9986,10 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1143</v>
+        <v>1600</v>
       </c>
       <c r="T120" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N121" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O121" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P121" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T121" t="n">
         <v>12</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -10127,13 +10127,13 @@
         <v>108</v>
       </c>
       <c r="N122" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O122" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P122" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T122" t="n">
         <v>14</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N123" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O123" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P123" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T123" t="n">
         <v>12</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -10280,24 +10280,24 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N124" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O124" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P124" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10306,10 +10306,10 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T124" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -10360,11 +10360,11 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N125" t="n">
         <v>16000</v>
@@ -10377,7 +10377,7 @@
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,10 +10386,10 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T125" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -10440,24 +10440,24 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
         <v>162</v>
       </c>
       <c r="N126" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O126" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P126" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T126" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -10520,11 +10520,11 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N127" t="n">
         <v>16000</v>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T127" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -10604,16 +10604,16 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N128" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O128" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P128" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T128" t="n">
         <v>14</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -10687,13 +10687,13 @@
         <v>162</v>
       </c>
       <c r="N129" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O129" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P129" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T129" t="n">
         <v>12</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -10760,24 +10760,24 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M130" t="n">
         <v>108</v>
       </c>
       <c r="N130" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O130" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P130" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10786,10 +10786,10 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1667</v>
+        <v>1143</v>
       </c>
       <c r="T130" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -10840,24 +10840,24 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
         <v>162</v>
       </c>
       <c r="N131" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O131" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P131" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,10 +10866,10 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1429</v>
+        <v>1833</v>
       </c>
       <c r="T131" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132">
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -10920,11 +10920,11 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N132" t="n">
         <v>20000</v>
@@ -10937,7 +10937,7 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,10 +10946,10 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1429</v>
+        <v>1667</v>
       </c>
       <c r="T132" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133">
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -11000,24 +11000,24 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M133" t="n">
         <v>162</v>
       </c>
       <c r="N133" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O133" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P133" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,10 +11026,10 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T133" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134">
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N134" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O134" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P134" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T134" t="n">
         <v>14</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N135" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O135" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P135" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T135" t="n">
         <v>12</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -11244,16 +11244,16 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N136" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O136" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P136" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T136" t="n">
         <v>14</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -11324,16 +11324,16 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="N137" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O137" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P137" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T137" t="n">
         <v>12</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44214</v>
+        <v>44300</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -11400,11 +11400,11 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N138" t="n">
         <v>16000</v>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T138" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -11480,24 +11480,24 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="N139" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O139" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P139" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,10 +11506,10 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1143</v>
+        <v>1833</v>
       </c>
       <c r="T139" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140">
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -11567,13 +11567,13 @@
         <v>162</v>
       </c>
       <c r="N140" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O140" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P140" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T140" t="n">
         <v>12</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N141" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O141" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P141" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T141" t="n">
         <v>14</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -11720,24 +11720,24 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="N142" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O142" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P142" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11749,7 +11749,7 @@
         <v>1500</v>
       </c>
       <c r="T142" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44274</v>
+        <v>44371</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N143" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O143" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P143" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1143</v>
+        <v>1286</v>
       </c>
       <c r="T143" t="n">
         <v>14</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -11880,24 +11880,24 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>162</v>
+        <v>260</v>
       </c>
       <c r="N144" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O144" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P144" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,10 +11906,10 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T144" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44314</v>
+        <v>44274</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -11955,16 +11955,16 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Caramelo</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N145" t="n">
         <v>16000</v>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T145" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146">
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -12035,16 +12035,16 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Caramelo</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N146" t="n">
         <v>16000</v>
@@ -12057,7 +12057,7 @@
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,10 +12066,10 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T146" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147">
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Caramelo</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N147" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O147" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P147" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T147" t="n">
         <v>12</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Caramelo</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -12207,13 +12207,13 @@
         <v>108</v>
       </c>
       <c r="N148" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O148" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P148" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T148" t="n">
         <v>14</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N149" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O149" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P149" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T149" t="n">
         <v>12</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -12367,13 +12367,13 @@
         <v>108</v>
       </c>
       <c r="N150" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O150" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P150" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1429</v>
+        <v>1286</v>
       </c>
       <c r="T150" t="n">
         <v>14</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -12440,24 +12440,24 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M151" t="n">
         <v>108</v>
       </c>
       <c r="N151" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O151" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P151" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,10 +12466,10 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T151" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -12520,24 +12520,24 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N152" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O152" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P152" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -12546,10 +12546,10 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1250</v>
+        <v>1429</v>
       </c>
       <c r="T152" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153">
@@ -12600,7 +12600,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M153" t="n">
@@ -12617,7 +12617,7 @@
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>1071</v>
+        <v>1500</v>
       </c>
       <c r="T153" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154">
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N154" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O154" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P154" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1417</v>
+        <v>1250</v>
       </c>
       <c r="T154" t="n">
         <v>12</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44209</v>
+        <v>44224</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -12760,24 +12760,24 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N155" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O155" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P155" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -12786,10 +12786,10 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>1333</v>
+        <v>1071</v>
       </c>
       <c r="T155" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156">
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44209</v>
+        <v>44260</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -12840,24 +12840,24 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N156" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O156" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P156" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -12866,10 +12866,10 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T156" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157">
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44330</v>
+        <v>44209</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -12920,7 +12920,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M157" t="n">
@@ -12937,7 +12937,7 @@
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -12946,10 +12946,10 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T157" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44391</v>
+        <v>44209</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -13000,24 +13000,24 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M158" t="n">
         <v>162</v>
       </c>
       <c r="N158" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O158" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P158" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
@@ -13026,10 +13026,10 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T158" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159">
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -13080,7 +13080,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M159" t="n">
@@ -13097,7 +13097,7 @@
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
@@ -13106,10 +13106,10 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T159" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160">
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -13160,24 +13160,24 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M160" t="n">
         <v>162</v>
       </c>
       <c r="N160" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O160" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P160" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -13186,10 +13186,10 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T160" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161">
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -13244,7 +13244,7 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N161" t="n">
         <v>16000</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -13324,7 +13324,7 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N162" t="n">
         <v>16000</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -13644,7 +13644,7 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N166" t="n">
         <v>16000</v>
@@ -13720,7 +13720,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
@@ -13737,7 +13737,7 @@
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
@@ -13746,10 +13746,10 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T167" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168">
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -13800,11 +13800,11 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N168" t="n">
         <v>16000</v>
@@ -13817,7 +13817,7 @@
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -13826,10 +13826,10 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T168" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169">
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44278</v>
+        <v>44196</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -13880,11 +13880,11 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N169" t="n">
         <v>16000</v>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -13906,10 +13906,10 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="T169" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170">
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -13960,24 +13960,24 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M170" t="n">
         <v>108</v>
       </c>
       <c r="N170" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O170" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P170" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -13986,10 +13986,10 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T170" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171">
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -14040,11 +14040,11 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N171" t="n">
         <v>16000</v>
@@ -14057,7 +14057,7 @@
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,10 +14066,10 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T171" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44389</v>
+        <v>44278</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -14120,11 +14120,11 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N172" t="n">
         <v>17000</v>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,10 +14146,10 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T172" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -14207,13 +14207,13 @@
         <v>108</v>
       </c>
       <c r="N173" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O173" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P173" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T173" t="n">
         <v>14</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N174" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O174" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P174" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T174" t="n">
         <v>12</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -14367,13 +14367,13 @@
         <v>108</v>
       </c>
       <c r="N175" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O175" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P175" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1429</v>
+        <v>1214</v>
       </c>
       <c r="T175" t="n">
         <v>14</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -14447,13 +14447,13 @@
         <v>108</v>
       </c>
       <c r="N176" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O176" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P176" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T176" t="n">
         <v>12</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -14527,13 +14527,13 @@
         <v>108</v>
       </c>
       <c r="N177" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O177" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P177" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T177" t="n">
         <v>14</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -14767,17 +14767,17 @@
         <v>108</v>
       </c>
       <c r="N180" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O180" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P180" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -14786,10 +14786,10 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T180" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44305</v>
+        <v>44250</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -14840,7 +14840,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M181" t="n">
@@ -14857,7 +14857,7 @@
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14866,10 +14866,10 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T181" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M182" t="n">
         <v>108</v>
       </c>
       <c r="N182" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O182" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P182" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T182" t="n">
         <v>14</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N183" t="n">
         <v>16000</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -15167,13 +15167,13 @@
         <v>162</v>
       </c>
       <c r="N185" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O185" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P185" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T185" t="n">
         <v>12</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -15247,13 +15247,13 @@
         <v>108</v>
       </c>
       <c r="N186" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O186" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P186" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T186" t="n">
         <v>14</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -15327,13 +15327,13 @@
         <v>162</v>
       </c>
       <c r="N187" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O187" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P187" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T187" t="n">
         <v>12</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -15404,16 +15404,16 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N188" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O188" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P188" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T188" t="n">
         <v>14</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -15487,13 +15487,13 @@
         <v>162</v>
       </c>
       <c r="N189" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O189" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P189" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1583</v>
+        <v>1333</v>
       </c>
       <c r="T189" t="n">
         <v>12</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N190" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O190" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P190" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T190" t="n">
         <v>14</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -15644,16 +15644,16 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N191" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O191" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P191" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T191" t="n">
         <v>12</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N192" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O192" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P192" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1286</v>
+        <v>1357</v>
       </c>
       <c r="T192" t="n">
         <v>14</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -15807,13 +15807,13 @@
         <v>108</v>
       </c>
       <c r="N193" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O193" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P193" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T193" t="n">
         <v>12</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N194" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O194" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P194" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1214</v>
+        <v>1286</v>
       </c>
       <c r="T194" t="n">
         <v>14</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N195" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O195" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P195" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T195" t="n">
         <v>12</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -16047,13 +16047,13 @@
         <v>108</v>
       </c>
       <c r="N196" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O196" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P196" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1571</v>
+        <v>1214</v>
       </c>
       <c r="T196" t="n">
         <v>14</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -16120,24 +16120,24 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N197" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O197" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P197" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -16146,10 +16146,10 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1600</v>
+        <v>1833</v>
       </c>
       <c r="T197" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198">
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -16200,24 +16200,24 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N198" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O198" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P198" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -16226,10 +16226,10 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1333</v>
+        <v>1571</v>
       </c>
       <c r="T198" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199">
@@ -16280,11 +16280,11 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N199" t="n">
         <v>16000</v>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
@@ -16306,10 +16306,10 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1143</v>
+        <v>1600</v>
       </c>
       <c r="T199" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200">
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N200" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O200" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P200" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T200" t="n">
         <v>12</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44333</v>
+        <v>44195</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -16440,24 +16440,24 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M201" t="n">
         <v>162</v>
       </c>
       <c r="N201" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O201" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P201" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
@@ -16466,10 +16466,10 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T201" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202">
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -16520,24 +16520,24 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M202" t="n">
         <v>108</v>
       </c>
       <c r="N202" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O202" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P202" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
@@ -16546,10 +16546,10 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1214</v>
+        <v>1833</v>
       </c>
       <c r="T202" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203">
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -16604,16 +16604,16 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N203" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O203" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P203" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T203" t="n">
         <v>12</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N204" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O204" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P204" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T204" t="n">
         <v>14</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -16767,13 +16767,13 @@
         <v>108</v>
       </c>
       <c r="N205" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O205" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P205" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T205" t="n">
         <v>12</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -16847,13 +16847,13 @@
         <v>162</v>
       </c>
       <c r="N206" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O206" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P206" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T206" t="n">
         <v>14</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -16927,13 +16927,13 @@
         <v>108</v>
       </c>
       <c r="N207" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O207" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P207" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T207" t="n">
         <v>12</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44188</v>
+        <v>44277</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -17000,11 +17000,11 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N208" t="n">
         <v>17000</v>
@@ -17017,7 +17017,7 @@
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
@@ -17026,10 +17026,10 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T208" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209">
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -17080,24 +17080,24 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N209" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O209" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P209" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
@@ -17106,10 +17106,10 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T209" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N210" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O210" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P210" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T210" t="n">
         <v>12</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44319</v>
+        <v>44188</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -17240,24 +17240,24 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N211" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O211" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P211" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
@@ -17266,10 +17266,10 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T211" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212">
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -17320,11 +17320,11 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N212" t="n">
         <v>16000</v>
@@ -17337,7 +17337,7 @@
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -17346,10 +17346,10 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T212" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213">
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -17404,7 +17404,7 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N213" t="n">
         <v>16000</v>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -17426,10 +17426,10 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T213" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214">
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44281</v>
+        <v>44319</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -17480,24 +17480,24 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M214" t="n">
         <v>108</v>
       </c>
       <c r="N214" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O214" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P214" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
@@ -17506,10 +17506,10 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T214" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -17567,17 +17567,17 @@
         <v>162</v>
       </c>
       <c r="N215" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O215" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P215" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -17586,10 +17586,10 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T215" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216">
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -17640,24 +17640,24 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M216" t="n">
         <v>108</v>
       </c>
       <c r="N216" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O216" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P216" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1571</v>
+        <v>1417</v>
       </c>
       <c r="T216" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -17727,13 +17727,13 @@
         <v>162</v>
       </c>
       <c r="N217" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O217" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P217" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1500</v>
+        <v>1833</v>
       </c>
       <c r="T217" t="n">
         <v>12</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -17807,13 +17807,13 @@
         <v>108</v>
       </c>
       <c r="N218" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O218" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P218" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1286</v>
+        <v>1571</v>
       </c>
       <c r="T218" t="n">
         <v>14</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N219" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O219" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P219" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T219" t="n">
         <v>12</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N220" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O220" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P220" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1143</v>
+        <v>1286</v>
       </c>
       <c r="T220" t="n">
         <v>14</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N221" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O221" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P221" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T221" t="n">
         <v>12</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N222" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O222" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P222" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T222" t="n">
         <v>14</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N223" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O223" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P223" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T223" t="n">
         <v>12</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -18280,24 +18280,24 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N224" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O224" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P224" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
@@ -18306,10 +18306,10 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1500</v>
+        <v>1214</v>
       </c>
       <c r="T224" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="225">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44230</v>
+        <v>44272</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -18364,20 +18364,20 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="N225" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O225" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P225" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
@@ -18386,10 +18386,10 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T225" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226">
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N226" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O226" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P226" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T226" t="n">
         <v>12</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -18520,24 +18520,24 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="N227" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O227" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P227" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
@@ -18546,10 +18546,10 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T227" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -18600,24 +18600,24 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N228" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O228" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P228" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R228" t="inlineStr">
@@ -18626,10 +18626,10 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1500</v>
+        <v>1417</v>
       </c>
       <c r="T228" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229">
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -18680,7 +18680,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M229" t="n">
@@ -18697,7 +18697,7 @@
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
@@ -18706,10 +18706,10 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T229" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -18760,24 +18760,24 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="N230" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O230" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P230" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R230" t="inlineStr">
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T230" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231">
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -18847,13 +18847,13 @@
         <v>108</v>
       </c>
       <c r="N231" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O231" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P231" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T231" t="n">
         <v>12</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -18927,13 +18927,13 @@
         <v>108</v>
       </c>
       <c r="N232" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O232" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P232" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T232" t="n">
         <v>14</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -19000,11 +19000,11 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N233" t="n">
         <v>16000</v>
@@ -19017,7 +19017,7 @@
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
@@ -19026,10 +19026,10 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T233" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234">
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -19080,11 +19080,11 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N234" t="n">
         <v>16000</v>
@@ -19097,7 +19097,7 @@
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
@@ -19106,10 +19106,10 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T234" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -19164,7 +19164,7 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N235" t="n">
         <v>16000</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -19247,13 +19247,13 @@
         <v>162</v>
       </c>
       <c r="N236" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O236" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P236" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1250</v>
+        <v>1333</v>
       </c>
       <c r="T236" t="n">
         <v>12</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -19327,13 +19327,13 @@
         <v>108</v>
       </c>
       <c r="N237" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O237" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P237" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1071</v>
+        <v>1143</v>
       </c>
       <c r="T237" t="n">
         <v>14</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -19407,13 +19407,13 @@
         <v>162</v>
       </c>
       <c r="N238" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O238" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P238" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1417</v>
+        <v>1250</v>
       </c>
       <c r="T238" t="n">
         <v>12</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -19487,13 +19487,13 @@
         <v>108</v>
       </c>
       <c r="N239" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O239" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P239" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1143</v>
+        <v>1071</v>
       </c>
       <c r="T239" t="n">
         <v>14</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -19567,13 +19567,13 @@
         <v>162</v>
       </c>
       <c r="N240" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O240" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P240" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T240" t="n">
         <v>12</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N242" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O242" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P242" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T242" t="n">
         <v>12</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19887,13 +19887,13 @@
         <v>108</v>
       </c>
       <c r="N244" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O244" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P244" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T244" t="n">
         <v>12</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -19964,7 +19964,7 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N245" t="n">
         <v>16000</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N246" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O246" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P246" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="T246" t="n">
         <v>12</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N247" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O247" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P247" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T247" t="n">
         <v>14</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M248" t="n">
         <v>162</v>
       </c>
       <c r="N248" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O248" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P248" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1143</v>
+        <v>1667</v>
       </c>
       <c r="T248" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20280,24 +20280,24 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N249" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O249" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P249" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T249" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44168</v>
+        <v>44284</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -20360,24 +20360,24 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N250" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O250" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P250" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T250" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -20440,35 +20440,195 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
         <v>162</v>
       </c>
       <c r="N251" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O251" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P251" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S251" t="n">
+        <v>1417</v>
+      </c>
+      <c r="T251" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>3</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E252" t="n">
+        <v>5</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
+        <v>108</v>
+      </c>
+      <c r="N252" t="n">
         <v>22000</v>
       </c>
-      <c r="O251" t="n">
+      <c r="O252" t="n">
         <v>22000</v>
       </c>
-      <c r="P251" t="n">
+      <c r="P252" t="n">
         <v>22000</v>
       </c>
-      <c r="Q251" t="inlineStr">
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S252" t="n">
+        <v>1833</v>
+      </c>
+      <c r="T252" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>3</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E253" t="n">
+        <v>5</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M253" t="n">
+        <v>162</v>
+      </c>
+      <c r="N253" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O253" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P253" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q253" t="inlineStr">
         <is>
           <t>$/caja 14 unidades</t>
         </is>
       </c>
-      <c r="R251" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S251" t="n">
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S253" t="n">
         <v>1571</v>
       </c>
-      <c r="T251" t="n">
+      <c r="T253" t="n">
         <v>14</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T270"/>
+  <dimension ref="A1:T281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44340</v>
+        <v>44434</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="N72" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O72" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P72" t="n">
-        <v>17000</v>
+        <v>21200</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1417</v>
+        <v>1767</v>
       </c>
       <c r="T72" t="n">
         <v>12</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44340</v>
+        <v>44434</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="N73" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O73" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P73" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T73" t="n">
         <v>14</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -6287,13 +6287,13 @@
         <v>162</v>
       </c>
       <c r="N74" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O74" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P74" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T74" t="n">
         <v>12</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N75" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O75" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P75" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1571</v>
+        <v>1214</v>
       </c>
       <c r="T75" t="n">
         <v>14</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44221</v>
+        <v>44174</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -6447,13 +6447,13 @@
         <v>162</v>
       </c>
       <c r="N76" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O76" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P76" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T76" t="n">
         <v>12</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44271</v>
+        <v>44174</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -6520,24 +6520,24 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N77" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O77" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P77" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,10 +6546,10 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1333</v>
+        <v>1571</v>
       </c>
       <c r="T77" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -6600,11 +6600,11 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N78" t="n">
         <v>16000</v>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T78" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -6687,13 +6687,13 @@
         <v>162</v>
       </c>
       <c r="N79" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O79" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P79" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T79" t="n">
         <v>12</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N80" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O80" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P80" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T80" t="n">
         <v>14</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N81" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O81" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P81" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T81" t="n">
         <v>12</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -6920,24 +6920,24 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>54</v>
       </c>
       <c r="N82" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O82" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P82" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T82" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N83" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O83" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P83" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T83" t="n">
         <v>12</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44342</v>
+        <v>44299</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -7080,24 +7080,24 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N84" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O84" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P84" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1417</v>
+        <v>1000</v>
       </c>
       <c r="T84" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44342</v>
+        <v>44428</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -7160,24 +7160,24 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M85" t="n">
         <v>108</v>
       </c>
       <c r="N85" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O85" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P85" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1214</v>
+        <v>1900</v>
       </c>
       <c r="T85" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44362</v>
+        <v>44428</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -7247,13 +7247,13 @@
         <v>108</v>
       </c>
       <c r="N86" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O86" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P86" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1333</v>
+        <v>1583</v>
       </c>
       <c r="T86" t="n">
         <v>12</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44175</v>
+        <v>44162</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N87" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O87" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P87" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1750</v>
+        <v>1833</v>
       </c>
       <c r="T87" t="n">
         <v>12</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44175</v>
+        <v>44342</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -7400,24 +7400,24 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>108</v>
       </c>
       <c r="N88" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O88" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P88" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1500</v>
+        <v>1417</v>
       </c>
       <c r="T88" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44384</v>
+        <v>44342</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
@@ -7480,7 +7480,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T89" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44242</v>
+        <v>44362</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -7567,13 +7567,13 @@
         <v>108</v>
       </c>
       <c r="N90" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O90" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P90" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T90" t="n">
         <v>12</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44242</v>
+        <v>44175</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -7640,24 +7640,24 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N91" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O91" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P91" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,10 +7666,10 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1214</v>
+        <v>1750</v>
       </c>
       <c r="T91" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44204</v>
+        <v>44175</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -7720,24 +7720,24 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>108</v>
       </c>
       <c r="N92" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O92" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P92" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7746,10 +7746,10 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T92" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44204</v>
+        <v>44384</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7800,11 +7800,11 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N93" t="n">
         <v>17000</v>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7826,10 +7826,10 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T93" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44200</v>
+        <v>44242</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7884,16 +7884,16 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N94" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O94" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P94" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T94" t="n">
         <v>12</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44200</v>
+        <v>44242</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7967,13 +7967,13 @@
         <v>108</v>
       </c>
       <c r="N95" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O95" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P95" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T95" t="n">
         <v>14</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44363</v>
+        <v>44204</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -8047,13 +8047,13 @@
         <v>108</v>
       </c>
       <c r="N96" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O96" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P96" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T96" t="n">
         <v>12</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44363</v>
+        <v>44204</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M97" t="n">
         <v>162</v>
       </c>
       <c r="N97" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O97" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P97" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T97" t="n">
         <v>14</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44216</v>
+        <v>44200</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -8204,16 +8204,16 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N98" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O98" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P98" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1250</v>
+        <v>1333</v>
       </c>
       <c r="T98" t="n">
         <v>12</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44216</v>
+        <v>44200</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N99" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O99" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P99" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1071</v>
+        <v>1143</v>
       </c>
       <c r="T99" t="n">
         <v>14</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -8360,7 +8360,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -8386,10 +8386,10 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1600</v>
+        <v>1333</v>
       </c>
       <c r="T100" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -8444,7 +8444,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N101" t="n">
         <v>16000</v>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -8466,10 +8466,10 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T101" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102">
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44385</v>
+        <v>44216</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -8524,16 +8524,16 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N102" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O102" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P102" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1417</v>
+        <v>1250</v>
       </c>
       <c r="T102" t="n">
         <v>12</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44385</v>
+        <v>44216</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -8604,16 +8604,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N103" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O103" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P103" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1214</v>
+        <v>1071</v>
       </c>
       <c r="T103" t="n">
         <v>14</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44258</v>
+        <v>44349</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M104" t="n">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1333</v>
+        <v>1600</v>
       </c>
       <c r="T104" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44258</v>
+        <v>44349</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -8760,7 +8760,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T105" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44243</v>
+        <v>44385</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -8844,7 +8844,7 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N106" t="n">
         <v>17000</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44427</v>
+        <v>44385</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8920,24 +8920,24 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N107" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O107" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P107" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1583</v>
+        <v>1214</v>
       </c>
       <c r="T107" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44427</v>
+        <v>44258</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -9000,24 +9000,24 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M108" t="n">
         <v>108</v>
       </c>
       <c r="N108" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O108" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P108" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,10 +9026,10 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1357</v>
+        <v>1333</v>
       </c>
       <c r="T108" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44413</v>
+        <v>44258</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -9080,24 +9080,24 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="N109" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O109" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P109" t="n">
-        <v>18600</v>
+        <v>16000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -9106,10 +9106,10 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1860</v>
+        <v>1143</v>
       </c>
       <c r="T109" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="N110" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O110" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P110" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1542</v>
+        <v>1417</v>
       </c>
       <c r="T110" t="n">
         <v>12</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44176</v>
+        <v>44427</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -9247,13 +9247,13 @@
         <v>162</v>
       </c>
       <c r="N111" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O111" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P111" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1667</v>
+        <v>1583</v>
       </c>
       <c r="T111" t="n">
         <v>12</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44176</v>
+        <v>44427</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -9327,13 +9327,13 @@
         <v>108</v>
       </c>
       <c r="N112" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O112" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P112" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1429</v>
+        <v>1357</v>
       </c>
       <c r="T112" t="n">
         <v>14</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44421</v>
+        <v>44413</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -9400,24 +9400,24 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="N113" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O113" t="n">
         <v>19000</v>
       </c>
       <c r="P113" t="n">
-        <v>19000</v>
+        <v>18600</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -9426,10 +9426,10 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1583</v>
+        <v>1860</v>
       </c>
       <c r="T113" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="N114" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O114" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P114" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1333</v>
+        <v>1542</v>
       </c>
       <c r="T114" t="n">
         <v>12</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -9560,24 +9560,24 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N115" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O115" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P115" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -9586,10 +9586,10 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1143</v>
+        <v>1667</v>
       </c>
       <c r="T115" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44237</v>
+        <v>44176</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -9640,24 +9640,24 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N116" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O116" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P116" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,10 +9666,10 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1500</v>
+        <v>1429</v>
       </c>
       <c r="T116" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -9727,13 +9727,13 @@
         <v>108</v>
       </c>
       <c r="N117" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O117" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P117" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1333</v>
+        <v>1583</v>
       </c>
       <c r="T117" t="n">
         <v>12</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -9800,7 +9800,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -9826,10 +9826,10 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T118" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44377</v>
+        <v>44222</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -9880,24 +9880,24 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N119" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O119" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P119" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -9906,10 +9906,10 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T119" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44257</v>
+        <v>44237</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -9960,24 +9960,24 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="N120" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O120" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P120" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,10 +9986,10 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T120" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -10040,24 +10040,24 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
         <v>108</v>
       </c>
       <c r="N121" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O121" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P121" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10066,10 +10066,10 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T121" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44400</v>
+        <v>44273</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -10120,24 +10120,24 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N122" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O122" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P122" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -10146,10 +10146,10 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1667</v>
+        <v>1143</v>
       </c>
       <c r="T122" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44426</v>
+        <v>44377</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N123" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O123" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P123" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1583</v>
+        <v>1417</v>
       </c>
       <c r="T123" t="n">
         <v>12</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44426</v>
+        <v>44257</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -10280,24 +10280,24 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
         <v>108</v>
       </c>
       <c r="N124" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O124" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P124" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10306,10 +10306,10 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1357</v>
+        <v>1417</v>
       </c>
       <c r="T124" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125">
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44225</v>
+        <v>44257</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -10360,24 +10360,24 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N125" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O125" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P125" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,10 +10386,10 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1250</v>
+        <v>1214</v>
       </c>
       <c r="T125" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -10440,24 +10440,24 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
         <v>108</v>
       </c>
       <c r="N126" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O126" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P126" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1071</v>
+        <v>1667</v>
       </c>
       <c r="T126" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44295</v>
+        <v>44426</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -10524,16 +10524,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N127" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O127" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P127" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1333</v>
+        <v>1583</v>
       </c>
       <c r="T127" t="n">
         <v>12</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44194</v>
+        <v>44426</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -10600,24 +10600,24 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M128" t="n">
         <v>108</v>
       </c>
       <c r="N128" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O128" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P128" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -10626,10 +10626,10 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1600</v>
+        <v>1357</v>
       </c>
       <c r="T128" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129">
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -10687,13 +10687,13 @@
         <v>162</v>
       </c>
       <c r="N129" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O129" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P129" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1333</v>
+        <v>1250</v>
       </c>
       <c r="T129" t="n">
         <v>12</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -10767,13 +10767,13 @@
         <v>108</v>
       </c>
       <c r="N130" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O130" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P130" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1143</v>
+        <v>1071</v>
       </c>
       <c r="T130" t="n">
         <v>14</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N131" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O131" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P131" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T131" t="n">
         <v>12</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -10920,24 +10920,24 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M132" t="n">
         <v>108</v>
       </c>
       <c r="N132" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O132" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P132" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,10 +10946,10 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1214</v>
+        <v>1600</v>
       </c>
       <c r="T132" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44321</v>
+        <v>44194</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -11004,7 +11004,7 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N133" t="n">
         <v>16000</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44298</v>
+        <v>44194</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -11080,11 +11080,11 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N134" t="n">
         <v>16000</v>
@@ -11097,7 +11097,7 @@
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -11106,10 +11106,10 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T134" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -11160,24 +11160,24 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
         <v>108</v>
       </c>
       <c r="N135" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O135" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P135" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -11186,10 +11186,10 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T135" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -11244,7 +11244,7 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N136" t="n">
         <v>17000</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44354</v>
+        <v>44321</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -11324,7 +11324,7 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N137" t="n">
         <v>16000</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -11400,11 +11400,11 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N138" t="n">
         <v>16000</v>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T138" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44169</v>
+        <v>44298</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -11480,24 +11480,24 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N139" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O139" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P139" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,10 +11506,10 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T139" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140">
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44410</v>
+        <v>44383</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -11560,24 +11560,24 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N140" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O140" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P140" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,10 +11586,10 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1667</v>
+        <v>1214</v>
       </c>
       <c r="T140" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -11640,24 +11640,24 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M141" t="n">
         <v>162</v>
       </c>
       <c r="N141" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O141" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P141" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,10 +11666,10 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1429</v>
+        <v>1333</v>
       </c>
       <c r="T141" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142">
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N142" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O142" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P142" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T142" t="n">
         <v>14</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44336</v>
+        <v>44169</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -11807,13 +11807,13 @@
         <v>162</v>
       </c>
       <c r="N143" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O143" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P143" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1417</v>
+        <v>1833</v>
       </c>
       <c r="T143" t="n">
         <v>12</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -11880,24 +11880,24 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M144" t="n">
         <v>108</v>
       </c>
       <c r="N144" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O144" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P144" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,10 +11906,10 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1214</v>
+        <v>1667</v>
       </c>
       <c r="T144" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44300</v>
+        <v>44410</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -11960,24 +11960,24 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N145" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O145" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P145" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1333</v>
+        <v>1429</v>
       </c>
       <c r="T145" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146">
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N146" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O146" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P146" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T146" t="n">
         <v>14</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N147" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O147" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P147" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T147" t="n">
         <v>12</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44214</v>
+        <v>44336</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -12200,24 +12200,24 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N148" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O148" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P148" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,10 +12226,10 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T148" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44214</v>
+        <v>44300</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -12280,11 +12280,11 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N149" t="n">
         <v>16000</v>
@@ -12297,7 +12297,7 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,10 +12306,10 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T149" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -12360,24 +12360,24 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N150" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O150" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P150" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -12386,10 +12386,10 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1500</v>
+        <v>1143</v>
       </c>
       <c r="T150" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151">
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44371</v>
+        <v>44172</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -12440,24 +12440,24 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N151" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O151" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P151" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,10 +12466,10 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1286</v>
+        <v>1833</v>
       </c>
       <c r="T151" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44238</v>
+        <v>44214</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -12520,24 +12520,24 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="N152" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O152" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P152" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -12546,10 +12546,10 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T152" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153">
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -12687,13 +12687,13 @@
         <v>162</v>
       </c>
       <c r="N154" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O154" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P154" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T154" t="n">
         <v>12</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -12755,29 +12755,29 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Caramelo</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M155" t="n">
         <v>108</v>
       </c>
       <c r="N155" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O155" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P155" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -12786,10 +12786,10 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>1333</v>
+        <v>1286</v>
       </c>
       <c r="T155" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156">
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44314</v>
+        <v>44238</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -12835,29 +12835,29 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Caramelo</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="N156" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O156" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P156" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -12866,10 +12866,10 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T156" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44364</v>
+        <v>44274</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -12920,24 +12920,24 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M157" t="n">
         <v>162</v>
       </c>
       <c r="N157" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O157" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P157" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -12946,10 +12946,10 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1500</v>
+        <v>1143</v>
       </c>
       <c r="T157" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -13000,24 +13000,24 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N158" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O158" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P158" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
@@ -13026,10 +13026,10 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1286</v>
+        <v>1333</v>
       </c>
       <c r="T158" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159">
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Caramelo</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -13087,13 +13087,13 @@
         <v>108</v>
       </c>
       <c r="N159" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O159" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P159" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="T159" t="n">
         <v>12</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Caramelo</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -13167,13 +13167,13 @@
         <v>108</v>
       </c>
       <c r="N160" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O160" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P160" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T160" t="n">
         <v>14</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -13240,24 +13240,24 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N161" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O161" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P161" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -13269,7 +13269,7 @@
         <v>1500</v>
       </c>
       <c r="T161" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162">
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -13320,24 +13320,24 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N162" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O162" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P162" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -13346,10 +13346,10 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1250</v>
+        <v>1286</v>
       </c>
       <c r="T162" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163">
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44224</v>
+        <v>44435</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -13400,24 +13400,24 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>108</v>
+        <v>864</v>
       </c>
       <c r="N163" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O163" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P163" t="n">
-        <v>15000</v>
+        <v>20438</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,10 +13426,10 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>1071</v>
+        <v>1703</v>
       </c>
       <c r="T163" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164">
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44260</v>
+        <v>44435</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -13480,24 +13480,24 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>108</v>
+        <v>432</v>
       </c>
       <c r="N164" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O164" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P164" t="n">
-        <v>17000</v>
+        <v>20250</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -13506,10 +13506,10 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>1417</v>
+        <v>1446</v>
       </c>
       <c r="T164" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165">
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44209</v>
+        <v>44431</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -13567,13 +13567,13 @@
         <v>162</v>
       </c>
       <c r="N165" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O165" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P165" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T165" t="n">
         <v>12</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44209</v>
+        <v>44431</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N166" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O166" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P166" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T166" t="n">
         <v>14</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44330</v>
+        <v>44405</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -13720,24 +13720,24 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N167" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O167" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P167" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
@@ -13746,10 +13746,10 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1143</v>
+        <v>1667</v>
       </c>
       <c r="T167" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168">
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -13800,24 +13800,24 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N168" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O168" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P168" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -13826,10 +13826,10 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T168" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169">
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44193</v>
+        <v>44224</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -13880,24 +13880,24 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N169" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O169" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P169" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -13906,10 +13906,10 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T169" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44193</v>
+        <v>44224</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -13960,24 +13960,24 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M170" t="n">
         <v>162</v>
       </c>
       <c r="N170" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O170" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P170" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -13986,10 +13986,10 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1143</v>
+        <v>1250</v>
       </c>
       <c r="T170" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171">
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44351</v>
+        <v>44224</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -14040,24 +14040,24 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M171" t="n">
         <v>108</v>
       </c>
       <c r="N171" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O171" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P171" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,10 +14066,10 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1333</v>
+        <v>1071</v>
       </c>
       <c r="T171" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172">
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44351</v>
+        <v>44260</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -14120,24 +14120,24 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M172" t="n">
         <v>108</v>
       </c>
       <c r="N172" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O172" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P172" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,10 +14146,10 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T172" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44350</v>
+        <v>44209</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -14204,7 +14204,7 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N173" t="n">
         <v>16000</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44350</v>
+        <v>44209</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -14284,7 +14284,7 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N174" t="n">
         <v>16000</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44196</v>
+        <v>44330</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -14360,11 +14360,11 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N175" t="n">
         <v>16000</v>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -14386,10 +14386,10 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T175" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44196</v>
+        <v>44391</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -14440,24 +14440,24 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
         <v>162</v>
       </c>
       <c r="N176" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O176" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P176" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,10 +14466,10 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T176" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -14520,11 +14520,11 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N177" t="n">
         <v>16000</v>
@@ -14537,7 +14537,7 @@
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,10 +14546,10 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T177" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178">
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44315</v>
+        <v>44193</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -14600,11 +14600,11 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N178" t="n">
         <v>16000</v>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,10 +14626,10 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T178" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44278</v>
+        <v>44351</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -14684,7 +14684,7 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N179" t="n">
         <v>16000</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44278</v>
+        <v>44351</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -14767,13 +14767,13 @@
         <v>108</v>
       </c>
       <c r="N180" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O180" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P180" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T180" t="n">
         <v>14</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -14840,7 +14840,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M181" t="n">
@@ -14857,7 +14857,7 @@
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14866,10 +14866,10 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T181" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44389</v>
+        <v>44350</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -14920,24 +14920,24 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N182" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O182" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P182" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,10 +14946,10 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T182" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44389</v>
+        <v>44196</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -15000,24 +15000,24 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M183" t="n">
         <v>108</v>
       </c>
       <c r="N183" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O183" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P183" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -15026,10 +15026,10 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T183" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184">
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44399</v>
+        <v>44196</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -15080,24 +15080,24 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N184" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O184" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P184" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -15106,10 +15106,10 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1667</v>
+        <v>1143</v>
       </c>
       <c r="T184" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44399</v>
+        <v>44196</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -15160,24 +15160,24 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M185" t="n">
         <v>108</v>
       </c>
       <c r="N185" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O185" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P185" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -15186,10 +15186,10 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T185" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186">
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44251</v>
+        <v>44315</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44251</v>
+        <v>44278</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -15320,11 +15320,11 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N187" t="n">
         <v>16000</v>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -15346,10 +15346,10 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T187" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188">
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44250</v>
+        <v>44278</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -15400,24 +15400,24 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M188" t="n">
         <v>108</v>
       </c>
       <c r="N188" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O188" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P188" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T188" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189">
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44250</v>
+        <v>44358</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44292</v>
+        <v>44389</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -15564,7 +15564,7 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N190" t="n">
         <v>17000</v>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -15586,10 +15586,10 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T190" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191">
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44305</v>
+        <v>44389</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -15640,24 +15640,24 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M191" t="n">
         <v>108</v>
       </c>
       <c r="N191" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O191" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P191" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -15666,10 +15666,10 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T191" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192">
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -15720,24 +15720,24 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M192" t="n">
         <v>108</v>
       </c>
       <c r="N192" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O192" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P192" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -15746,10 +15746,10 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1143</v>
+        <v>1667</v>
       </c>
       <c r="T192" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193">
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -15800,24 +15800,24 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N193" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O193" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P193" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
@@ -15826,10 +15826,10 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1333</v>
+        <v>1429</v>
       </c>
       <c r="T193" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194">
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44294</v>
+        <v>44251</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -15880,7 +15880,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -15897,7 +15897,7 @@
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -15906,10 +15906,10 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T194" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195">
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44417</v>
+        <v>44251</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -15960,24 +15960,24 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M195" t="n">
         <v>108</v>
       </c>
       <c r="N195" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O195" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P195" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1583</v>
+        <v>1143</v>
       </c>
       <c r="T195" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196">
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44417</v>
+        <v>44250</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -16040,24 +16040,24 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M196" t="n">
         <v>108</v>
       </c>
       <c r="N196" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O196" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P196" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -16066,10 +16066,10 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1357</v>
+        <v>1333</v>
       </c>
       <c r="T196" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197">
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44419</v>
+        <v>44250</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -16120,24 +16120,24 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N197" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O197" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P197" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -16146,10 +16146,10 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1583</v>
+        <v>1143</v>
       </c>
       <c r="T197" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198">
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44419</v>
+        <v>44292</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M198" t="n">
         <v>108</v>
       </c>
       <c r="N198" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O198" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P198" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1357</v>
+        <v>1214</v>
       </c>
       <c r="T198" t="n">
         <v>14</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44420</v>
+        <v>44305</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -16280,24 +16280,24 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N199" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O199" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P199" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
@@ -16306,10 +16306,10 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1900</v>
+        <v>1333</v>
       </c>
       <c r="T199" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200">
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44420</v>
+        <v>44305</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -16360,24 +16360,24 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M200" t="n">
         <v>108</v>
       </c>
       <c r="N200" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O200" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P200" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -16386,10 +16386,10 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1583</v>
+        <v>1143</v>
       </c>
       <c r="T200" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201">
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44420</v>
+        <v>44294</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -16440,24 +16440,24 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N201" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O201" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P201" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
@@ -16466,10 +16466,10 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1357</v>
+        <v>1333</v>
       </c>
       <c r="T201" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202">
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -16520,24 +16520,24 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N202" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O202" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P202" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
@@ -16546,10 +16546,10 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T202" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203">
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44245</v>
+        <v>44417</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -16600,24 +16600,24 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M203" t="n">
         <v>108</v>
       </c>
       <c r="N203" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O203" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P203" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -16626,10 +16626,10 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1214</v>
+        <v>1583</v>
       </c>
       <c r="T203" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204">
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44202</v>
+        <v>44417</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -16680,24 +16680,24 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N204" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O204" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P204" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
@@ -16706,10 +16706,10 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1333</v>
+        <v>1357</v>
       </c>
       <c r="T204" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205">
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44202</v>
+        <v>44419</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -16760,24 +16760,24 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M205" t="n">
         <v>162</v>
       </c>
       <c r="N205" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O205" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P205" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
@@ -16786,10 +16786,10 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1143</v>
+        <v>1583</v>
       </c>
       <c r="T205" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206">
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44181</v>
+        <v>44419</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -16840,11 +16840,11 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N206" t="n">
         <v>19000</v>
@@ -16857,7 +16857,7 @@
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
@@ -16866,10 +16866,10 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1583</v>
+        <v>1357</v>
       </c>
       <c r="T206" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44181</v>
+        <v>44420</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -16920,11 +16920,11 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N207" t="n">
         <v>19000</v>
@@ -16937,7 +16937,7 @@
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
@@ -16946,10 +16946,10 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1357</v>
+        <v>1900</v>
       </c>
       <c r="T207" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -17007,13 +17007,13 @@
         <v>108</v>
       </c>
       <c r="N208" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O208" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P208" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T208" t="n">
         <v>12</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -17087,13 +17087,13 @@
         <v>54</v>
       </c>
       <c r="N209" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O209" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P209" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1286</v>
+        <v>1357</v>
       </c>
       <c r="T209" t="n">
         <v>14</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44307</v>
+        <v>44245</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -17164,7 +17164,7 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N210" t="n">
         <v>17000</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44307</v>
+        <v>44245</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44161</v>
+        <v>44202</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -17327,13 +17327,13 @@
         <v>162</v>
       </c>
       <c r="N212" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O212" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P212" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T212" t="n">
         <v>12</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44161</v>
+        <v>44202</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N213" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O213" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P213" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1571</v>
+        <v>1143</v>
       </c>
       <c r="T213" t="n">
         <v>14</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44195</v>
+        <v>44181</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -17480,24 +17480,24 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N214" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O214" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P214" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
@@ -17506,10 +17506,10 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1600</v>
+        <v>1583</v>
       </c>
       <c r="T214" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44195</v>
+        <v>44181</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -17560,24 +17560,24 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N215" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O215" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P215" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -17586,10 +17586,10 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1333</v>
+        <v>1357</v>
       </c>
       <c r="T215" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216">
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44195</v>
+        <v>44369</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -17640,24 +17640,24 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N216" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O216" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P216" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T216" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44159</v>
+        <v>44369</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -17720,24 +17720,24 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N217" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O217" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P217" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -17746,10 +17746,10 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1833</v>
+        <v>1286</v>
       </c>
       <c r="T217" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218">
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44333</v>
+        <v>44307</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -17804,7 +17804,7 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N218" t="n">
         <v>17000</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44333</v>
+        <v>44307</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44201</v>
+        <v>44161</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N220" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O220" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P220" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T220" t="n">
         <v>12</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44201</v>
+        <v>44161</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N221" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O221" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P221" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1143</v>
+        <v>1571</v>
       </c>
       <c r="T221" t="n">
         <v>14</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44277</v>
+        <v>44195</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -18120,24 +18120,24 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M222" t="n">
         <v>108</v>
       </c>
       <c r="N222" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O222" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P222" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -18146,10 +18146,10 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1417</v>
+        <v>1600</v>
       </c>
       <c r="T222" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223">
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44277</v>
+        <v>44195</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -18200,24 +18200,24 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M223" t="n">
         <v>162</v>
       </c>
       <c r="N223" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O223" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P223" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T223" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224">
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44309</v>
+        <v>44195</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -18280,11 +18280,11 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N224" t="n">
         <v>16000</v>
@@ -18297,7 +18297,7 @@
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
@@ -18306,10 +18306,10 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T224" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="225">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44188</v>
+        <v>44159</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -18367,13 +18367,13 @@
         <v>108</v>
       </c>
       <c r="N225" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O225" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P225" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1417</v>
+        <v>1833</v>
       </c>
       <c r="T225" t="n">
         <v>12</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44188</v>
+        <v>44333</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -18440,7 +18440,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M226" t="n">
@@ -18457,7 +18457,7 @@
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
@@ -18466,10 +18466,10 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T226" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44344</v>
+        <v>44333</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -18520,24 +18520,24 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N227" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O227" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P227" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
@@ -18546,10 +18546,10 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T227" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228">
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44319</v>
+        <v>44201</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44319</v>
+        <v>44201</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -18684,7 +18684,7 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N229" t="n">
         <v>16000</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44253</v>
+        <v>44277</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -18764,20 +18764,20 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N230" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O230" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P230" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R230" t="inlineStr">
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T230" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231">
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44281</v>
+        <v>44277</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -18840,11 +18840,11 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N231" t="n">
         <v>17000</v>
@@ -18857,7 +18857,7 @@
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
@@ -18866,10 +18866,10 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T231" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232">
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44160</v>
+        <v>44433</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -18927,13 +18927,13 @@
         <v>162</v>
       </c>
       <c r="N232" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O232" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P232" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1833</v>
+        <v>1583</v>
       </c>
       <c r="T232" t="n">
         <v>12</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44160</v>
+        <v>44309</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -19000,24 +19000,24 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M233" t="n">
         <v>108</v>
       </c>
       <c r="N233" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O233" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P233" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
@@ -19026,10 +19026,10 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T233" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234">
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N234" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O234" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P234" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1500</v>
+        <v>1417</v>
       </c>
       <c r="T234" t="n">
         <v>12</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N235" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O235" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P235" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="T235" t="n">
         <v>14</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44211</v>
+        <v>44344</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -19244,7 +19244,7 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N236" t="n">
         <v>16000</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44211</v>
+        <v>44319</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -19320,11 +19320,11 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N237" t="n">
         <v>16000</v>
@@ -19337,7 +19337,7 @@
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R237" t="inlineStr">
@@ -19346,10 +19346,10 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T237" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238">
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44301</v>
+        <v>44319</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -19400,24 +19400,24 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N238" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O238" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P238" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
@@ -19426,10 +19426,10 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T238" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239">
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44301</v>
+        <v>44253</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N239" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O239" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P239" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T239" t="n">
         <v>14</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44272</v>
+        <v>44281</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -19567,13 +19567,13 @@
         <v>108</v>
       </c>
       <c r="N240" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O240" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P240" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T240" t="n">
         <v>12</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -19647,13 +19647,13 @@
         <v>162</v>
       </c>
       <c r="N241" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O241" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P241" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1500</v>
+        <v>1833</v>
       </c>
       <c r="T241" t="n">
         <v>12</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44230</v>
+        <v>44160</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -19720,24 +19720,24 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="N242" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O242" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P242" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1500</v>
+        <v>1571</v>
       </c>
       <c r="T242" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44382</v>
+        <v>44186</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N243" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O243" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P243" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T243" t="n">
         <v>12</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44382</v>
+        <v>44186</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19887,13 +19887,13 @@
         <v>108</v>
       </c>
       <c r="N244" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O244" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P244" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1214</v>
+        <v>1286</v>
       </c>
       <c r="T244" t="n">
         <v>14</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44232</v>
+        <v>44211</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -19960,24 +19960,24 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N245" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O245" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P245" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
@@ -19986,10 +19986,10 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T245" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246">
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44398</v>
+        <v>44211</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20040,24 +20040,24 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N246" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O246" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P246" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T246" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44398</v>
+        <v>44301</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -20120,11 +20120,11 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N247" t="n">
         <v>17000</v>
@@ -20137,7 +20137,7 @@
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T247" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
         <v>108</v>
       </c>
       <c r="N248" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O248" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P248" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T248" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44270</v>
+        <v>44272</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
@@ -20297,7 +20297,7 @@
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T249" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44355</v>
+        <v>44370</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -20360,24 +20360,24 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N250" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O250" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P250" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T250" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44286</v>
+        <v>44230</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -20444,20 +20444,20 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N251" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O251" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P251" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -20466,10 +20466,10 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T251" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44286</v>
+        <v>44382</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -20520,24 +20520,24 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
         <v>108</v>
       </c>
       <c r="N252" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O252" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P252" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -20546,10 +20546,10 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T252" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253">
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44217</v>
+        <v>44382</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -20600,24 +20600,24 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N253" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O253" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P253" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -20626,10 +20626,10 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1250</v>
+        <v>1214</v>
       </c>
       <c r="T253" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254">
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44217</v>
+        <v>44232</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -20680,11 +20680,11 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="N254" t="n">
         <v>15000</v>
@@ -20697,7 +20697,7 @@
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,10 +20706,10 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1071</v>
+        <v>1500</v>
       </c>
       <c r="T254" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44244</v>
+        <v>44398</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -20764,7 +20764,7 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N255" t="n">
         <v>17000</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44244</v>
+        <v>44398</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -20847,13 +20847,13 @@
         <v>108</v>
       </c>
       <c r="N256" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O256" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P256" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T256" t="n">
         <v>14</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44343</v>
+        <v>44270</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -20924,7 +20924,7 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N257" t="n">
         <v>16000</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44343</v>
+        <v>44270</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -21080,24 +21080,24 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N259" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O259" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P259" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
@@ -21106,10 +21106,10 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T259" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44376</v>
+        <v>44286</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -21160,11 +21160,11 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N260" t="n">
         <v>16000</v>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -21186,10 +21186,10 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T260" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261">
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44208</v>
+        <v>44286</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -21240,7 +21240,7 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M261" t="n">
@@ -21257,7 +21257,7 @@
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
@@ -21266,10 +21266,10 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T261" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262">
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44208</v>
+        <v>44217</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -21320,24 +21320,24 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M262" t="n">
         <v>162</v>
       </c>
       <c r="N262" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O262" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P262" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -21346,10 +21346,10 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1143</v>
+        <v>1250</v>
       </c>
       <c r="T262" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263">
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -21400,24 +21400,24 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N263" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O263" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P263" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R263" t="inlineStr">
@@ -21426,10 +21426,10 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1667</v>
+        <v>1071</v>
       </c>
       <c r="T263" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264">
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44179</v>
+        <v>44244</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -21480,24 +21480,24 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N264" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O264" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P264" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,10 +21506,10 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="T264" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44284</v>
+        <v>44244</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -21564,7 +21564,7 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N265" t="n">
         <v>16000</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44334</v>
+        <v>44343</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -21647,13 +21647,13 @@
         <v>162</v>
       </c>
       <c r="N266" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O266" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P266" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T266" t="n">
         <v>12</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -21720,24 +21720,24 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M267" t="n">
         <v>108</v>
       </c>
       <c r="N267" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O267" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P267" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,10 +21746,10 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T267" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="268">
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44168</v>
+        <v>44376</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -21800,24 +21800,24 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N268" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O268" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P268" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -21826,10 +21826,10 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1571</v>
+        <v>1417</v>
       </c>
       <c r="T268" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44418</v>
+        <v>44376</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -21880,24 +21880,24 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M269" t="n">
         <v>108</v>
       </c>
       <c r="N269" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O269" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P269" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -21906,10 +21906,10 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1583</v>
+        <v>1143</v>
       </c>
       <c r="T269" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44418</v>
+        <v>44208</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -21960,35 +21960,915 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M270" t="n">
         <v>108</v>
       </c>
       <c r="N270" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O270" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P270" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S270" t="n">
+        <v>1333</v>
+      </c>
+      <c r="T270" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>3</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="E271" t="n">
+        <v>5</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M271" t="n">
+        <v>162</v>
+      </c>
+      <c r="N271" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O271" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P271" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S271" t="n">
+        <v>1143</v>
+      </c>
+      <c r="T271" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>3</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E272" t="n">
+        <v>5</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G272" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M272" t="n">
+        <v>162</v>
+      </c>
+      <c r="N272" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O272" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P272" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S272" t="n">
+        <v>1667</v>
+      </c>
+      <c r="T272" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>3</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D273" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E273" t="n">
+        <v>5</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G273" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M273" t="n">
+        <v>108</v>
+      </c>
+      <c r="N273" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O273" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P273" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S273" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T273" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>3</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E274" t="n">
+        <v>5</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G274" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M274" t="n">
+        <v>162</v>
+      </c>
+      <c r="N274" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O274" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P274" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S274" t="n">
+        <v>1143</v>
+      </c>
+      <c r="T274" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>3</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D275" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E275" t="n">
+        <v>5</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G275" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M275" t="n">
+        <v>162</v>
+      </c>
+      <c r="N275" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O275" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P275" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S275" t="n">
+        <v>1417</v>
+      </c>
+      <c r="T275" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>3</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E276" t="n">
+        <v>5</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G276" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M276" t="n">
+        <v>108</v>
+      </c>
+      <c r="N276" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O276" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P276" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S276" t="n">
+        <v>1833</v>
+      </c>
+      <c r="T276" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>3</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D277" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E277" t="n">
+        <v>5</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G277" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M277" t="n">
+        <v>162</v>
+      </c>
+      <c r="N277" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O277" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P277" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S277" t="n">
+        <v>1571</v>
+      </c>
+      <c r="T277" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>3</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E278" t="n">
+        <v>5</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G278" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M278" t="n">
+        <v>108</v>
+      </c>
+      <c r="N278" t="n">
         <v>19000</v>
       </c>
-      <c r="O270" t="n">
+      <c r="O278" t="n">
         <v>19000</v>
       </c>
-      <c r="P270" t="n">
+      <c r="P278" t="n">
         <v>19000</v>
       </c>
-      <c r="Q270" t="inlineStr">
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S278" t="n">
+        <v>1583</v>
+      </c>
+      <c r="T278" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>3</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D279" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E279" t="n">
+        <v>5</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G279" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M279" t="n">
+        <v>108</v>
+      </c>
+      <c r="N279" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O279" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P279" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q279" t="inlineStr">
         <is>
           <t>$/caja 14 unidades</t>
         </is>
       </c>
-      <c r="R270" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S270" t="n">
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S279" t="n">
         <v>1357</v>
       </c>
-      <c r="T270" t="n">
+      <c r="T279" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>3</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E280" t="n">
+        <v>5</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M280" t="n">
+        <v>108</v>
+      </c>
+      <c r="N280" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O280" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P280" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S280" t="n">
+        <v>1583</v>
+      </c>
+      <c r="T280" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>3</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D281" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E281" t="n">
+        <v>5</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M281" t="n">
+        <v>108</v>
+      </c>
+      <c r="N281" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O281" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P281" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S281" t="n">
+        <v>1357</v>
+      </c>
+      <c r="T281" t="n">
         <v>14</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T281"/>
+  <dimension ref="A1:T286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13400,24 +13400,24 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>864</v>
+        <v>54</v>
       </c>
       <c r="N163" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O163" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P163" t="n">
-        <v>20438</v>
+        <v>20000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,10 +13426,10 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>1703</v>
+        <v>2000</v>
       </c>
       <c r="T163" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
@@ -13480,11 +13480,11 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>432</v>
+        <v>864</v>
       </c>
       <c r="N164" t="n">
         <v>19000</v>
@@ -13493,11 +13493,11 @@
         <v>22000</v>
       </c>
       <c r="P164" t="n">
-        <v>20250</v>
+        <v>20438</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -13506,10 +13506,10 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>1446</v>
+        <v>1703</v>
       </c>
       <c r="T164" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165">
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44431</v>
+        <v>44435</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -13560,24 +13560,24 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>162</v>
+        <v>432</v>
       </c>
       <c r="N165" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O165" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P165" t="n">
-        <v>20000</v>
+        <v>20250</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -13586,10 +13586,10 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>1667</v>
+        <v>1446</v>
       </c>
       <c r="T165" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166">
@@ -13640,11 +13640,11 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N166" t="n">
         <v>20000</v>
@@ -13657,7 +13657,7 @@
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
@@ -13666,10 +13666,10 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1429</v>
+        <v>2000</v>
       </c>
       <c r="T166" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44405</v>
+        <v>44431</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -13724,7 +13724,7 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N167" t="n">
         <v>20000</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44405</v>
+        <v>44431</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -13880,24 +13880,24 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
         <v>108</v>
       </c>
       <c r="N169" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O169" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P169" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -13906,10 +13906,10 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T169" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170">
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -13960,24 +13960,24 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N170" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O170" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P170" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -13986,10 +13986,10 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1250</v>
+        <v>1429</v>
       </c>
       <c r="T170" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171">
@@ -14040,7 +14040,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
@@ -14057,7 +14057,7 @@
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,10 +14066,10 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1071</v>
+        <v>1500</v>
       </c>
       <c r="T171" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N172" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O172" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P172" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1417</v>
+        <v>1250</v>
       </c>
       <c r="T172" t="n">
         <v>12</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44209</v>
+        <v>44224</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -14200,24 +14200,24 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N173" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O173" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P173" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14226,10 +14226,10 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1333</v>
+        <v>1071</v>
       </c>
       <c r="T173" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174">
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -14280,24 +14280,24 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N174" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O174" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P174" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -14306,10 +14306,10 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1143</v>
+        <v>1833</v>
       </c>
       <c r="T174" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175">
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44330</v>
+        <v>44438</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -14364,16 +14364,16 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N175" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O175" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P175" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1143</v>
+        <v>1571</v>
       </c>
       <c r="T175" t="n">
         <v>14</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44391</v>
+        <v>44438</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -14440,24 +14440,24 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="N176" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O176" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P176" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,10 +14466,10 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1417</v>
+        <v>1714</v>
       </c>
       <c r="T176" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44193</v>
+        <v>44260</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N177" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O177" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P177" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T177" t="n">
         <v>12</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44193</v>
+        <v>44209</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M178" t="n">
@@ -14617,7 +14617,7 @@
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,10 +14626,10 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T178" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -14680,11 +14680,11 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N179" t="n">
         <v>16000</v>
@@ -14697,7 +14697,7 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,10 +14706,10 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T179" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -14764,7 +14764,7 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N180" t="n">
         <v>16000</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -14844,16 +14844,16 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N181" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O181" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P181" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T181" t="n">
         <v>12</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44350</v>
+        <v>44193</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -14920,11 +14920,11 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N182" t="n">
         <v>16000</v>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,10 +14946,10 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T182" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -15000,11 +15000,11 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N183" t="n">
         <v>16000</v>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -15026,10 +15026,10 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T183" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184">
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44196</v>
+        <v>44351</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -15080,11 +15080,11 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N184" t="n">
         <v>16000</v>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -15106,10 +15106,10 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T184" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44196</v>
+        <v>44351</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -15177,7 +15177,7 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -15186,10 +15186,10 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="T185" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186">
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -15320,11 +15320,11 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N187" t="n">
         <v>16000</v>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -15346,10 +15346,10 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T187" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188">
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44278</v>
+        <v>44196</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -15400,24 +15400,24 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M188" t="n">
         <v>108</v>
       </c>
       <c r="N188" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O188" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P188" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T188" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189">
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44358</v>
+        <v>44196</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -15484,7 +15484,7 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N189" t="n">
         <v>16000</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44389</v>
+        <v>44196</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -15560,24 +15560,24 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N190" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O190" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P190" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -15586,10 +15586,10 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1417</v>
+        <v>1000</v>
       </c>
       <c r="T190" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191">
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44389</v>
+        <v>44315</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -15640,24 +15640,24 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M191" t="n">
         <v>108</v>
       </c>
       <c r="N191" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O191" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P191" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -15666,10 +15666,10 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T191" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192">
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44399</v>
+        <v>44278</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N192" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O192" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P192" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="T192" t="n">
         <v>12</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44399</v>
+        <v>44278</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -15807,13 +15807,13 @@
         <v>108</v>
       </c>
       <c r="N193" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O193" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P193" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1429</v>
+        <v>1214</v>
       </c>
       <c r="T193" t="n">
         <v>14</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44251</v>
+        <v>44358</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -15880,7 +15880,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -15897,7 +15897,7 @@
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -15906,10 +15906,10 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T194" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195">
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -15960,24 +15960,24 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N195" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O195" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P195" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T195" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196">
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44250</v>
+        <v>44389</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -16040,24 +16040,24 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M196" t="n">
         <v>108</v>
       </c>
       <c r="N196" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O196" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P196" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -16066,10 +16066,10 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T196" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197">
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -16120,24 +16120,24 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M197" t="n">
         <v>108</v>
       </c>
       <c r="N197" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O197" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P197" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -16146,10 +16146,10 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1143</v>
+        <v>1667</v>
       </c>
       <c r="T197" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198">
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M198" t="n">
         <v>108</v>
       </c>
       <c r="N198" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O198" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P198" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T198" t="n">
         <v>14</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44305</v>
+        <v>44251</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44305</v>
+        <v>44251</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44294</v>
+        <v>44250</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -16444,7 +16444,7 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N201" t="n">
         <v>16000</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44294</v>
+        <v>44250</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44417</v>
+        <v>44292</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -16607,17 +16607,17 @@
         <v>108</v>
       </c>
       <c r="N203" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O203" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P203" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -16626,10 +16626,10 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1583</v>
+        <v>1214</v>
       </c>
       <c r="T203" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204">
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -16680,24 +16680,24 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M204" t="n">
         <v>108</v>
       </c>
       <c r="N204" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O204" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P204" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
@@ -16706,10 +16706,10 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1357</v>
+        <v>1333</v>
       </c>
       <c r="T204" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205">
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44419</v>
+        <v>44305</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -16760,24 +16760,24 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N205" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O205" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P205" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
@@ -16786,10 +16786,10 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1583</v>
+        <v>1143</v>
       </c>
       <c r="T205" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206">
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44419</v>
+        <v>44294</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -16840,24 +16840,24 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N206" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O206" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P206" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
@@ -16866,10 +16866,10 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1357</v>
+        <v>1333</v>
       </c>
       <c r="T206" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44420</v>
+        <v>44294</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -16920,24 +16920,24 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N207" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O207" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P207" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
@@ -16946,10 +16946,10 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1900</v>
+        <v>1143</v>
       </c>
       <c r="T207" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="208">
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -17084,7 +17084,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N209" t="n">
         <v>19000</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -17167,13 +17167,13 @@
         <v>162</v>
       </c>
       <c r="N210" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O210" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P210" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1417</v>
+        <v>1583</v>
       </c>
       <c r="T210" t="n">
         <v>12</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -17247,13 +17247,13 @@
         <v>108</v>
       </c>
       <c r="N211" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O211" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P211" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1214</v>
+        <v>1357</v>
       </c>
       <c r="T211" t="n">
         <v>14</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44202</v>
+        <v>44420</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -17320,24 +17320,24 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N212" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O212" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P212" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -17346,10 +17346,10 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1333</v>
+        <v>1900</v>
       </c>
       <c r="T212" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213">
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44202</v>
+        <v>44420</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -17400,24 +17400,24 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N213" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O213" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P213" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -17426,10 +17426,10 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1143</v>
+        <v>1583</v>
       </c>
       <c r="T213" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214">
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44181</v>
+        <v>44420</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -17480,11 +17480,11 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N214" t="n">
         <v>19000</v>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
@@ -17506,10 +17506,10 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1583</v>
+        <v>1357</v>
       </c>
       <c r="T214" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -17560,24 +17560,24 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N215" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O215" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P215" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -17586,10 +17586,10 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1357</v>
+        <v>1417</v>
       </c>
       <c r="T215" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216">
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44369</v>
+        <v>44245</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -17640,24 +17640,24 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M216" t="n">
         <v>108</v>
       </c>
       <c r="N216" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O216" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P216" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1500</v>
+        <v>1214</v>
       </c>
       <c r="T216" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44369</v>
+        <v>44202</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -17720,24 +17720,24 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N217" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O217" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P217" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -17746,10 +17746,10 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1286</v>
+        <v>1333</v>
       </c>
       <c r="T217" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218">
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44307</v>
+        <v>44202</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -17800,24 +17800,24 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N218" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O218" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P218" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
@@ -17826,10 +17826,10 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T218" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219">
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44307</v>
+        <v>44181</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -17880,24 +17880,24 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N219" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O219" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P219" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
@@ -17906,10 +17906,10 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1214</v>
+        <v>1583</v>
       </c>
       <c r="T219" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44161</v>
+        <v>44181</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -17960,24 +17960,24 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N220" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O220" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P220" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
@@ -17986,10 +17986,10 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1833</v>
+        <v>1357</v>
       </c>
       <c r="T220" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221">
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -18040,24 +18040,24 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M221" t="n">
         <v>108</v>
       </c>
       <c r="N221" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O221" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P221" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
@@ -18066,10 +18066,10 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1571</v>
+        <v>1500</v>
       </c>
       <c r="T221" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222">
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44195</v>
+        <v>44369</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -18120,24 +18120,24 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N222" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O222" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P222" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -18146,10 +18146,10 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1600</v>
+        <v>1286</v>
       </c>
       <c r="T222" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223">
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44195</v>
+        <v>44307</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N223" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O223" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P223" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T223" t="n">
         <v>12</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44195</v>
+        <v>44307</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N224" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O224" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P224" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T224" t="n">
         <v>14</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -18364,7 +18364,7 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N225" t="n">
         <v>22000</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44333</v>
+        <v>44161</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -18440,24 +18440,24 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N226" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O226" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P226" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
@@ -18466,10 +18466,10 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1417</v>
+        <v>1571</v>
       </c>
       <c r="T226" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44333</v>
+        <v>44195</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -18520,24 +18520,24 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M227" t="n">
         <v>108</v>
       </c>
       <c r="N227" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O227" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P227" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
@@ -18546,10 +18546,10 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1214</v>
+        <v>1600</v>
       </c>
       <c r="T227" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44201</v>
+        <v>44195</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N228" t="n">
         <v>16000</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44201</v>
+        <v>44195</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44277</v>
+        <v>44159</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -18767,13 +18767,13 @@
         <v>108</v>
       </c>
       <c r="N230" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O230" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P230" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1417</v>
+        <v>1833</v>
       </c>
       <c r="T230" t="n">
         <v>12</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -18840,7 +18840,7 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M231" t="n">
@@ -18857,7 +18857,7 @@
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
@@ -18866,10 +18866,10 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T231" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232">
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44433</v>
+        <v>44333</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -18920,24 +18920,24 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N232" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O232" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P232" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
@@ -18946,10 +18946,10 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1583</v>
+        <v>1214</v>
       </c>
       <c r="T232" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233">
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44309</v>
+        <v>44201</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44188</v>
+        <v>44201</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -19080,24 +19080,24 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N234" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O234" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P234" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
@@ -19106,10 +19106,10 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T234" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44188</v>
+        <v>44277</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -19160,11 +19160,11 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N235" t="n">
         <v>17000</v>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
@@ -19186,10 +19186,10 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T235" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236">
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44344</v>
+        <v>44277</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -19240,24 +19240,24 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M236" t="n">
         <v>162</v>
       </c>
       <c r="N236" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O236" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P236" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
@@ -19266,10 +19266,10 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T236" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237">
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44319</v>
+        <v>44433</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N237" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O237" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P237" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1333</v>
+        <v>1583</v>
       </c>
       <c r="T237" t="n">
         <v>12</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -19400,7 +19400,7 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M238" t="n">
@@ -19417,7 +19417,7 @@
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
@@ -19426,10 +19426,10 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T238" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239">
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44253</v>
+        <v>44188</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -19484,20 +19484,20 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N239" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O239" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P239" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
@@ -19506,10 +19506,10 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T239" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44281</v>
+        <v>44188</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -19560,11 +19560,11 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N240" t="n">
         <v>17000</v>
@@ -19577,7 +19577,7 @@
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19586,10 +19586,10 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T240" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44160</v>
+        <v>44344</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -19647,13 +19647,13 @@
         <v>162</v>
       </c>
       <c r="N241" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O241" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P241" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T241" t="n">
         <v>12</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44160</v>
+        <v>44319</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -19720,24 +19720,24 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M242" t="n">
         <v>108</v>
       </c>
       <c r="N242" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O242" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P242" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T242" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44186</v>
+        <v>44319</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19800,24 +19800,24 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N243" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O243" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P243" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
@@ -19826,10 +19826,10 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1500</v>
+        <v>1143</v>
       </c>
       <c r="T243" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244">
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44186</v>
+        <v>44253</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N244" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O244" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P244" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T244" t="n">
         <v>14</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44211</v>
+        <v>44281</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -19967,13 +19967,13 @@
         <v>108</v>
       </c>
       <c r="N245" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O245" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P245" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T245" t="n">
         <v>12</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20040,24 +20040,24 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M246" t="n">
         <v>162</v>
       </c>
       <c r="N246" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O246" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P246" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1143</v>
+        <v>1833</v>
       </c>
       <c r="T246" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44301</v>
+        <v>44160</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -20120,24 +20120,24 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N247" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O247" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P247" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1417</v>
+        <v>1571</v>
       </c>
       <c r="T247" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44301</v>
+        <v>44186</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N248" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O248" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P248" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T248" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44272</v>
+        <v>44186</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20280,24 +20280,24 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M249" t="n">
         <v>108</v>
       </c>
       <c r="N249" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O249" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P249" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1333</v>
+        <v>1286</v>
       </c>
       <c r="T249" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44370</v>
+        <v>44211</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N250" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O250" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P250" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T250" t="n">
         <v>12</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44230</v>
+        <v>44211</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -20440,24 +20440,24 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N251" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O251" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P251" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -20466,10 +20466,10 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1500</v>
+        <v>1143</v>
       </c>
       <c r="T251" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44382</v>
+        <v>44301</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -20524,7 +20524,7 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N252" t="n">
         <v>17000</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44382</v>
+        <v>44301</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44232</v>
+        <v>44272</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -20680,24 +20680,24 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N254" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O254" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P254" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,10 +20706,10 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T254" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N255" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O255" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P255" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T255" t="n">
         <v>12</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44398</v>
+        <v>44230</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -20840,24 +20840,24 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="N256" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O256" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P256" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R256" t="inlineStr">
@@ -20866,10 +20866,10 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T256" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -20927,13 +20927,13 @@
         <v>108</v>
       </c>
       <c r="N257" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O257" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P257" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T257" t="n">
         <v>12</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -21007,13 +21007,13 @@
         <v>108</v>
       </c>
       <c r="N258" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O258" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P258" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T258" t="n">
         <v>14</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44355</v>
+        <v>44232</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -21080,24 +21080,24 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="N259" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O259" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P259" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
@@ -21106,10 +21106,10 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T259" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44286</v>
+        <v>44398</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N260" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O260" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P260" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T260" t="n">
         <v>12</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44286</v>
+        <v>44398</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -21247,13 +21247,13 @@
         <v>108</v>
       </c>
       <c r="N261" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O261" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P261" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T261" t="n">
         <v>14</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N262" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O262" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P262" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1250</v>
+        <v>1333</v>
       </c>
       <c r="T262" t="n">
         <v>12</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -21407,13 +21407,13 @@
         <v>108</v>
       </c>
       <c r="N263" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O263" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P263" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1071</v>
+        <v>1143</v>
       </c>
       <c r="T263" t="n">
         <v>14</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44244</v>
+        <v>44355</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -21480,24 +21480,24 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N264" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O264" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P264" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,10 +21506,10 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T264" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -21560,11 +21560,11 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N265" t="n">
         <v>16000</v>
@@ -21577,7 +21577,7 @@
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -21586,10 +21586,10 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T265" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266">
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44343</v>
+        <v>44286</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -21640,11 +21640,11 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N266" t="n">
         <v>16000</v>
@@ -21657,7 +21657,7 @@
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -21666,10 +21666,10 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T266" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267">
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -21720,24 +21720,24 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N267" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O267" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P267" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,10 +21746,10 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1143</v>
+        <v>1250</v>
       </c>
       <c r="T267" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268">
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44376</v>
+        <v>44217</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -21800,24 +21800,24 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M268" t="n">
         <v>108</v>
       </c>
       <c r="N268" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O268" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P268" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -21826,10 +21826,10 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1417</v>
+        <v>1071</v>
       </c>
       <c r="T268" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44376</v>
+        <v>44244</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -21880,24 +21880,24 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N269" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O269" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P269" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -21906,10 +21906,10 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T269" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44208</v>
+        <v>44244</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M270" t="n">
@@ -21977,7 +21977,7 @@
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -21986,10 +21986,10 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T270" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271">
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44208</v>
+        <v>44343</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -22040,7 +22040,7 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M271" t="n">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,10 +22066,10 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T271" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44179</v>
+        <v>44343</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -22120,24 +22120,24 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N272" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O272" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P272" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,10 +22146,10 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1667</v>
+        <v>1143</v>
       </c>
       <c r="T272" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44179</v>
+        <v>44376</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -22200,24 +22200,24 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
         <v>108</v>
       </c>
       <c r="N273" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O273" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P273" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -22226,10 +22226,10 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="T273" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44284</v>
+        <v>44376</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22284,7 +22284,7 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N274" t="n">
         <v>16000</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44334</v>
+        <v>44208</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N275" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O275" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P275" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T275" t="n">
         <v>12</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44168</v>
+        <v>44208</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22440,24 +22440,24 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N276" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O276" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P276" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -22466,10 +22466,10 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T276" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277">
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44168</v>
+        <v>44179</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -22520,24 +22520,24 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
         <v>162</v>
       </c>
       <c r="N277" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O277" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P277" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1571</v>
+        <v>1667</v>
       </c>
       <c r="T277" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278">
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44418</v>
+        <v>44179</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -22600,24 +22600,24 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M278" t="n">
         <v>108</v>
       </c>
       <c r="N278" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O278" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P278" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1583</v>
+        <v>1429</v>
       </c>
       <c r="T278" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44418</v>
+        <v>44284</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N279" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O279" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P279" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T279" t="n">
         <v>14</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44432</v>
+        <v>44334</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N280" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O280" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P280" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1583</v>
+        <v>1417</v>
       </c>
       <c r="T280" t="n">
         <v>12</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44432</v>
+        <v>44168</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -22840,35 +22840,435 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M281" t="n">
         <v>108</v>
       </c>
       <c r="N281" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O281" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P281" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S281" t="n">
+        <v>1833</v>
+      </c>
+      <c r="T281" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>3</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E282" t="n">
+        <v>5</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M282" t="n">
+        <v>162</v>
+      </c>
+      <c r="N282" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O282" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P282" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S282" t="n">
+        <v>1571</v>
+      </c>
+      <c r="T282" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>3</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D283" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E283" t="n">
+        <v>5</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M283" t="n">
+        <v>108</v>
+      </c>
+      <c r="N283" t="n">
         <v>19000</v>
       </c>
-      <c r="O281" t="n">
+      <c r="O283" t="n">
         <v>19000</v>
       </c>
-      <c r="P281" t="n">
+      <c r="P283" t="n">
         <v>19000</v>
       </c>
-      <c r="Q281" t="inlineStr">
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S283" t="n">
+        <v>1583</v>
+      </c>
+      <c r="T283" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>3</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D284" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E284" t="n">
+        <v>5</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M284" t="n">
+        <v>108</v>
+      </c>
+      <c r="N284" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O284" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P284" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q284" t="inlineStr">
         <is>
           <t>$/caja 14 unidades</t>
         </is>
       </c>
-      <c r="R281" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S281" t="n">
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S284" t="n">
         <v>1357</v>
       </c>
-      <c r="T281" t="n">
+      <c r="T284" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>3</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D285" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E285" t="n">
+        <v>5</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M285" t="n">
+        <v>108</v>
+      </c>
+      <c r="N285" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O285" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P285" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S285" t="n">
+        <v>1583</v>
+      </c>
+      <c r="T285" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>3</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D286" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E286" t="n">
+        <v>5</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G286" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M286" t="n">
+        <v>108</v>
+      </c>
+      <c r="N286" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O286" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P286" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S286" t="n">
+        <v>1357</v>
+      </c>
+      <c r="T286" t="n">
         <v>14</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T297"/>
+  <dimension ref="A1:T299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -13244,20 +13244,20 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N161" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O161" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P161" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -13266,10 +13266,10 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>1214</v>
+        <v>1667</v>
       </c>
       <c r="T161" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162">
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44259</v>
+        <v>44447</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -13320,24 +13320,24 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N162" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O162" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P162" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -13346,10 +13346,10 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T162" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163">
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -13407,17 +13407,17 @@
         <v>108</v>
       </c>
       <c r="N163" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O163" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P163" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,10 +13426,10 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T163" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164">
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -13480,24 +13480,24 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N164" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O164" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P164" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -13506,10 +13506,10 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T164" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165">
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -13567,13 +13567,13 @@
         <v>108</v>
       </c>
       <c r="N165" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O165" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P165" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T165" t="n">
         <v>12</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N166" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O166" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P166" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T166" t="n">
         <v>14</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -13724,7 +13724,7 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N167" t="n">
         <v>17000</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -13804,7 +13804,7 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N168" t="n">
         <v>17000</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -13880,24 +13880,24 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N169" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O169" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P169" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -13906,10 +13906,10 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1500</v>
+        <v>1417</v>
       </c>
       <c r="T169" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170">
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -13960,24 +13960,24 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N170" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O170" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P170" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -13986,10 +13986,10 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1250</v>
+        <v>1214</v>
       </c>
       <c r="T170" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171">
@@ -14040,7 +14040,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
@@ -14057,7 +14057,7 @@
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,10 +14066,10 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1071</v>
+        <v>1500</v>
       </c>
       <c r="T171" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -14287,13 +14287,13 @@
         <v>162</v>
       </c>
       <c r="N174" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O174" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P174" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1333</v>
+        <v>1250</v>
       </c>
       <c r="T174" t="n">
         <v>12</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -14360,24 +14360,24 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N175" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O175" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P175" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -14386,10 +14386,10 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1667</v>
+        <v>1071</v>
       </c>
       <c r="T175" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -14440,24 +14440,24 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N176" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O176" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P176" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,10 +14466,10 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1429</v>
+        <v>1333</v>
       </c>
       <c r="T176" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N177" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O177" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P177" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T177" t="n">
         <v>12</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44249</v>
+        <v>44179</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -14600,24 +14600,24 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N178" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O178" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P178" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,10 +14626,10 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T178" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -14680,24 +14680,24 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M179" t="n">
         <v>108</v>
       </c>
       <c r="N179" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O179" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P179" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,10 +14706,10 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T179" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -14764,16 +14764,16 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N180" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O180" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P180" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T180" t="n">
         <v>12</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44384</v>
+        <v>44249</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -14840,7 +14840,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M181" t="n">
@@ -14857,7 +14857,7 @@
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14866,10 +14866,10 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T181" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44168</v>
+        <v>44309</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -14920,24 +14920,24 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N182" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O182" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P182" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,10 +14946,10 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>2200</v>
+        <v>1333</v>
       </c>
       <c r="T182" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -15007,13 +15007,13 @@
         <v>108</v>
       </c>
       <c r="N183" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O183" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P183" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T183" t="n">
         <v>12</v>
@@ -15080,11 +15080,11 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N184" t="n">
         <v>22000</v>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -15106,10 +15106,10 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1571</v>
+        <v>2200</v>
       </c>
       <c r="T184" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44272</v>
+        <v>44168</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -15167,13 +15167,13 @@
         <v>108</v>
       </c>
       <c r="N185" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O185" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P185" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T185" t="n">
         <v>12</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44196</v>
+        <v>44168</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -15240,24 +15240,24 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N186" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O186" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P186" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -15266,10 +15266,10 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1333</v>
+        <v>1571</v>
       </c>
       <c r="T186" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187">
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -15320,11 +15320,11 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N187" t="n">
         <v>16000</v>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -15346,10 +15346,10 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T187" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M188" t="n">
@@ -15417,7 +15417,7 @@
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T188" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189">
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -15480,24 +15480,24 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N189" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O189" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P189" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -15506,10 +15506,10 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1500</v>
+        <v>1143</v>
       </c>
       <c r="T189" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190">
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -15560,24 +15560,24 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M190" t="n">
         <v>108</v>
       </c>
       <c r="N190" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O190" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P190" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -15586,10 +15586,10 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T190" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191">
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -15640,24 +15640,24 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="N191" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O191" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P191" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -15669,7 +15669,7 @@
         <v>1500</v>
       </c>
       <c r="T191" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192">
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -15720,24 +15720,24 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="N192" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O192" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P192" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -15746,10 +15746,10 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1250</v>
+        <v>1286</v>
       </c>
       <c r="T192" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193">
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -15800,24 +15800,24 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="N193" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O193" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P193" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
@@ -15826,10 +15826,10 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T193" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194">
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44218</v>
+        <v>44235</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -15880,11 +15880,11 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N194" t="n">
         <v>15000</v>
@@ -15897,7 +15897,7 @@
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -15906,10 +15906,10 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T194" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195">
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -15960,24 +15960,24 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N195" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O195" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P195" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1250</v>
+        <v>1143</v>
       </c>
       <c r="T195" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196">
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -16040,24 +16040,24 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N196" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O196" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P196" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -16066,10 +16066,10 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1583</v>
+        <v>1500</v>
       </c>
       <c r="T196" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44397</v>
+        <v>44218</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N197" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O197" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P197" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1417</v>
+        <v>1250</v>
       </c>
       <c r="T197" t="n">
         <v>12</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44274</v>
+        <v>44433</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -16200,24 +16200,24 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M198" t="n">
         <v>162</v>
       </c>
       <c r="N198" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O198" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P198" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -16226,10 +16226,10 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1143</v>
+        <v>1583</v>
       </c>
       <c r="T198" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199">
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -16284,16 +16284,16 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N199" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O199" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P199" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T199" t="n">
         <v>12</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44291</v>
+        <v>44274</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -16360,24 +16360,24 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N200" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O200" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P200" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -16386,10 +16386,10 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T200" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201">
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N201" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O201" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P201" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T201" t="n">
         <v>12</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -16527,13 +16527,13 @@
         <v>108</v>
       </c>
       <c r="N202" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O202" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P202" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1583</v>
+        <v>1417</v>
       </c>
       <c r="T202" t="n">
         <v>12</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -16600,24 +16600,24 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N203" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O203" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P203" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -16626,10 +16626,10 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1357</v>
+        <v>1417</v>
       </c>
       <c r="T203" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204">
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -16760,24 +16760,24 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="N205" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O205" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P205" t="n">
-        <v>21200</v>
+        <v>19000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
@@ -16786,10 +16786,10 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1767</v>
+        <v>1357</v>
       </c>
       <c r="T205" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206">
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -16840,24 +16840,24 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="N206" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O206" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P206" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
@@ -16866,10 +16866,10 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T206" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="N207" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O207" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P207" t="n">
-        <v>15000</v>
+        <v>21200</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1250</v>
+        <v>1767</v>
       </c>
       <c r="T207" t="n">
         <v>12</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="N208" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O208" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P208" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1071</v>
+        <v>1500</v>
       </c>
       <c r="T208" t="n">
         <v>14</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -17080,24 +17080,24 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N209" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O209" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P209" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
@@ -17106,10 +17106,10 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1600</v>
+        <v>1250</v>
       </c>
       <c r="T209" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -17160,24 +17160,24 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N210" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O210" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P210" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -17186,10 +17186,10 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1333</v>
+        <v>1071</v>
       </c>
       <c r="T210" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211">
@@ -17240,7 +17240,7 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M211" t="n">
@@ -17257,7 +17257,7 @@
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
@@ -17266,10 +17266,10 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1143</v>
+        <v>1600</v>
       </c>
       <c r="T211" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212">
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N214" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O214" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P214" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T214" t="n">
         <v>12</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -17567,13 +17567,13 @@
         <v>108</v>
       </c>
       <c r="N215" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O215" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P215" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T215" t="n">
         <v>14</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -17640,24 +17640,24 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N216" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O216" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P216" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1900</v>
+        <v>1417</v>
       </c>
       <c r="T216" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -17720,24 +17720,24 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M217" t="n">
         <v>108</v>
       </c>
       <c r="N217" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O217" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P217" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -17746,10 +17746,10 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1583</v>
+        <v>1214</v>
       </c>
       <c r="T217" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M218" t="n">
@@ -17817,7 +17817,7 @@
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
@@ -17826,10 +17826,10 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1357</v>
+        <v>1900</v>
       </c>
       <c r="T218" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219">
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -17887,13 +17887,13 @@
         <v>108</v>
       </c>
       <c r="N219" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O219" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P219" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1417</v>
+        <v>1583</v>
       </c>
       <c r="T219" t="n">
         <v>12</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -17960,24 +17960,24 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N220" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O220" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P220" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
@@ -17986,10 +17986,10 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1333</v>
+        <v>1357</v>
       </c>
       <c r="T220" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221">
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -18044,7 +18044,7 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N221" t="n">
         <v>17000</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44210</v>
+        <v>44348</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -18120,7 +18120,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M222" t="n">
@@ -18137,7 +18137,7 @@
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -18146,10 +18146,10 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1600</v>
+        <v>1333</v>
       </c>
       <c r="T222" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223">
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44210</v>
+        <v>44263</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -18207,13 +18207,13 @@
         <v>162</v>
       </c>
       <c r="N223" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O223" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P223" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T223" t="n">
         <v>12</v>
@@ -18280,7 +18280,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M224" t="n">
@@ -18297,7 +18297,7 @@
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
@@ -18306,10 +18306,10 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1143</v>
+        <v>1600</v>
       </c>
       <c r="T224" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -18377,7 +18377,7 @@
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
@@ -18386,10 +18386,10 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T225" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226">
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -18440,24 +18440,24 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N226" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O226" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P226" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
@@ -18466,10 +18466,10 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1583</v>
+        <v>1143</v>
       </c>
       <c r="T226" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N227" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O227" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P227" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T227" t="n">
         <v>14</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N228" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O228" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P228" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1417</v>
+        <v>1583</v>
       </c>
       <c r="T228" t="n">
         <v>12</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N229" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O229" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P229" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1214</v>
+        <v>1357</v>
       </c>
       <c r="T229" t="n">
         <v>14</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -18767,13 +18767,13 @@
         <v>108</v>
       </c>
       <c r="N230" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O230" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P230" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1583</v>
+        <v>1417</v>
       </c>
       <c r="T230" t="n">
         <v>12</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N231" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O231" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P231" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1357</v>
+        <v>1214</v>
       </c>
       <c r="T231" t="n">
         <v>14</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N232" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O232" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P232" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1417</v>
+        <v>1583</v>
       </c>
       <c r="T232" t="n">
         <v>12</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -19007,13 +19007,13 @@
         <v>108</v>
       </c>
       <c r="N233" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O233" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P233" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1214</v>
+        <v>1357</v>
       </c>
       <c r="T233" t="n">
         <v>14</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -19167,13 +19167,13 @@
         <v>108</v>
       </c>
       <c r="N235" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O235" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P235" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T235" t="n">
         <v>14</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -19247,13 +19247,13 @@
         <v>162</v>
       </c>
       <c r="N236" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O236" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P236" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T236" t="n">
         <v>12</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -19327,13 +19327,13 @@
         <v>108</v>
       </c>
       <c r="N237" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O237" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P237" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T237" t="n">
         <v>14</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N238" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O238" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P238" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1583</v>
+        <v>1667</v>
       </c>
       <c r="T238" t="n">
         <v>12</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -19487,13 +19487,13 @@
         <v>108</v>
       </c>
       <c r="N239" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O239" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P239" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1357</v>
+        <v>1429</v>
       </c>
       <c r="T239" t="n">
         <v>14</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N240" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O240" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="P240" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1917</v>
+        <v>1583</v>
       </c>
       <c r="T240" t="n">
         <v>12</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -19647,13 +19647,13 @@
         <v>108</v>
       </c>
       <c r="N241" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O241" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="P241" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1643</v>
+        <v>1357</v>
       </c>
       <c r="T241" t="n">
         <v>14</v>
@@ -19720,24 +19720,24 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="N242" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="O242" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P242" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1714</v>
+        <v>1917</v>
       </c>
       <c r="T242" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19800,24 +19800,24 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N243" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O243" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P243" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
@@ -19826,10 +19826,10 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1500</v>
+        <v>1643</v>
       </c>
       <c r="T243" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244">
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19880,24 +19880,24 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N244" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O244" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P244" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
@@ -19906,10 +19906,10 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1583</v>
+        <v>1714</v>
       </c>
       <c r="T244" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -19960,24 +19960,24 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="N245" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O245" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P245" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
@@ -19986,10 +19986,10 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1357</v>
+        <v>1500</v>
       </c>
       <c r="T245" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246">
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20047,13 +20047,13 @@
         <v>108</v>
       </c>
       <c r="N246" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O246" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P246" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1333</v>
+        <v>1583</v>
       </c>
       <c r="T246" t="n">
         <v>12</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -20127,13 +20127,13 @@
         <v>108</v>
       </c>
       <c r="N247" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O247" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P247" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1143</v>
+        <v>1357</v>
       </c>
       <c r="T247" t="n">
         <v>14</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20207,13 +20207,13 @@
         <v>108</v>
       </c>
       <c r="N248" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O248" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P248" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T248" t="n">
         <v>12</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N249" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O249" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P249" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T249" t="n">
         <v>14</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -20367,13 +20367,13 @@
         <v>108</v>
       </c>
       <c r="N250" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O250" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P250" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T250" t="n">
         <v>12</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N251" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O251" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P251" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1214</v>
+        <v>1286</v>
       </c>
       <c r="T251" t="n">
         <v>14</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -20527,13 +20527,13 @@
         <v>108</v>
       </c>
       <c r="N252" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O252" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P252" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T252" t="n">
         <v>12</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N253" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O253" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P253" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T253" t="n">
         <v>14</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -20687,13 +20687,13 @@
         <v>108</v>
       </c>
       <c r="N254" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O254" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P254" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T254" t="n">
         <v>12</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N255" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O255" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P255" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T255" t="n">
         <v>14</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N256" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O256" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P256" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T256" t="n">
         <v>12</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -20927,13 +20927,13 @@
         <v>108</v>
       </c>
       <c r="N257" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O257" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P257" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T257" t="n">
         <v>14</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N258" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O258" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P258" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T258" t="n">
         <v>12</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44302</v>
+        <v>44294</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -21080,7 +21080,7 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M259" t="n">
@@ -21097,7 +21097,7 @@
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
@@ -21106,10 +21106,10 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T259" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44315</v>
+        <v>44379</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -21167,13 +21167,13 @@
         <v>108</v>
       </c>
       <c r="N260" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O260" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P260" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T260" t="n">
         <v>12</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44391</v>
+        <v>44302</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N261" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O261" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P261" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T261" t="n">
         <v>12</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44446</v>
+        <v>44315</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -21320,24 +21320,24 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M262" t="n">
         <v>108</v>
       </c>
       <c r="N262" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O262" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P262" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -21346,10 +21346,10 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>2100</v>
+        <v>1333</v>
       </c>
       <c r="T262" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263">
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -21407,13 +21407,13 @@
         <v>162</v>
       </c>
       <c r="N263" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O263" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P263" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1750</v>
+        <v>1417</v>
       </c>
       <c r="T263" t="n">
         <v>12</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -21480,24 +21480,24 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M264" t="n">
         <v>108</v>
       </c>
       <c r="N264" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O264" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P264" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,10 +21506,10 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1667</v>
+        <v>2100</v>
       </c>
       <c r="T264" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -21560,24 +21560,24 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N265" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O265" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P265" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -21586,10 +21586,10 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1429</v>
+        <v>1750</v>
       </c>
       <c r="T265" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266">
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N266" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O266" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P266" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T266" t="n">
         <v>12</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44161</v>
+        <v>44411</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -21720,24 +21720,24 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N267" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O267" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P267" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,10 +21746,10 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1833</v>
+        <v>1429</v>
       </c>
       <c r="T267" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="268">
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -21800,24 +21800,24 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N268" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O268" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P268" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -21826,10 +21826,10 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T268" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -21884,7 +21884,7 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N269" t="n">
         <v>22000</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -22040,24 +22040,24 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="N271" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O271" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P271" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,10 +22066,10 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1714</v>
+        <v>1833</v>
       </c>
       <c r="T271" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -22120,24 +22120,24 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M272" t="n">
         <v>108</v>
       </c>
       <c r="N272" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O272" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P272" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,10 +22146,10 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1333</v>
+        <v>1571</v>
       </c>
       <c r="T272" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -22204,20 +22204,20 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="N273" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O273" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P273" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -22226,10 +22226,10 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1143</v>
+        <v>1714</v>
       </c>
       <c r="T273" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22280,24 +22280,24 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M274" t="n">
         <v>108</v>
       </c>
       <c r="N274" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O274" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P274" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1900</v>
+        <v>1333</v>
       </c>
       <c r="T274" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="275">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22360,24 +22360,24 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M275" t="n">
         <v>108</v>
       </c>
       <c r="N275" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O275" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P275" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1583</v>
+        <v>1143</v>
       </c>
       <c r="T275" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22440,24 +22440,24 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M276" t="n">
         <v>108</v>
       </c>
       <c r="N276" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O276" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P276" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -22466,10 +22466,10 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1833</v>
+        <v>1900</v>
       </c>
       <c r="T276" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277">
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -22520,24 +22520,24 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
         <v>108</v>
       </c>
       <c r="N277" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O277" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P277" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1571</v>
+        <v>1583</v>
       </c>
       <c r="T277" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278">
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -22600,24 +22600,24 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N278" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O278" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P278" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>2000</v>
+        <v>1833</v>
       </c>
       <c r="T278" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22680,24 +22680,24 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>864</v>
+        <v>108</v>
       </c>
       <c r="N279" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O279" t="n">
         <v>22000</v>
       </c>
       <c r="P279" t="n">
-        <v>20438</v>
+        <v>22000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22706,10 +22706,10 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1703</v>
+        <v>1571</v>
       </c>
       <c r="T279" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280">
@@ -22760,24 +22760,24 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>432</v>
+        <v>54</v>
       </c>
       <c r="N280" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O280" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P280" t="n">
-        <v>20250</v>
+        <v>20000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,10 +22786,10 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1446</v>
+        <v>2000</v>
       </c>
       <c r="T280" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281">
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>108</v>
+        <v>864</v>
       </c>
       <c r="N281" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O281" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P281" t="n">
-        <v>16000</v>
+        <v>20438</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1333</v>
+        <v>1703</v>
       </c>
       <c r="T281" t="n">
         <v>12</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>108</v>
+        <v>432</v>
       </c>
       <c r="N282" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O282" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P282" t="n">
-        <v>16000</v>
+        <v>20250</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1143</v>
+        <v>1446</v>
       </c>
       <c r="T282" t="n">
         <v>14</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -23000,24 +23000,24 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N283" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O283" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P283" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>2100</v>
+        <v>1333</v>
       </c>
       <c r="T283" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284">
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23080,24 +23080,24 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N284" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O284" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P284" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,10 +23106,10 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1750</v>
+        <v>1143</v>
       </c>
       <c r="T284" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285">
@@ -23160,11 +23160,11 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N285" t="n">
         <v>21000</v>
@@ -23177,7 +23177,7 @@
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -23186,10 +23186,10 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="T285" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N286" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O286" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P286" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1417</v>
+        <v>1750</v>
       </c>
       <c r="T286" t="n">
         <v>12</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -23327,13 +23327,13 @@
         <v>108</v>
       </c>
       <c r="N287" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O287" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P287" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T287" t="n">
         <v>14</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23404,7 +23404,7 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N288" t="n">
         <v>17000</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N289" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O289" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P289" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T289" t="n">
         <v>14</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -23560,24 +23560,24 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
         <v>162</v>
       </c>
       <c r="N290" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O290" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P290" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="T290" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -23635,29 +23635,29 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Caramelo</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N291" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O291" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P291" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
@@ -23666,10 +23666,10 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T291" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="292">
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -23715,7 +23715,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Caramelo</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N292" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O292" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P292" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T292" t="n">
         <v>14</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -23795,7 +23795,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Caramelo</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N293" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O293" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P293" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T293" t="n">
         <v>12</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44238</v>
+        <v>44314</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -23875,29 +23875,29 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Caramelo</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="N294" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O294" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P294" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -23906,10 +23906,10 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1500</v>
+        <v>1143</v>
       </c>
       <c r="T294" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N295" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O295" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P295" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T295" t="n">
         <v>12</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24040,24 +24040,24 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="N296" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O296" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P296" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -24066,10 +24066,10 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1429</v>
+        <v>1500</v>
       </c>
       <c r="T296" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297">
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24149,6 +24149,166 @@
         <v>1667</v>
       </c>
       <c r="T297" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>3</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E298" t="n">
+        <v>5</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G298" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M298" t="n">
+        <v>108</v>
+      </c>
+      <c r="N298" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O298" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P298" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S298" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T298" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>3</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D299" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E299" t="n">
+        <v>5</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G299" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M299" t="n">
+        <v>108</v>
+      </c>
+      <c r="N299" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O299" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P299" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S299" t="n">
+        <v>1667</v>
+      </c>
+      <c r="T299" t="n">
         <v>12</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T299"/>
+  <dimension ref="A1:T301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23967,13 +23967,13 @@
         <v>162</v>
       </c>
       <c r="N295" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O295" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P295" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T295" t="n">
         <v>12</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24040,24 +24040,24 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="N296" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O296" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P296" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -24066,10 +24066,10 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1500</v>
+        <v>1429</v>
       </c>
       <c r="T296" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297">
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N297" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O297" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P297" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T297" t="n">
         <v>12</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24200,24 +24200,24 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="N298" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O298" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P298" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1429</v>
+        <v>1500</v>
       </c>
       <c r="T298" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -24309,6 +24309,166 @@
         <v>1667</v>
       </c>
       <c r="T299" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>3</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D300" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E300" t="n">
+        <v>5</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M300" t="n">
+        <v>108</v>
+      </c>
+      <c r="N300" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O300" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P300" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S300" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T300" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>3</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D301" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E301" t="n">
+        <v>5</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M301" t="n">
+        <v>108</v>
+      </c>
+      <c r="N301" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O301" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P301" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S301" t="n">
+        <v>1667</v>
+      </c>
+      <c r="T301" t="n">
         <v>12</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T301"/>
+  <dimension ref="A1:T303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N269" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O269" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P269" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T269" t="n">
         <v>12</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -21967,13 +21967,13 @@
         <v>108</v>
       </c>
       <c r="N270" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O270" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P270" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1571</v>
+        <v>1429</v>
       </c>
       <c r="T270" t="n">
         <v>14</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -22044,7 +22044,7 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N271" t="n">
         <v>22000</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -22200,24 +22200,24 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="N273" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O273" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P273" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -22226,10 +22226,10 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1714</v>
+        <v>1833</v>
       </c>
       <c r="T273" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22280,24 +22280,24 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M274" t="n">
         <v>108</v>
       </c>
       <c r="N274" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O274" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P274" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1333</v>
+        <v>1571</v>
       </c>
       <c r="T274" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22364,20 +22364,20 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="N275" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O275" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P275" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1143</v>
+        <v>1714</v>
       </c>
       <c r="T275" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22440,24 +22440,24 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
         <v>108</v>
       </c>
       <c r="N276" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O276" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P276" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -22466,10 +22466,10 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1900</v>
+        <v>1333</v>
       </c>
       <c r="T276" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277">
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -22520,24 +22520,24 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
         <v>108</v>
       </c>
       <c r="N277" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O277" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P277" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1583</v>
+        <v>1143</v>
       </c>
       <c r="T277" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278">
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -22600,24 +22600,24 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M278" t="n">
         <v>108</v>
       </c>
       <c r="N278" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O278" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P278" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1833</v>
+        <v>1900</v>
       </c>
       <c r="T278" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22680,24 +22680,24 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M279" t="n">
         <v>108</v>
       </c>
       <c r="N279" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O279" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P279" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22706,10 +22706,10 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1571</v>
+        <v>1583</v>
       </c>
       <c r="T279" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -22760,24 +22760,24 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N280" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O280" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P280" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,10 +22786,10 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>2000</v>
+        <v>1833</v>
       </c>
       <c r="T280" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281">
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -22840,24 +22840,24 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>864</v>
+        <v>108</v>
       </c>
       <c r="N281" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O281" t="n">
         <v>22000</v>
       </c>
       <c r="P281" t="n">
-        <v>20438</v>
+        <v>22000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -22866,10 +22866,10 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1703</v>
+        <v>1571</v>
       </c>
       <c r="T281" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="282">
@@ -22920,24 +22920,24 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>432</v>
+        <v>54</v>
       </c>
       <c r="N282" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O282" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P282" t="n">
-        <v>20250</v>
+        <v>20000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1446</v>
+        <v>2000</v>
       </c>
       <c r="T282" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>108</v>
+        <v>864</v>
       </c>
       <c r="N283" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O283" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P283" t="n">
-        <v>16000</v>
+        <v>20438</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1333</v>
+        <v>1703</v>
       </c>
       <c r="T283" t="n">
         <v>12</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>108</v>
+        <v>432</v>
       </c>
       <c r="N284" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O284" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P284" t="n">
-        <v>16000</v>
+        <v>20250</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1143</v>
+        <v>1446</v>
       </c>
       <c r="T284" t="n">
         <v>14</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23160,24 +23160,24 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N285" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O285" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P285" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -23186,10 +23186,10 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>2100</v>
+        <v>1333</v>
       </c>
       <c r="T285" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -23240,24 +23240,24 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N286" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O286" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P286" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
@@ -23266,10 +23266,10 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1750</v>
+        <v>1143</v>
       </c>
       <c r="T286" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287">
@@ -23320,11 +23320,11 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N287" t="n">
         <v>21000</v>
@@ -23337,7 +23337,7 @@
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
@@ -23346,10 +23346,10 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="T287" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N288" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O288" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P288" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1417</v>
+        <v>1750</v>
       </c>
       <c r="T288" t="n">
         <v>12</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -23487,13 +23487,13 @@
         <v>108</v>
       </c>
       <c r="N289" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O289" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P289" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T289" t="n">
         <v>14</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -23564,7 +23564,7 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N290" t="n">
         <v>17000</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N291" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O291" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P291" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T291" t="n">
         <v>14</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -23720,24 +23720,24 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M292" t="n">
         <v>162</v>
       </c>
       <c r="N292" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O292" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P292" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
@@ -23746,10 +23746,10 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="T292" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293">
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -23795,29 +23795,29 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Caramelo</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N293" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O293" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P293" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
@@ -23826,10 +23826,10 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T293" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Caramelo</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N294" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O294" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P294" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T294" t="n">
         <v>14</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Caramelo</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N295" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O295" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P295" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="T295" t="n">
         <v>12</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Caramelo</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24047,13 +24047,13 @@
         <v>108</v>
       </c>
       <c r="N296" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O296" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P296" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T296" t="n">
         <v>14</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24127,13 +24127,13 @@
         <v>162</v>
       </c>
       <c r="N297" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O297" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P297" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T297" t="n">
         <v>12</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24200,24 +24200,24 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="N298" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O298" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P298" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1500</v>
+        <v>1429</v>
       </c>
       <c r="T298" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N299" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O299" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P299" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T299" t="n">
         <v>12</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24360,24 +24360,24 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="N300" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O300" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P300" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
@@ -24386,10 +24386,10 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1429</v>
+        <v>1500</v>
       </c>
       <c r="T300" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301">
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -24469,6 +24469,166 @@
         <v>1667</v>
       </c>
       <c r="T301" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>3</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D302" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E302" t="n">
+        <v>5</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M302" t="n">
+        <v>108</v>
+      </c>
+      <c r="N302" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O302" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P302" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S302" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T302" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>3</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D303" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E303" t="n">
+        <v>5</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M303" t="n">
+        <v>108</v>
+      </c>
+      <c r="N303" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O303" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P303" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S303" t="n">
+        <v>1667</v>
+      </c>
+      <c r="T303" t="n">
         <v>12</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T303"/>
+  <dimension ref="A1:T306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -15960,24 +15960,24 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M195" t="n">
         <v>108</v>
       </c>
       <c r="N195" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O195" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P195" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1143</v>
+        <v>1833</v>
       </c>
       <c r="T195" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196">
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -16040,24 +16040,24 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N196" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O196" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P196" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -16066,10 +16066,10 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1500</v>
+        <v>1571</v>
       </c>
       <c r="T196" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197">
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -16120,24 +16120,24 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N197" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O197" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P197" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -16146,10 +16146,10 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T197" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198">
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -16200,24 +16200,24 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N198" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O198" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P198" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -16226,10 +16226,10 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1583</v>
+        <v>1143</v>
       </c>
       <c r="T198" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199">
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44397</v>
+        <v>44218</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -16280,24 +16280,24 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N199" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O199" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P199" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
@@ -16306,10 +16306,10 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T199" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200">
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44274</v>
+        <v>44218</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -16360,24 +16360,24 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M200" t="n">
         <v>162</v>
       </c>
       <c r="N200" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O200" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P200" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -16386,10 +16386,10 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1143</v>
+        <v>1250</v>
       </c>
       <c r="T200" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201">
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44321</v>
+        <v>44433</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N201" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O201" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P201" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1333</v>
+        <v>1583</v>
       </c>
       <c r="T201" t="n">
         <v>12</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44291</v>
+        <v>44397</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44335</v>
+        <v>44274</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -16600,24 +16600,24 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M203" t="n">
         <v>162</v>
       </c>
       <c r="N203" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O203" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P203" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -16626,10 +16626,10 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T203" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204">
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44426</v>
+        <v>44321</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N204" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O204" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P204" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1583</v>
+        <v>1333</v>
       </c>
       <c r="T204" t="n">
         <v>12</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -16760,24 +16760,24 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M205" t="n">
         <v>108</v>
       </c>
       <c r="N205" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O205" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P205" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
@@ -16786,10 +16786,10 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1357</v>
+        <v>1417</v>
       </c>
       <c r="T205" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206">
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N206" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O206" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P206" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1583</v>
+        <v>1417</v>
       </c>
       <c r="T206" t="n">
         <v>12</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="N207" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O207" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P207" t="n">
-        <v>21200</v>
+        <v>19000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1767</v>
+        <v>1583</v>
       </c>
       <c r="T207" t="n">
         <v>12</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="N208" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O208" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P208" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1500</v>
+        <v>1357</v>
       </c>
       <c r="T208" t="n">
         <v>14</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44215</v>
+        <v>44421</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -17084,16 +17084,16 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N209" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O209" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P209" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1250</v>
+        <v>1583</v>
       </c>
       <c r="T209" t="n">
         <v>12</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -17160,24 +17160,24 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="N210" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O210" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P210" t="n">
-        <v>15000</v>
+        <v>21200</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -17186,10 +17186,10 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1071</v>
+        <v>1767</v>
       </c>
       <c r="T210" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211">
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44194</v>
+        <v>44434</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -17240,24 +17240,24 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="N211" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O211" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P211" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
@@ -17266,10 +17266,10 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T211" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212">
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -17327,13 +17327,13 @@
         <v>162</v>
       </c>
       <c r="N212" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O212" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P212" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1333</v>
+        <v>1250</v>
       </c>
       <c r="T212" t="n">
         <v>12</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -17407,13 +17407,13 @@
         <v>108</v>
       </c>
       <c r="N213" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O213" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P213" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1143</v>
+        <v>1071</v>
       </c>
       <c r="T213" t="n">
         <v>14</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -17480,11 +17480,11 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N214" t="n">
         <v>16000</v>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
@@ -17506,10 +17506,10 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1333</v>
+        <v>1600</v>
       </c>
       <c r="T214" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -17560,11 +17560,11 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N215" t="n">
         <v>16000</v>
@@ -17577,7 +17577,7 @@
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -17586,10 +17586,10 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T215" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216">
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44398</v>
+        <v>44194</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -17640,24 +17640,24 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M216" t="n">
         <v>108</v>
       </c>
       <c r="N216" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O216" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P216" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T216" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -17720,24 +17720,24 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N217" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O217" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P217" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -17746,10 +17746,10 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T217" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218">
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44420</v>
+        <v>44222</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -17800,24 +17800,24 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N218" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O218" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P218" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
@@ -17826,10 +17826,10 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1900</v>
+        <v>1143</v>
       </c>
       <c r="T218" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219">
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -17887,13 +17887,13 @@
         <v>108</v>
       </c>
       <c r="N219" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O219" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P219" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1583</v>
+        <v>1417</v>
       </c>
       <c r="T219" t="n">
         <v>12</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N220" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O220" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P220" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1357</v>
+        <v>1214</v>
       </c>
       <c r="T220" t="n">
         <v>14</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -18040,24 +18040,24 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N221" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O221" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P221" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
@@ -18066,10 +18066,10 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1417</v>
+        <v>1900</v>
       </c>
       <c r="T221" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222">
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -18127,13 +18127,13 @@
         <v>108</v>
       </c>
       <c r="N222" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O222" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P222" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1333</v>
+        <v>1583</v>
       </c>
       <c r="T222" t="n">
         <v>12</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44263</v>
+        <v>44420</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -18200,24 +18200,24 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N223" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O223" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P223" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1417</v>
+        <v>1357</v>
       </c>
       <c r="T223" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224">
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44210</v>
+        <v>44264</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -18280,24 +18280,24 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M224" t="n">
         <v>108</v>
       </c>
       <c r="N224" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O224" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P224" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
@@ -18306,10 +18306,10 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1600</v>
+        <v>1417</v>
       </c>
       <c r="T224" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44210</v>
+        <v>44348</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -18364,7 +18364,7 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N225" t="n">
         <v>16000</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44210</v>
+        <v>44263</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -18440,24 +18440,24 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N226" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O226" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P226" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
@@ -18466,10 +18466,10 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T226" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -18520,11 +18520,11 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N227" t="n">
         <v>16000</v>
@@ -18537,7 +18537,7 @@
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
@@ -18546,10 +18546,10 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1143</v>
+        <v>1600</v>
       </c>
       <c r="T227" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -18607,13 +18607,13 @@
         <v>162</v>
       </c>
       <c r="N228" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O228" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P228" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1583</v>
+        <v>1333</v>
       </c>
       <c r="T228" t="n">
         <v>12</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -18687,13 +18687,13 @@
         <v>108</v>
       </c>
       <c r="N229" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O229" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P229" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T229" t="n">
         <v>14</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44341</v>
+        <v>44253</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -18764,20 +18764,20 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N230" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O230" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P230" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R230" t="inlineStr">
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T230" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231">
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -18840,24 +18840,24 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N231" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O231" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P231" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
@@ -18866,10 +18866,10 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1214</v>
+        <v>1583</v>
       </c>
       <c r="T231" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232">
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -18920,7 +18920,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M232" t="n">
@@ -18937,7 +18937,7 @@
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
@@ -18946,10 +18946,10 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1583</v>
+        <v>1357</v>
       </c>
       <c r="T232" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233">
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -19000,24 +19000,24 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M233" t="n">
         <v>108</v>
       </c>
       <c r="N233" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O233" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P233" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
@@ -19026,10 +19026,10 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1357</v>
+        <v>1417</v>
       </c>
       <c r="T233" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234">
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44301</v>
+        <v>44341</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -19080,11 +19080,11 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N234" t="n">
         <v>17000</v>
@@ -19097,7 +19097,7 @@
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
@@ -19106,10 +19106,10 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T234" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -19160,24 +19160,24 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M235" t="n">
         <v>108</v>
       </c>
       <c r="N235" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O235" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P235" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
@@ -19186,10 +19186,10 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1214</v>
+        <v>1583</v>
       </c>
       <c r="T235" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236">
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44244</v>
+        <v>44414</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -19240,24 +19240,24 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N236" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O236" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P236" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
@@ -19266,10 +19266,10 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1417</v>
+        <v>1357</v>
       </c>
       <c r="T236" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237">
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -19320,24 +19320,24 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N237" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O237" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P237" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R237" t="inlineStr">
@@ -19346,10 +19346,10 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T237" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238">
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44176</v>
+        <v>44301</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -19400,24 +19400,24 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N238" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O238" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P238" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
@@ -19426,10 +19426,10 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1667</v>
+        <v>1214</v>
       </c>
       <c r="T238" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239">
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -19480,24 +19480,24 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N239" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O239" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P239" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
@@ -19506,10 +19506,10 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="T239" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44417</v>
+        <v>44244</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -19560,24 +19560,24 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M240" t="n">
         <v>108</v>
       </c>
       <c r="N240" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O240" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P240" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19586,10 +19586,10 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1583</v>
+        <v>1143</v>
       </c>
       <c r="T240" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -19640,24 +19640,24 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N241" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O241" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P241" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
@@ -19666,10 +19666,10 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1357</v>
+        <v>1667</v>
       </c>
       <c r="T241" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242">
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44441</v>
+        <v>44176</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -19720,24 +19720,24 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N242" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O242" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P242" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1917</v>
+        <v>1429</v>
       </c>
       <c r="T242" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19800,24 +19800,24 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M243" t="n">
         <v>108</v>
       </c>
       <c r="N243" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O243" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="P243" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
@@ -19826,10 +19826,10 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1643</v>
+        <v>1583</v>
       </c>
       <c r="T243" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244">
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19884,20 +19884,20 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="N244" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O244" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P244" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
@@ -19906,10 +19906,10 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1714</v>
+        <v>1357</v>
       </c>
       <c r="T244" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -19960,24 +19960,24 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="N245" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O245" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P245" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
@@ -19986,10 +19986,10 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1500</v>
+        <v>1917</v>
       </c>
       <c r="T245" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246">
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20040,24 +20040,24 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M246" t="n">
         <v>108</v>
       </c>
       <c r="N246" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O246" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="P246" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1583</v>
+        <v>1643</v>
       </c>
       <c r="T246" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -20124,20 +20124,20 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N247" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O247" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P247" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1357</v>
+        <v>1714</v>
       </c>
       <c r="T247" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44351</v>
+        <v>44237</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="N248" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O248" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P248" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T248" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20280,24 +20280,24 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
         <v>108</v>
       </c>
       <c r="N249" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O249" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P249" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1143</v>
+        <v>1583</v>
       </c>
       <c r="T249" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44369</v>
+        <v>44432</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -20360,24 +20360,24 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M250" t="n">
         <v>108</v>
       </c>
       <c r="N250" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O250" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P250" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1500</v>
+        <v>1357</v>
       </c>
       <c r="T250" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -20440,24 +20440,24 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N251" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O251" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P251" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -20466,10 +20466,10 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1286</v>
+        <v>1333</v>
       </c>
       <c r="T251" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44257</v>
+        <v>44351</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -20520,24 +20520,24 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M252" t="n">
         <v>108</v>
       </c>
       <c r="N252" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O252" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P252" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -20546,10 +20546,10 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T252" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253">
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -20600,24 +20600,24 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M253" t="n">
         <v>108</v>
       </c>
       <c r="N253" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O253" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P253" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -20626,10 +20626,10 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T253" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254">
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44273</v>
+        <v>44369</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -20680,24 +20680,24 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N254" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O254" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P254" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,10 +20706,10 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1333</v>
+        <v>1286</v>
       </c>
       <c r="T254" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -20760,24 +20760,24 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N255" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O255" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P255" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R255" t="inlineStr">
@@ -20786,10 +20786,10 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T255" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256">
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44342</v>
+        <v>44257</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -20840,7 +20840,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M256" t="n">
@@ -20857,7 +20857,7 @@
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R256" t="inlineStr">
@@ -20866,10 +20866,10 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T256" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257">
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -20920,24 +20920,24 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M257" t="n">
         <v>108</v>
       </c>
       <c r="N257" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O257" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P257" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R257" t="inlineStr">
@@ -20946,10 +20946,10 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T257" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258">
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -21000,7 +21000,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M258" t="n">
@@ -21017,7 +21017,7 @@
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
@@ -21026,10 +21026,10 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T258" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259">
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -21080,24 +21080,24 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M259" t="n">
         <v>108</v>
       </c>
       <c r="N259" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O259" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P259" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
@@ -21106,10 +21106,10 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T259" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -21160,7 +21160,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M260" t="n">
@@ -21177,7 +21177,7 @@
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -21186,10 +21186,10 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T260" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261">
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44302</v>
+        <v>44294</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -21244,7 +21244,7 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N261" t="n">
         <v>16000</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -21320,7 +21320,7 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M262" t="n">
@@ -21337,7 +21337,7 @@
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -21346,10 +21346,10 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T262" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263">
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -21404,7 +21404,7 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N263" t="n">
         <v>17000</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44446</v>
+        <v>44302</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -21480,24 +21480,24 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M264" t="n">
         <v>108</v>
       </c>
       <c r="N264" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O264" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P264" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,10 +21506,10 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>2100</v>
+        <v>1333</v>
       </c>
       <c r="T264" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44446</v>
+        <v>44315</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N265" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O265" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P265" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1750</v>
+        <v>1333</v>
       </c>
       <c r="T265" t="n">
         <v>12</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44411</v>
+        <v>44391</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N266" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O266" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P266" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T266" t="n">
         <v>12</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -21720,24 +21720,24 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M267" t="n">
         <v>108</v>
       </c>
       <c r="N267" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O267" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P267" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,10 +21746,10 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1429</v>
+        <v>2100</v>
       </c>
       <c r="T267" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268">
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44329</v>
+        <v>44446</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -21807,13 +21807,13 @@
         <v>162</v>
       </c>
       <c r="N268" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O268" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P268" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1333</v>
+        <v>1750</v>
       </c>
       <c r="T268" t="n">
         <v>12</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44449</v>
+        <v>44411</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44449</v>
+        <v>44411</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -22047,13 +22047,13 @@
         <v>162</v>
       </c>
       <c r="N271" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O271" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P271" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T271" t="n">
         <v>12</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -22120,24 +22120,24 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M272" t="n">
         <v>108</v>
       </c>
       <c r="N272" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O272" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P272" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,10 +22146,10 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1571</v>
+        <v>1667</v>
       </c>
       <c r="T272" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -22200,24 +22200,24 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M273" t="n">
         <v>108</v>
       </c>
       <c r="N273" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O273" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P273" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -22226,10 +22226,10 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1833</v>
+        <v>1429</v>
       </c>
       <c r="T273" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22280,11 +22280,11 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N274" t="n">
         <v>22000</v>
@@ -22297,7 +22297,7 @@
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1571</v>
+        <v>1833</v>
       </c>
       <c r="T274" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="275">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22364,20 +22364,20 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="N275" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O275" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P275" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1714</v>
+        <v>1571</v>
       </c>
       <c r="T275" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22447,13 +22447,13 @@
         <v>108</v>
       </c>
       <c r="N276" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O276" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P276" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T276" t="n">
         <v>12</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -22527,13 +22527,13 @@
         <v>108</v>
       </c>
       <c r="N277" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O277" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P277" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1143</v>
+        <v>1571</v>
       </c>
       <c r="T277" t="n">
         <v>14</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -22600,24 +22600,24 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="N278" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O278" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P278" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1900</v>
+        <v>1714</v>
       </c>
       <c r="T278" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22687,13 +22687,13 @@
         <v>108</v>
       </c>
       <c r="N279" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O279" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P279" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1583</v>
+        <v>1333</v>
       </c>
       <c r="T279" t="n">
         <v>12</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -22760,24 +22760,24 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M280" t="n">
         <v>108</v>
       </c>
       <c r="N280" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O280" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P280" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,10 +22786,10 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T280" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281">
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -22840,24 +22840,24 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M281" t="n">
         <v>108</v>
       </c>
       <c r="N281" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O281" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P281" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -22866,10 +22866,10 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1571</v>
+        <v>1900</v>
       </c>
       <c r="T281" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -22920,24 +22920,24 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N282" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O282" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P282" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>2000</v>
+        <v>1583</v>
       </c>
       <c r="T282" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>864</v>
+        <v>108</v>
       </c>
       <c r="N283" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O283" t="n">
         <v>22000</v>
       </c>
       <c r="P283" t="n">
-        <v>20438</v>
+        <v>22000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1703</v>
+        <v>1833</v>
       </c>
       <c r="T283" t="n">
         <v>12</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>432</v>
+        <v>108</v>
       </c>
       <c r="N284" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O284" t="n">
         <v>22000</v>
       </c>
       <c r="P284" t="n">
-        <v>20250</v>
+        <v>22000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1446</v>
+        <v>1571</v>
       </c>
       <c r="T284" t="n">
         <v>14</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23160,24 +23160,24 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N285" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O285" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P285" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -23186,10 +23186,10 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1333</v>
+        <v>2000</v>
       </c>
       <c r="T285" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -23240,24 +23240,24 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>108</v>
+        <v>864</v>
       </c>
       <c r="N286" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O286" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P286" t="n">
-        <v>16000</v>
+        <v>20438</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
@@ -23266,10 +23266,10 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1143</v>
+        <v>1703</v>
       </c>
       <c r="T286" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="287">
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -23320,24 +23320,24 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>54</v>
+        <v>432</v>
       </c>
       <c r="N287" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O287" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P287" t="n">
-        <v>21000</v>
+        <v>20250</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
@@ -23346,10 +23346,10 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>2100</v>
+        <v>1446</v>
       </c>
       <c r="T287" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="288">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N288" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O288" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P288" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1750</v>
+        <v>1333</v>
       </c>
       <c r="T288" t="n">
         <v>12</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -23487,13 +23487,13 @@
         <v>108</v>
       </c>
       <c r="N289" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O289" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P289" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1500</v>
+        <v>1143</v>
       </c>
       <c r="T289" t="n">
         <v>14</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -23560,24 +23560,24 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N290" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O290" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P290" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1417</v>
+        <v>2100</v>
       </c>
       <c r="T290" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -23640,24 +23640,24 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N291" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O291" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P291" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
@@ -23666,10 +23666,10 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1143</v>
+        <v>1750</v>
       </c>
       <c r="T291" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="292">
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -23720,24 +23720,24 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N292" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O292" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P292" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
@@ -23746,10 +23746,10 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T292" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293">
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -23800,11 +23800,11 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N293" t="n">
         <v>17000</v>
@@ -23817,7 +23817,7 @@
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
@@ -23826,10 +23826,10 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T293" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N294" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O294" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P294" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T294" t="n">
         <v>14</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Caramelo</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N295" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O295" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P295" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T295" t="n">
         <v>12</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Caramelo</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N296" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O296" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P296" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T296" t="n">
         <v>14</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24120,7 +24120,7 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
@@ -24137,7 +24137,7 @@
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
@@ -24146,10 +24146,10 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1667</v>
+        <v>1429</v>
       </c>
       <c r="T297" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298">
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24195,29 +24195,29 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Caramelo</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M298" t="n">
         <v>108</v>
       </c>
       <c r="N298" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O298" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P298" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1429</v>
+        <v>1333</v>
       </c>
       <c r="T298" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -24275,29 +24275,29 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Caramelo</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N299" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O299" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P299" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
@@ -24306,10 +24306,10 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T299" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="300">
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24360,24 +24360,24 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="N300" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O300" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P300" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
@@ -24386,10 +24386,10 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T300" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301">
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -24440,7 +24440,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M301" t="n">
@@ -24457,7 +24457,7 @@
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24466,10 +24466,10 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1667</v>
+        <v>1429</v>
       </c>
       <c r="T301" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302">
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -24520,24 +24520,24 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N302" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O302" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P302" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
@@ -24546,10 +24546,10 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1429</v>
+        <v>1833</v>
       </c>
       <c r="T302" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303">
@@ -24567,68 +24567,308 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E303" t="n">
+        <v>5</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M303" t="n">
+        <v>260</v>
+      </c>
+      <c r="N303" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O303" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P303" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S303" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T303" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>3</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D304" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E304" t="n">
+        <v>5</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M304" t="n">
+        <v>108</v>
+      </c>
+      <c r="N304" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O304" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P304" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S304" t="n">
+        <v>1667</v>
+      </c>
+      <c r="T304" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>3</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D305" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E305" t="n">
+        <v>5</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M305" t="n">
+        <v>108</v>
+      </c>
+      <c r="N305" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O305" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P305" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S305" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T305" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>3</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D306" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E303" t="n">
-        <v>5</v>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G303" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I303" t="n">
-        <v>100108005</v>
-      </c>
-      <c r="J303" t="inlineStr">
-        <is>
-          <t>Piña</t>
-        </is>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>Caramelo</t>
-        </is>
-      </c>
-      <c r="L303" t="inlineStr">
+      <c r="E306" t="n">
+        <v>5</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M303" t="n">
+      <c r="M306" t="n">
         <v>108</v>
       </c>
-      <c r="N303" t="n">
+      <c r="N306" t="n">
         <v>20000</v>
       </c>
-      <c r="O303" t="n">
+      <c r="O306" t="n">
         <v>20000</v>
       </c>
-      <c r="P303" t="n">
+      <c r="P306" t="n">
         <v>20000</v>
       </c>
-      <c r="Q303" t="inlineStr">
+      <c r="Q306" t="inlineStr">
         <is>
           <t>$/caja 12 unidades</t>
         </is>
       </c>
-      <c r="R303" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S303" t="n">
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S306" t="n">
         <v>1667</v>
       </c>
-      <c r="T303" t="n">
+      <c r="T306" t="n">
         <v>12</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T306"/>
+  <dimension ref="A1:T308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44162</v>
+        <v>44453</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N69" t="n">
         <v>22000</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44413</v>
+        <v>44453</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -5960,24 +5960,24 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="N70" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O70" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P70" t="n">
-        <v>18600</v>
+        <v>22000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1860</v>
+        <v>1571</v>
       </c>
       <c r="T70" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44413</v>
+        <v>44162</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="N71" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O71" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P71" t="n">
-        <v>18500</v>
+        <v>22000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1542</v>
+        <v>1833</v>
       </c>
       <c r="T71" t="n">
         <v>12</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44202</v>
+        <v>44413</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -6120,24 +6120,24 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="N72" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O72" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P72" t="n">
-        <v>16000</v>
+        <v>18600</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1333</v>
+        <v>1860</v>
       </c>
       <c r="T72" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44202</v>
+        <v>44413</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -6200,24 +6200,24 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="N73" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O73" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P73" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1143</v>
+        <v>1542</v>
       </c>
       <c r="T73" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44165</v>
+        <v>44202</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -6287,13 +6287,13 @@
         <v>162</v>
       </c>
       <c r="N74" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O74" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P74" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T74" t="n">
         <v>12</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44242</v>
+        <v>44202</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -6360,24 +6360,24 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N75" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O75" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P75" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T75" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44242</v>
+        <v>44165</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -6440,24 +6440,24 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N76" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O76" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P76" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1214</v>
+        <v>1833</v>
       </c>
       <c r="T76" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44169</v>
+        <v>44242</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N77" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O77" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P77" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T77" t="n">
         <v>12</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44216</v>
+        <v>44242</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -6600,24 +6600,24 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
         <v>108</v>
       </c>
       <c r="N78" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O78" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P78" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1250</v>
+        <v>1214</v>
       </c>
       <c r="T78" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44216</v>
+        <v>44169</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -6680,24 +6680,24 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>162</v>
       </c>
       <c r="N79" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O79" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P79" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1071</v>
+        <v>1833</v>
       </c>
       <c r="T79" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44405</v>
+        <v>44216</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -6767,13 +6767,13 @@
         <v>108</v>
       </c>
       <c r="N80" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O80" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P80" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1667</v>
+        <v>1250</v>
       </c>
       <c r="T80" t="n">
         <v>12</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44405</v>
+        <v>44216</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N81" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O81" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P81" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T81" t="n">
         <v>14</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44260</v>
+        <v>44405</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -6927,13 +6927,13 @@
         <v>108</v>
       </c>
       <c r="N82" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O82" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P82" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T82" t="n">
         <v>12</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44281</v>
+        <v>44405</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -7000,24 +7000,24 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
         <v>108</v>
       </c>
       <c r="N83" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O83" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P83" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T83" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44308</v>
+        <v>44260</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -7087,13 +7087,13 @@
         <v>108</v>
       </c>
       <c r="N84" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O84" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P84" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T84" t="n">
         <v>12</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44271</v>
+        <v>44281</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N85" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O85" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P85" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T85" t="n">
         <v>12</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44271</v>
+        <v>44308</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T86" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44363</v>
+        <v>44271</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N87" t="n">
         <v>16000</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44363</v>
+        <v>44271</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -7400,11 +7400,11 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N88" t="n">
         <v>16000</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44229</v>
+        <v>44363</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="N89" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O89" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P89" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1250</v>
+        <v>1333</v>
       </c>
       <c r="T89" t="n">
         <v>12</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44431</v>
+        <v>44363</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -7560,24 +7560,24 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N90" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O90" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P90" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -7586,10 +7586,10 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>2000</v>
+        <v>1143</v>
       </c>
       <c r="T90" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44431</v>
+        <v>44229</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -7644,16 +7644,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="N91" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O91" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P91" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1667</v>
+        <v>1250</v>
       </c>
       <c r="T91" t="n">
         <v>12</v>
@@ -7720,11 +7720,11 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N92" t="n">
         <v>20000</v>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7746,10 +7746,10 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1429</v>
+        <v>2000</v>
       </c>
       <c r="T92" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44189</v>
+        <v>44431</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7807,13 +7807,13 @@
         <v>162</v>
       </c>
       <c r="N93" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O93" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P93" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T93" t="n">
         <v>12</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44189</v>
+        <v>44431</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7887,13 +7887,13 @@
         <v>108</v>
       </c>
       <c r="N94" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O94" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P94" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T94" t="n">
         <v>14</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7967,13 +7967,13 @@
         <v>162</v>
       </c>
       <c r="N95" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O95" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P95" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1583</v>
+        <v>1417</v>
       </c>
       <c r="T95" t="n">
         <v>12</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -8047,13 +8047,13 @@
         <v>108</v>
       </c>
       <c r="N96" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O96" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P96" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1357</v>
+        <v>1214</v>
       </c>
       <c r="T96" t="n">
         <v>14</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44355</v>
+        <v>44181</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -8120,24 +8120,24 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N97" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O97" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P97" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8146,10 +8146,10 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1143</v>
+        <v>1583</v>
       </c>
       <c r="T97" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44372</v>
+        <v>44181</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -8200,24 +8200,24 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
         <v>108</v>
       </c>
       <c r="N98" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O98" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P98" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8226,10 +8226,10 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1500</v>
+        <v>1357</v>
       </c>
       <c r="T98" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44246</v>
+        <v>44355</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -8280,24 +8280,24 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N99" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O99" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P99" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -8306,10 +8306,10 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T99" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44246</v>
+        <v>44372</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -8360,24 +8360,24 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N100" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O100" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P100" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -8386,10 +8386,10 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T100" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44203</v>
+        <v>44246</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -8444,7 +8444,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N101" t="n">
         <v>17000</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44203</v>
+        <v>44246</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N102" t="n">
         <v>17000</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44230</v>
+        <v>44203</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -8604,20 +8604,20 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N103" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O103" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P103" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,10 +8626,10 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1500</v>
+        <v>1417</v>
       </c>
       <c r="T103" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44239</v>
+        <v>44203</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -8680,24 +8680,24 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="N104" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O104" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P104" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1500</v>
+        <v>1214</v>
       </c>
       <c r="T104" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44418</v>
+        <v>44230</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -8764,20 +8764,20 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="N105" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O105" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P105" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1583</v>
+        <v>1500</v>
       </c>
       <c r="T105" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44418</v>
+        <v>44239</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -8840,24 +8840,24 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N106" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O106" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P106" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -8866,10 +8866,10 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1357</v>
+        <v>1500</v>
       </c>
       <c r="T106" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44312</v>
+        <v>44418</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8927,13 +8927,13 @@
         <v>108</v>
       </c>
       <c r="N107" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O107" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P107" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1333</v>
+        <v>1583</v>
       </c>
       <c r="T107" t="n">
         <v>12</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44172</v>
+        <v>44418</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -9000,24 +9000,24 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="N108" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O108" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P108" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,10 +9026,10 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1833</v>
+        <v>1357</v>
       </c>
       <c r="T108" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44258</v>
+        <v>44312</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44258</v>
+        <v>44172</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -9160,24 +9160,24 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N110" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O110" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P110" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -9186,10 +9186,10 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1143</v>
+        <v>1833</v>
       </c>
       <c r="T110" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44174</v>
+        <v>44258</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N111" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O111" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P111" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T111" t="n">
         <v>12</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44174</v>
+        <v>44258</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N112" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O112" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P112" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1571</v>
+        <v>1143</v>
       </c>
       <c r="T112" t="n">
         <v>14</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44407</v>
+        <v>44174</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -9407,13 +9407,13 @@
         <v>162</v>
       </c>
       <c r="N113" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O113" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P113" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T113" t="n">
         <v>12</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44407</v>
+        <v>44174</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -9487,13 +9487,13 @@
         <v>54</v>
       </c>
       <c r="N114" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O114" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P114" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1429</v>
+        <v>1571</v>
       </c>
       <c r="T114" t="n">
         <v>14</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44410</v>
+        <v>44407</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -9564,7 +9564,7 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N115" t="n">
         <v>20000</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44410</v>
+        <v>44407</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -9644,7 +9644,7 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N116" t="n">
         <v>20000</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44284</v>
+        <v>44410</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -9720,24 +9720,24 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N117" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O117" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P117" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,10 +9746,10 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1143</v>
+        <v>1667</v>
       </c>
       <c r="T117" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44236</v>
+        <v>44410</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -9800,24 +9800,24 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="N118" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O118" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P118" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -9826,10 +9826,10 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1500</v>
+        <v>1429</v>
       </c>
       <c r="T118" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44159</v>
+        <v>44284</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -9880,24 +9880,24 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N119" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O119" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P119" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -9906,10 +9906,10 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T119" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44245</v>
+        <v>44236</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -9960,24 +9960,24 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="N120" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O120" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P120" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,10 +9986,10 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T120" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44245</v>
+        <v>44159</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -10040,24 +10040,24 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
         <v>108</v>
       </c>
       <c r="N121" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O121" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P121" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10066,10 +10066,10 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1214</v>
+        <v>1833</v>
       </c>
       <c r="T121" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44330</v>
+        <v>44245</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -10120,24 +10120,24 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
         <v>162</v>
       </c>
       <c r="N122" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O122" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P122" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -10146,10 +10146,10 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T122" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123">
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44187</v>
+        <v>44245</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -10200,24 +10200,24 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M123" t="n">
         <v>108</v>
       </c>
       <c r="N123" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O123" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P123" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10226,10 +10226,10 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1500</v>
+        <v>1214</v>
       </c>
       <c r="T123" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44343</v>
+        <v>44330</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -10280,7 +10280,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10306,10 +10306,10 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T124" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44343</v>
+        <v>44187</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -10360,24 +10360,24 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M125" t="n">
         <v>108</v>
       </c>
       <c r="N125" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O125" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P125" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,10 +10386,10 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T125" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44293</v>
+        <v>44343</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -10447,13 +10447,13 @@
         <v>162</v>
       </c>
       <c r="N126" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O126" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P126" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T126" t="n">
         <v>12</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -10520,11 +10520,11 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N127" t="n">
         <v>16000</v>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T127" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44195</v>
+        <v>44293</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -10600,24 +10600,24 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N128" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O128" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P128" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -10626,10 +10626,10 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1600</v>
+        <v>1417</v>
       </c>
       <c r="T128" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129">
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44195</v>
+        <v>44344</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -10760,11 +10760,11 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N130" t="n">
         <v>16000</v>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10786,10 +10786,10 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1143</v>
+        <v>1600</v>
       </c>
       <c r="T130" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44320</v>
+        <v>44195</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -10920,7 +10920,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M132" t="n">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,10 +10946,10 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T132" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133">
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44209</v>
+        <v>44320</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -11000,7 +11000,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M133" t="n">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,10 +11026,10 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T133" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134">
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44396</v>
+        <v>44209</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N134" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O134" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P134" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T134" t="n">
         <v>12</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44396</v>
+        <v>44209</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -11167,13 +11167,13 @@
         <v>162</v>
       </c>
       <c r="N135" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O135" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P135" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T135" t="n">
         <v>14</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44278</v>
+        <v>44396</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -11244,16 +11244,16 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N136" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O136" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P136" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T136" t="n">
         <v>12</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44278</v>
+        <v>44396</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -11324,7 +11324,7 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N137" t="n">
         <v>17000</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44406</v>
+        <v>44278</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -11404,16 +11404,16 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N138" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O138" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P138" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="T138" t="n">
         <v>12</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44406</v>
+        <v>44278</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N139" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O139" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P139" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1429</v>
+        <v>1214</v>
       </c>
       <c r="T139" t="n">
         <v>14</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N140" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O140" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P140" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T140" t="n">
         <v>12</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N141" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O141" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P141" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T141" t="n">
         <v>14</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44250</v>
+        <v>44385</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N142" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O142" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P142" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T142" t="n">
         <v>12</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44250</v>
+        <v>44385</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -11807,13 +11807,13 @@
         <v>108</v>
       </c>
       <c r="N143" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O143" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P143" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T143" t="n">
         <v>14</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44221</v>
+        <v>44250</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -11884,7 +11884,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N144" t="n">
         <v>16000</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44334</v>
+        <v>44250</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -11960,24 +11960,24 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N145" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O145" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P145" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T145" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146">
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44299</v>
+        <v>44221</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -12044,7 +12044,7 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N146" t="n">
         <v>16000</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44299</v>
+        <v>44334</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -12120,24 +12120,24 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N147" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O147" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P147" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12146,10 +12146,10 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1000</v>
+        <v>1417</v>
       </c>
       <c r="T147" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148">
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44340</v>
+        <v>44299</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -12204,16 +12204,16 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N148" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O148" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P148" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T148" t="n">
         <v>12</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44340</v>
+        <v>44299</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -12280,24 +12280,24 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N149" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O149" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P149" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,10 +12306,10 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T149" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44200</v>
+        <v>44340</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -12367,13 +12367,13 @@
         <v>162</v>
       </c>
       <c r="N150" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O150" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P150" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T150" t="n">
         <v>12</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44200</v>
+        <v>44340</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -12447,13 +12447,13 @@
         <v>108</v>
       </c>
       <c r="N151" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O151" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P151" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T151" t="n">
         <v>14</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44186</v>
+        <v>44200</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -12527,13 +12527,13 @@
         <v>162</v>
       </c>
       <c r="N152" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O152" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P152" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T152" t="n">
         <v>12</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44186</v>
+        <v>44200</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -12607,13 +12607,13 @@
         <v>108</v>
       </c>
       <c r="N153" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O153" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P153" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T153" t="n">
         <v>14</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44252</v>
+        <v>44186</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -12687,13 +12687,13 @@
         <v>162</v>
       </c>
       <c r="N154" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O154" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P154" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T154" t="n">
         <v>12</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44252</v>
+        <v>44186</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -12767,13 +12767,13 @@
         <v>108</v>
       </c>
       <c r="N155" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O155" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P155" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>1143</v>
+        <v>1286</v>
       </c>
       <c r="T155" t="n">
         <v>14</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44371</v>
+        <v>44252</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -12847,13 +12847,13 @@
         <v>162</v>
       </c>
       <c r="N156" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O156" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P156" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T156" t="n">
         <v>12</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44371</v>
+        <v>44252</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -12927,13 +12927,13 @@
         <v>108</v>
       </c>
       <c r="N157" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O157" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P157" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T157" t="n">
         <v>14</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44419</v>
+        <v>44371</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -13007,13 +13007,13 @@
         <v>162</v>
       </c>
       <c r="N158" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O158" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P158" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1583</v>
+        <v>1500</v>
       </c>
       <c r="T158" t="n">
         <v>12</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44419</v>
+        <v>44371</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -13087,13 +13087,13 @@
         <v>108</v>
       </c>
       <c r="N159" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O159" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P159" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1357</v>
+        <v>1286</v>
       </c>
       <c r="T159" t="n">
         <v>14</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -13167,13 +13167,13 @@
         <v>162</v>
       </c>
       <c r="N160" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O160" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P160" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T160" t="n">
         <v>12</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44447</v>
+        <v>44419</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -13240,24 +13240,24 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N161" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O161" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P161" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -13266,10 +13266,10 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>1667</v>
+        <v>1357</v>
       </c>
       <c r="T161" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162">
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44447</v>
+        <v>44370</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -13320,24 +13320,24 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N162" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O162" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P162" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -13346,10 +13346,10 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1429</v>
+        <v>1500</v>
       </c>
       <c r="T162" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163">
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -13404,20 +13404,20 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N163" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O163" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P163" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,10 +13426,10 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>1214</v>
+        <v>1667</v>
       </c>
       <c r="T163" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164">
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44259</v>
+        <v>44447</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -13480,24 +13480,24 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N164" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O164" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P164" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -13506,10 +13506,10 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T164" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165">
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -13567,17 +13567,17 @@
         <v>108</v>
       </c>
       <c r="N165" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O165" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P165" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -13586,10 +13586,10 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T165" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166">
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -13640,24 +13640,24 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N166" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O166" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P166" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
@@ -13666,10 +13666,10 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T166" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167">
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -13727,13 +13727,13 @@
         <v>108</v>
       </c>
       <c r="N167" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O167" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P167" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T167" t="n">
         <v>12</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N168" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O168" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P168" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T168" t="n">
         <v>14</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -13884,7 +13884,7 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N169" t="n">
         <v>17000</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -13964,7 +13964,7 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N170" t="n">
         <v>17000</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -14040,24 +14040,24 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N171" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O171" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P171" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,10 +14066,10 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1500</v>
+        <v>1417</v>
       </c>
       <c r="T171" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -14120,24 +14120,24 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N172" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O172" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P172" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,10 +14146,10 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1250</v>
+        <v>1214</v>
       </c>
       <c r="T172" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M173" t="n">
@@ -14217,7 +14217,7 @@
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14226,10 +14226,10 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1071</v>
+        <v>1500</v>
       </c>
       <c r="T173" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -14447,13 +14447,13 @@
         <v>162</v>
       </c>
       <c r="N176" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O176" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P176" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1333</v>
+        <v>1250</v>
       </c>
       <c r="T176" t="n">
         <v>12</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -14520,24 +14520,24 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N177" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O177" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P177" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,10 +14546,10 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1667</v>
+        <v>1071</v>
       </c>
       <c r="T177" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178">
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -14600,24 +14600,24 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N178" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O178" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P178" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,10 +14626,10 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1429</v>
+        <v>1333</v>
       </c>
       <c r="T178" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -14684,16 +14684,16 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N179" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O179" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P179" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T179" t="n">
         <v>12</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44249</v>
+        <v>44179</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -14760,24 +14760,24 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N180" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O180" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P180" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -14786,10 +14786,10 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T180" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -14840,24 +14840,24 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M181" t="n">
         <v>108</v>
       </c>
       <c r="N181" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O181" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P181" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14866,10 +14866,10 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T181" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -14924,16 +14924,16 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N182" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O182" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P182" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T182" t="n">
         <v>12</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44384</v>
+        <v>44249</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -15000,7 +15000,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M183" t="n">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -15026,10 +15026,10 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T183" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184">
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44168</v>
+        <v>44309</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -15080,24 +15080,24 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N184" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O184" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P184" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -15106,10 +15106,10 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>2200</v>
+        <v>1333</v>
       </c>
       <c r="T184" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -15167,13 +15167,13 @@
         <v>108</v>
       </c>
       <c r="N185" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O185" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P185" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T185" t="n">
         <v>12</v>
@@ -15240,11 +15240,11 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N186" t="n">
         <v>22000</v>
@@ -15257,7 +15257,7 @@
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -15266,10 +15266,10 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1571</v>
+        <v>2200</v>
       </c>
       <c r="T186" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187">
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44272</v>
+        <v>44168</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -15327,13 +15327,13 @@
         <v>108</v>
       </c>
       <c r="N187" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O187" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P187" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T187" t="n">
         <v>12</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44196</v>
+        <v>44168</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -15400,24 +15400,24 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N188" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O188" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P188" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1333</v>
+        <v>1571</v>
       </c>
       <c r="T188" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189">
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -15480,11 +15480,11 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N189" t="n">
         <v>16000</v>
@@ -15497,7 +15497,7 @@
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -15506,10 +15506,10 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T189" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190">
@@ -15560,7 +15560,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M190" t="n">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -15586,10 +15586,10 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T190" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191">
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -15640,24 +15640,24 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N191" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O191" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P191" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -15666,10 +15666,10 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1500</v>
+        <v>1143</v>
       </c>
       <c r="T191" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192">
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -15720,24 +15720,24 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M192" t="n">
         <v>108</v>
       </c>
       <c r="N192" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O192" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P192" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -15746,10 +15746,10 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T192" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193">
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -15800,24 +15800,24 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="N193" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O193" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P193" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
@@ -15829,7 +15829,7 @@
         <v>1500</v>
       </c>
       <c r="T193" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194">
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -15880,24 +15880,24 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="N194" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O194" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P194" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -15906,10 +15906,10 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1250</v>
+        <v>1286</v>
       </c>
       <c r="T194" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195">
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44452</v>
+        <v>44235</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -15960,24 +15960,24 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="N195" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O195" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P195" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1833</v>
+        <v>1500</v>
       </c>
       <c r="T195" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44452</v>
+        <v>44235</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -16040,24 +16040,24 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="N196" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O196" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P196" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -16066,10 +16066,10 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1571</v>
+        <v>1250</v>
       </c>
       <c r="T196" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197">
@@ -16120,11 +16120,11 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N197" t="n">
         <v>22000</v>
@@ -16137,7 +16137,7 @@
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -16146,10 +16146,10 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1375</v>
+        <v>1833</v>
       </c>
       <c r="T197" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198">
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N198" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O198" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P198" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1143</v>
+        <v>1571</v>
       </c>
       <c r="T198" t="n">
         <v>14</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -16280,24 +16280,24 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M199" t="n">
         <v>54</v>
       </c>
       <c r="N199" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O199" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P199" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
@@ -16306,10 +16306,10 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1500</v>
+        <v>1375</v>
       </c>
       <c r="T199" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200">
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -16360,24 +16360,24 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N200" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O200" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P200" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -16386,10 +16386,10 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1250</v>
+        <v>1143</v>
       </c>
       <c r="T200" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201">
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -16440,24 +16440,24 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N201" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O201" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P201" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
@@ -16466,10 +16466,10 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1583</v>
+        <v>1500</v>
       </c>
       <c r="T201" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202">
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44397</v>
+        <v>44218</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N202" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O202" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P202" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1417</v>
+        <v>1250</v>
       </c>
       <c r="T202" t="n">
         <v>12</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44274</v>
+        <v>44433</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -16600,24 +16600,24 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M203" t="n">
         <v>162</v>
       </c>
       <c r="N203" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O203" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P203" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -16626,10 +16626,10 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1143</v>
+        <v>1583</v>
       </c>
       <c r="T203" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204">
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N204" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O204" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P204" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T204" t="n">
         <v>12</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44291</v>
+        <v>44274</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -16760,24 +16760,24 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N205" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O205" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P205" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
@@ -16786,10 +16786,10 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T205" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206">
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N206" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O206" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P206" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T206" t="n">
         <v>12</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -16927,13 +16927,13 @@
         <v>108</v>
       </c>
       <c r="N207" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O207" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P207" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1583</v>
+        <v>1417</v>
       </c>
       <c r="T207" t="n">
         <v>12</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -17000,24 +17000,24 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N208" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O208" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P208" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
@@ -17026,10 +17026,10 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1357</v>
+        <v>1417</v>
       </c>
       <c r="T208" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209">
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -17160,24 +17160,24 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="N210" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O210" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P210" t="n">
-        <v>21200</v>
+        <v>19000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -17186,10 +17186,10 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1767</v>
+        <v>1357</v>
       </c>
       <c r="T210" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211">
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -17240,24 +17240,24 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="N211" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O211" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P211" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
@@ -17266,10 +17266,10 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T211" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212">
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -17324,16 +17324,16 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="N212" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O212" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P212" t="n">
-        <v>15000</v>
+        <v>21200</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1250</v>
+        <v>1767</v>
       </c>
       <c r="T212" t="n">
         <v>12</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="N213" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O213" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P213" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1071</v>
+        <v>1500</v>
       </c>
       <c r="T213" t="n">
         <v>14</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -17480,24 +17480,24 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N214" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O214" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P214" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
@@ -17506,10 +17506,10 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1600</v>
+        <v>1250</v>
       </c>
       <c r="T214" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -17560,24 +17560,24 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N215" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O215" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P215" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -17586,10 +17586,10 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1333</v>
+        <v>1071</v>
       </c>
       <c r="T215" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216">
@@ -17640,7 +17640,7 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M216" t="n">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1143</v>
+        <v>1600</v>
       </c>
       <c r="T216" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N219" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O219" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P219" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T219" t="n">
         <v>12</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -17967,13 +17967,13 @@
         <v>108</v>
       </c>
       <c r="N220" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O220" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P220" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T220" t="n">
         <v>14</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -18040,24 +18040,24 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N221" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O221" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P221" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
@@ -18066,10 +18066,10 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1900</v>
+        <v>1417</v>
       </c>
       <c r="T221" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222">
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -18120,24 +18120,24 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M222" t="n">
         <v>108</v>
       </c>
       <c r="N222" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O222" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P222" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -18146,10 +18146,10 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1583</v>
+        <v>1214</v>
       </c>
       <c r="T222" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M223" t="n">
@@ -18217,7 +18217,7 @@
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1357</v>
+        <v>1900</v>
       </c>
       <c r="T223" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224">
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -18287,13 +18287,13 @@
         <v>108</v>
       </c>
       <c r="N224" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O224" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P224" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1417</v>
+        <v>1583</v>
       </c>
       <c r="T224" t="n">
         <v>12</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -18360,24 +18360,24 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N225" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O225" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P225" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
@@ -18386,10 +18386,10 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1333</v>
+        <v>1357</v>
       </c>
       <c r="T225" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226">
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -18444,7 +18444,7 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N226" t="n">
         <v>17000</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44210</v>
+        <v>44348</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -18520,7 +18520,7 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M227" t="n">
@@ -18537,7 +18537,7 @@
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
@@ -18546,10 +18546,10 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1600</v>
+        <v>1333</v>
       </c>
       <c r="T227" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228">
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44210</v>
+        <v>44263</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -18607,13 +18607,13 @@
         <v>162</v>
       </c>
       <c r="N228" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O228" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P228" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T228" t="n">
         <v>12</v>
@@ -18680,7 +18680,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M229" t="n">
@@ -18697,7 +18697,7 @@
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
@@ -18706,10 +18706,10 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1143</v>
+        <v>1600</v>
       </c>
       <c r="T229" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -18777,7 +18777,7 @@
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R230" t="inlineStr">
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T230" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231">
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -18840,24 +18840,24 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N231" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O231" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P231" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
@@ -18866,10 +18866,10 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1583</v>
+        <v>1143</v>
       </c>
       <c r="T231" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232">
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -18920,20 +18920,20 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N232" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O232" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P232" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T232" t="n">
         <v>14</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N233" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O233" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P233" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1417</v>
+        <v>1583</v>
       </c>
       <c r="T233" t="n">
         <v>12</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N234" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O234" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P234" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1214</v>
+        <v>1357</v>
       </c>
       <c r="T234" t="n">
         <v>14</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -19167,13 +19167,13 @@
         <v>108</v>
       </c>
       <c r="N235" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O235" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P235" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1583</v>
+        <v>1417</v>
       </c>
       <c r="T235" t="n">
         <v>12</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N236" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O236" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P236" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1357</v>
+        <v>1214</v>
       </c>
       <c r="T236" t="n">
         <v>14</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N237" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O237" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P237" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1417</v>
+        <v>1583</v>
       </c>
       <c r="T237" t="n">
         <v>12</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -19407,13 +19407,13 @@
         <v>108</v>
       </c>
       <c r="N238" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O238" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P238" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1214</v>
+        <v>1357</v>
       </c>
       <c r="T238" t="n">
         <v>14</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -19567,13 +19567,13 @@
         <v>108</v>
       </c>
       <c r="N240" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O240" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P240" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T240" t="n">
         <v>14</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -19647,13 +19647,13 @@
         <v>162</v>
       </c>
       <c r="N241" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O241" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P241" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T241" t="n">
         <v>12</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -19727,13 +19727,13 @@
         <v>108</v>
       </c>
       <c r="N242" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O242" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P242" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T242" t="n">
         <v>14</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N243" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O243" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P243" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1583</v>
+        <v>1667</v>
       </c>
       <c r="T243" t="n">
         <v>12</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19887,13 +19887,13 @@
         <v>108</v>
       </c>
       <c r="N244" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O244" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P244" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1357</v>
+        <v>1429</v>
       </c>
       <c r="T244" t="n">
         <v>14</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N245" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O245" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="P245" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1917</v>
+        <v>1583</v>
       </c>
       <c r="T245" t="n">
         <v>12</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20047,13 +20047,13 @@
         <v>108</v>
       </c>
       <c r="N246" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O246" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="P246" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1643</v>
+        <v>1357</v>
       </c>
       <c r="T246" t="n">
         <v>14</v>
@@ -20120,24 +20120,24 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="N247" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="O247" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P247" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1714</v>
+        <v>1917</v>
       </c>
       <c r="T247" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N248" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O248" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P248" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1500</v>
+        <v>1643</v>
       </c>
       <c r="T248" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20280,24 +20280,24 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N249" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O249" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P249" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1583</v>
+        <v>1714</v>
       </c>
       <c r="T249" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -20360,24 +20360,24 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="N250" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O250" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P250" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1357</v>
+        <v>1500</v>
       </c>
       <c r="T250" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -20447,13 +20447,13 @@
         <v>108</v>
       </c>
       <c r="N251" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O251" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P251" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1333</v>
+        <v>1583</v>
       </c>
       <c r="T251" t="n">
         <v>12</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -20527,13 +20527,13 @@
         <v>108</v>
       </c>
       <c r="N252" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O252" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P252" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1143</v>
+        <v>1357</v>
       </c>
       <c r="T252" t="n">
         <v>14</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -20607,13 +20607,13 @@
         <v>108</v>
       </c>
       <c r="N253" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O253" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P253" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T253" t="n">
         <v>12</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N254" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O254" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P254" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T254" t="n">
         <v>14</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -20767,13 +20767,13 @@
         <v>108</v>
       </c>
       <c r="N255" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O255" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P255" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T255" t="n">
         <v>12</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N256" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O256" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P256" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1214</v>
+        <v>1286</v>
       </c>
       <c r="T256" t="n">
         <v>14</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -20927,13 +20927,13 @@
         <v>108</v>
       </c>
       <c r="N257" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O257" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P257" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T257" t="n">
         <v>12</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N258" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O258" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P258" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T258" t="n">
         <v>14</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -21087,13 +21087,13 @@
         <v>108</v>
       </c>
       <c r="N259" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O259" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P259" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T259" t="n">
         <v>12</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N260" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O260" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P260" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T260" t="n">
         <v>14</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N261" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O261" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P261" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T261" t="n">
         <v>12</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -21327,13 +21327,13 @@
         <v>108</v>
       </c>
       <c r="N262" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O262" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P262" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T262" t="n">
         <v>14</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N263" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O263" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P263" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T263" t="n">
         <v>12</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44302</v>
+        <v>44294</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -21480,7 +21480,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M264" t="n">
@@ -21497,7 +21497,7 @@
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,10 +21506,10 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T264" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44315</v>
+        <v>44379</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -21567,13 +21567,13 @@
         <v>108</v>
       </c>
       <c r="N265" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O265" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P265" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T265" t="n">
         <v>12</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44391</v>
+        <v>44302</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N266" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O266" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P266" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T266" t="n">
         <v>12</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44446</v>
+        <v>44315</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -21720,24 +21720,24 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M267" t="n">
         <v>108</v>
       </c>
       <c r="N267" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O267" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P267" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,10 +21746,10 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>2100</v>
+        <v>1333</v>
       </c>
       <c r="T267" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268">
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -21807,13 +21807,13 @@
         <v>162</v>
       </c>
       <c r="N268" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O268" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P268" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1750</v>
+        <v>1417</v>
       </c>
       <c r="T268" t="n">
         <v>12</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -21880,24 +21880,24 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M269" t="n">
         <v>108</v>
       </c>
       <c r="N269" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O269" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P269" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -21906,10 +21906,10 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1667</v>
+        <v>2100</v>
       </c>
       <c r="T269" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -21960,24 +21960,24 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N270" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O270" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P270" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -21986,10 +21986,10 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1429</v>
+        <v>1750</v>
       </c>
       <c r="T270" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271">
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N271" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O271" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P271" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T271" t="n">
         <v>12</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44449</v>
+        <v>44411</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -22120,7 +22120,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M272" t="n">
@@ -22137,7 +22137,7 @@
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,10 +22146,10 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1667</v>
+        <v>1429</v>
       </c>
       <c r="T272" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -22200,24 +22200,24 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N273" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O273" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P273" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -22226,10 +22226,10 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1429</v>
+        <v>1333</v>
       </c>
       <c r="T273" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N274" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O274" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P274" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T274" t="n">
         <v>12</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22367,13 +22367,13 @@
         <v>108</v>
       </c>
       <c r="N275" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O275" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P275" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1571</v>
+        <v>1429</v>
       </c>
       <c r="T275" t="n">
         <v>14</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22444,7 +22444,7 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N276" t="n">
         <v>22000</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -22600,24 +22600,24 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="N278" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O278" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P278" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1714</v>
+        <v>1833</v>
       </c>
       <c r="T278" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22680,24 +22680,24 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
         <v>108</v>
       </c>
       <c r="N279" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O279" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P279" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22706,10 +22706,10 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1333</v>
+        <v>1571</v>
       </c>
       <c r="T279" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -22764,20 +22764,20 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="N280" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O280" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P280" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,10 +22786,10 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1143</v>
+        <v>1714</v>
       </c>
       <c r="T280" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281">
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -22840,24 +22840,24 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M281" t="n">
         <v>108</v>
       </c>
       <c r="N281" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O281" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P281" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -22866,10 +22866,10 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1900</v>
+        <v>1333</v>
       </c>
       <c r="T281" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -22920,24 +22920,24 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M282" t="n">
         <v>108</v>
       </c>
       <c r="N282" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O282" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P282" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1583</v>
+        <v>1143</v>
       </c>
       <c r="T282" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -23000,24 +23000,24 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M283" t="n">
         <v>108</v>
       </c>
       <c r="N283" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O283" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P283" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1833</v>
+        <v>1900</v>
       </c>
       <c r="T283" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284">
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23080,24 +23080,24 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
         <v>108</v>
       </c>
       <c r="N284" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O284" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P284" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,10 +23106,10 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1571</v>
+        <v>1583</v>
       </c>
       <c r="T284" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23160,24 +23160,24 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N285" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O285" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P285" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -23186,10 +23186,10 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>2000</v>
+        <v>1833</v>
       </c>
       <c r="T285" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -23240,24 +23240,24 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>864</v>
+        <v>108</v>
       </c>
       <c r="N286" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O286" t="n">
         <v>22000</v>
       </c>
       <c r="P286" t="n">
-        <v>20438</v>
+        <v>22000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
@@ -23266,10 +23266,10 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1703</v>
+        <v>1571</v>
       </c>
       <c r="T286" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287">
@@ -23320,24 +23320,24 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>432</v>
+        <v>54</v>
       </c>
       <c r="N287" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O287" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P287" t="n">
-        <v>20250</v>
+        <v>20000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
@@ -23346,10 +23346,10 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1446</v>
+        <v>2000</v>
       </c>
       <c r="T287" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>108</v>
+        <v>864</v>
       </c>
       <c r="N288" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O288" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P288" t="n">
-        <v>16000</v>
+        <v>20438</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1333</v>
+        <v>1703</v>
       </c>
       <c r="T288" t="n">
         <v>12</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>108</v>
+        <v>432</v>
       </c>
       <c r="N289" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O289" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P289" t="n">
-        <v>16000</v>
+        <v>20250</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1143</v>
+        <v>1446</v>
       </c>
       <c r="T289" t="n">
         <v>14</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -23560,24 +23560,24 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N290" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O290" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P290" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>2100</v>
+        <v>1333</v>
       </c>
       <c r="T290" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -23640,24 +23640,24 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N291" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O291" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P291" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
@@ -23666,10 +23666,10 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1750</v>
+        <v>1143</v>
       </c>
       <c r="T291" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="292">
@@ -23720,11 +23720,11 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N292" t="n">
         <v>21000</v>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
@@ -23746,10 +23746,10 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="T292" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293">
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N293" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O293" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P293" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1417</v>
+        <v>1750</v>
       </c>
       <c r="T293" t="n">
         <v>12</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -23887,13 +23887,13 @@
         <v>108</v>
       </c>
       <c r="N294" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O294" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P294" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T294" t="n">
         <v>14</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23964,7 +23964,7 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N295" t="n">
         <v>17000</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N296" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O296" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P296" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T296" t="n">
         <v>14</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24120,24 +24120,24 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
         <v>162</v>
       </c>
       <c r="N297" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O297" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P297" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
@@ -24146,10 +24146,10 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="T297" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="298">
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24195,29 +24195,29 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Caramelo</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N298" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O298" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P298" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T298" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Caramelo</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N299" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O299" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P299" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T299" t="n">
         <v>14</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Caramelo</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N300" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O300" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P300" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="T300" t="n">
         <v>12</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Caramelo</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24447,13 +24447,13 @@
         <v>108</v>
       </c>
       <c r="N301" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O301" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P301" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T301" t="n">
         <v>14</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -24527,13 +24527,13 @@
         <v>162</v>
       </c>
       <c r="N302" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O302" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P302" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T302" t="n">
         <v>12</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -24600,24 +24600,24 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="N303" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O303" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P303" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24626,10 +24626,10 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1500</v>
+        <v>1429</v>
       </c>
       <c r="T303" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304">
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N304" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O304" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P304" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T304" t="n">
         <v>12</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -24760,24 +24760,24 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="N305" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O305" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P305" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
@@ -24786,10 +24786,10 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1429</v>
+        <v>1500</v>
       </c>
       <c r="T305" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306">
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -24869,6 +24869,166 @@
         <v>1667</v>
       </c>
       <c r="T306" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>3</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D307" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E307" t="n">
+        <v>5</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M307" t="n">
+        <v>108</v>
+      </c>
+      <c r="N307" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O307" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P307" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S307" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T307" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>3</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D308" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E308" t="n">
+        <v>5</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M308" t="n">
+        <v>108</v>
+      </c>
+      <c r="N308" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O308" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P308" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S308" t="n">
+        <v>1667</v>
+      </c>
+      <c r="T308" t="n">
         <v>12</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T310"/>
+  <dimension ref="A1:T312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="N206" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O206" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P206" t="n">
-        <v>19000</v>
+        <v>20500</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1583</v>
+        <v>1708</v>
       </c>
       <c r="T206" t="n">
         <v>12</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -16927,13 +16927,13 @@
         <v>108</v>
       </c>
       <c r="N207" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O207" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P207" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1357</v>
+        <v>1429</v>
       </c>
       <c r="T207" t="n">
         <v>14</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N210" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O210" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P210" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1833</v>
+        <v>1583</v>
       </c>
       <c r="T210" t="n">
         <v>12</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -17240,11 +17240,11 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N211" t="n">
         <v>19000</v>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
@@ -17266,10 +17266,10 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1583</v>
+        <v>1357</v>
       </c>
       <c r="T211" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212">
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -17320,24 +17320,24 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N212" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O212" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P212" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -17346,10 +17346,10 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1357</v>
+        <v>1833</v>
       </c>
       <c r="T212" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213">
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N213" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O213" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P213" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1833</v>
+        <v>1583</v>
       </c>
       <c r="T213" t="n">
         <v>12</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -17480,24 +17480,24 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N214" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O214" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P214" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
@@ -17506,10 +17506,10 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1417</v>
+        <v>1357</v>
       </c>
       <c r="T214" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -17560,24 +17560,24 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N215" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O215" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P215" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -17586,10 +17586,10 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1214</v>
+        <v>1833</v>
       </c>
       <c r="T215" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216">
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -17807,13 +17807,13 @@
         <v>162</v>
       </c>
       <c r="N218" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O218" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P218" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T218" t="n">
         <v>12</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -17887,13 +17887,13 @@
         <v>108</v>
       </c>
       <c r="N219" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O219" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P219" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T219" t="n">
         <v>14</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -17964,7 +17964,7 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N220" t="n">
         <v>16000</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -18044,7 +18044,7 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N221" t="n">
         <v>16000</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N222" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O222" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P222" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T222" t="n">
         <v>12</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N223" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O223" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P223" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T223" t="n">
         <v>14</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -18287,13 +18287,13 @@
         <v>162</v>
       </c>
       <c r="N224" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O224" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P224" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T224" t="n">
         <v>12</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N225" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O225" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P225" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1429</v>
+        <v>1214</v>
       </c>
       <c r="T225" t="n">
         <v>14</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N226" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O226" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P226" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T226" t="n">
         <v>12</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -18527,13 +18527,13 @@
         <v>108</v>
       </c>
       <c r="N227" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O227" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P227" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T227" t="n">
         <v>14</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -18607,13 +18607,13 @@
         <v>108</v>
       </c>
       <c r="N228" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O228" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P228" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T228" t="n">
         <v>12</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -18680,7 +18680,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M229" t="n">
@@ -18697,7 +18697,7 @@
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
@@ -18706,10 +18706,10 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T229" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44187</v>
+        <v>44260</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -18767,13 +18767,13 @@
         <v>108</v>
       </c>
       <c r="N230" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O230" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P230" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1500</v>
+        <v>1417</v>
       </c>
       <c r="T230" t="n">
         <v>12</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -18847,13 +18847,13 @@
         <v>108</v>
       </c>
       <c r="N231" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O231" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P231" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T231" t="n">
         <v>12</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -18920,24 +18920,24 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M232" t="n">
         <v>108</v>
       </c>
       <c r="N232" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O232" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P232" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
@@ -18946,10 +18946,10 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T232" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233">
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -19084,7 +19084,7 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N234" t="n">
         <v>17000</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -19167,13 +19167,13 @@
         <v>108</v>
       </c>
       <c r="N235" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O235" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P235" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T235" t="n">
         <v>12</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -19240,11 +19240,11 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N236" t="n">
         <v>17000</v>
@@ -19257,7 +19257,7 @@
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
@@ -19266,10 +19266,10 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T236" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237">
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44196</v>
+        <v>44308</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -19400,24 +19400,24 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N238" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O238" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P238" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
@@ -19426,10 +19426,10 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T238" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M239" t="n">
@@ -19497,7 +19497,7 @@
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
@@ -19506,10 +19506,10 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T239" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -19560,24 +19560,24 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M240" t="n">
         <v>162</v>
       </c>
       <c r="N240" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O240" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P240" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19586,10 +19586,10 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T240" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -19640,24 +19640,24 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M241" t="n">
         <v>108</v>
       </c>
       <c r="N241" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O241" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P241" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
@@ -19666,10 +19666,10 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T241" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242">
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N242" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O242" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P242" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T242" t="n">
         <v>12</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19807,13 +19807,13 @@
         <v>108</v>
       </c>
       <c r="N243" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O243" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P243" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T243" t="n">
         <v>14</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19887,13 +19887,13 @@
         <v>108</v>
       </c>
       <c r="N244" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O244" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P244" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T244" t="n">
         <v>12</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -19960,11 +19960,11 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N245" t="n">
         <v>16000</v>
@@ -19977,7 +19977,7 @@
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
@@ -19986,10 +19986,10 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T245" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246">
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20040,24 +20040,24 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M246" t="n">
         <v>108</v>
       </c>
       <c r="N246" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O246" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P246" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T246" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -20120,24 +20120,24 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M247" t="n">
         <v>162</v>
       </c>
       <c r="N247" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O247" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P247" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T247" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N248" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O248" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P248" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>2200</v>
+        <v>1143</v>
       </c>
       <c r="T248" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20280,11 +20280,11 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N249" t="n">
         <v>22000</v>
@@ -20297,7 +20297,7 @@
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1833</v>
+        <v>1571</v>
       </c>
       <c r="T249" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250">
@@ -20360,11 +20360,11 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N250" t="n">
         <v>22000</v>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1571</v>
+        <v>2200</v>
       </c>
       <c r="T250" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -20447,13 +20447,13 @@
         <v>108</v>
       </c>
       <c r="N251" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O251" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P251" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1500</v>
+        <v>1833</v>
       </c>
       <c r="T251" t="n">
         <v>12</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N252" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O252" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P252" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1286</v>
+        <v>1571</v>
       </c>
       <c r="T252" t="n">
         <v>14</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N253" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O253" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P253" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1583</v>
+        <v>1500</v>
       </c>
       <c r="T253" t="n">
         <v>12</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -20680,24 +20680,24 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N254" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O254" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P254" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,10 +20706,10 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1333</v>
+        <v>1286</v>
       </c>
       <c r="T254" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -20767,13 +20767,13 @@
         <v>162</v>
       </c>
       <c r="N255" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O255" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P255" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T255" t="n">
         <v>12</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -20840,24 +20840,24 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N256" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O256" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P256" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R256" t="inlineStr">
@@ -20866,10 +20866,10 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1286</v>
+        <v>1333</v>
       </c>
       <c r="T256" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257">
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -20927,13 +20927,13 @@
         <v>162</v>
       </c>
       <c r="N257" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O257" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P257" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T257" t="n">
         <v>12</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N258" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O258" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P258" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1214</v>
+        <v>1286</v>
       </c>
       <c r="T258" t="n">
         <v>14</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -21084,7 +21084,7 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N259" t="n">
         <v>17000</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -21160,24 +21160,24 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N260" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O260" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P260" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -21186,10 +21186,10 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T260" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261">
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -21244,20 +21244,20 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N261" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O261" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P261" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
@@ -21266,10 +21266,10 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T261" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262">
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -21327,13 +21327,13 @@
         <v>108</v>
       </c>
       <c r="N262" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O262" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P262" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T262" t="n">
         <v>12</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
         <v>162</v>
       </c>
       <c r="N263" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O263" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P263" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T263" t="n">
         <v>14</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -21560,24 +21560,24 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N265" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O265" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P265" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -21586,10 +21586,10 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T265" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266">
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -21640,24 +21640,24 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N266" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O266" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P266" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -21666,10 +21666,10 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T266" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267">
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -21727,13 +21727,13 @@
         <v>108</v>
       </c>
       <c r="N267" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O267" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P267" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T267" t="n">
         <v>12</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N268" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O268" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P268" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1571</v>
+        <v>1143</v>
       </c>
       <c r="T268" t="n">
         <v>14</v>
@@ -21880,24 +21880,24 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="N269" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O269" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P269" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -21906,10 +21906,10 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1714</v>
+        <v>1833</v>
       </c>
       <c r="T269" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -21960,24 +21960,24 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M270" t="n">
         <v>108</v>
       </c>
       <c r="N270" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O270" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P270" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -21986,10 +21986,10 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1500</v>
+        <v>1571</v>
       </c>
       <c r="T270" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271">
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -22040,24 +22040,24 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="N271" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O271" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P271" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,10 +22066,10 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1333</v>
+        <v>1714</v>
       </c>
       <c r="T271" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -22120,24 +22120,24 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M272" t="n">
         <v>108</v>
       </c>
       <c r="N272" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O272" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P272" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,10 +22146,10 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T272" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22284,7 +22284,7 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N274" t="n">
         <v>16000</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22364,7 +22364,7 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N275" t="n">
         <v>16000</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22440,24 +22440,24 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M276" t="n">
         <v>162</v>
       </c>
       <c r="N276" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O276" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P276" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -22466,10 +22466,10 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T276" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277">
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -22520,24 +22520,24 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
         <v>108</v>
       </c>
       <c r="N277" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O277" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P277" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T277" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278">
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N278" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O278" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P278" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T278" t="n">
         <v>12</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22687,13 +22687,13 @@
         <v>108</v>
       </c>
       <c r="N279" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O279" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P279" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1143</v>
+        <v>1571</v>
       </c>
       <c r="T279" t="n">
         <v>14</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -22767,13 +22767,13 @@
         <v>108</v>
       </c>
       <c r="N280" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O280" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P280" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T280" t="n">
         <v>12</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -22847,13 +22847,13 @@
         <v>108</v>
       </c>
       <c r="N281" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O281" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P281" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T281" t="n">
         <v>14</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -22927,13 +22927,13 @@
         <v>108</v>
       </c>
       <c r="N282" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O282" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P282" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T282" t="n">
         <v>12</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -23000,24 +23000,24 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N283" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O283" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P283" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1250</v>
+        <v>1286</v>
       </c>
       <c r="T283" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284">
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23080,24 +23080,24 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
         <v>108</v>
       </c>
       <c r="N284" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O284" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P284" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,10 +23106,10 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1071</v>
+        <v>1333</v>
       </c>
       <c r="T284" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23160,24 +23160,24 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N285" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O285" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P285" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -23186,10 +23186,10 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>2100</v>
+        <v>1250</v>
       </c>
       <c r="T285" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -23240,24 +23240,24 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N286" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O286" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P286" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
@@ -23266,10 +23266,10 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1750</v>
+        <v>1071</v>
       </c>
       <c r="T286" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287">
@@ -23320,11 +23320,11 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N287" t="n">
         <v>21000</v>
@@ -23337,7 +23337,7 @@
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
@@ -23346,10 +23346,10 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="T287" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N288" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O288" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P288" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1333</v>
+        <v>1750</v>
       </c>
       <c r="T288" t="n">
         <v>12</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -23487,13 +23487,13 @@
         <v>108</v>
       </c>
       <c r="N289" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O289" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P289" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T289" t="n">
         <v>14</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N290" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O290" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P290" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T290" t="n">
         <v>12</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -23647,13 +23647,13 @@
         <v>108</v>
       </c>
       <c r="N291" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O291" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P291" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T291" t="n">
         <v>14</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N292" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O292" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P292" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T292" t="n">
         <v>12</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -23800,24 +23800,24 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M293" t="n">
         <v>108</v>
       </c>
       <c r="N293" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O293" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P293" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
@@ -23826,10 +23826,10 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1667</v>
+        <v>1214</v>
       </c>
       <c r="T293" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -23880,24 +23880,24 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N294" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O294" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P294" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -23906,10 +23906,10 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1429</v>
+        <v>1833</v>
       </c>
       <c r="T294" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24044,7 +24044,7 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N296" t="n">
         <v>20000</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24127,13 +24127,13 @@
         <v>108</v>
       </c>
       <c r="N297" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O297" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P297" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T297" t="n">
         <v>12</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24207,13 +24207,13 @@
         <v>108</v>
       </c>
       <c r="N298" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O298" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P298" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T298" t="n">
         <v>14</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N299" t="n">
         <v>17000</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24367,13 +24367,13 @@
         <v>108</v>
       </c>
       <c r="N300" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O300" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P300" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T300" t="n">
         <v>14</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -24447,13 +24447,13 @@
         <v>162</v>
       </c>
       <c r="N301" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O301" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P301" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T301" t="n">
         <v>12</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -24527,13 +24527,13 @@
         <v>108</v>
       </c>
       <c r="N302" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O302" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P302" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T302" t="n">
         <v>14</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -24600,24 +24600,24 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N303" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O303" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P303" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24626,10 +24626,10 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T303" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304">
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -24680,24 +24680,24 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M304" t="n">
         <v>108</v>
       </c>
       <c r="N304" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O304" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P304" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T304" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -24760,24 +24760,24 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N305" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O305" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P305" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
@@ -24786,10 +24786,10 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T305" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306">
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -24857,7 +24857,7 @@
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,10 +24866,10 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T306" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -25007,17 +25007,17 @@
         <v>108</v>
       </c>
       <c r="N308" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O308" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P308" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,10 +25026,10 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T308" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309">
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -25084,7 +25084,7 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N309" t="n">
         <v>16000</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -25167,28 +25167,188 @@
         <v>108</v>
       </c>
       <c r="N310" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O310" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P310" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S310" t="n">
+        <v>1333</v>
+      </c>
+      <c r="T310" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>3</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D311" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E311" t="n">
+        <v>5</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M311" t="n">
+        <v>162</v>
+      </c>
+      <c r="N311" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O311" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P311" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S311" t="n">
+        <v>1143</v>
+      </c>
+      <c r="T311" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>3</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D312" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E312" t="n">
+        <v>5</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G312" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M312" t="n">
+        <v>108</v>
+      </c>
+      <c r="N312" t="n">
         <v>19000</v>
       </c>
-      <c r="O310" t="n">
+      <c r="O312" t="n">
         <v>19000</v>
       </c>
-      <c r="P310" t="n">
+      <c r="P312" t="n">
         <v>19000</v>
       </c>
-      <c r="Q310" t="inlineStr">
+      <c r="Q312" t="inlineStr">
         <is>
           <t>$/caja 12 unidades</t>
         </is>
       </c>
-      <c r="R310" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S310" t="n">
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S312" t="n">
         <v>1583</v>
       </c>
-      <c r="T310" t="n">
+      <c r="T312" t="n">
         <v>12</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T312"/>
+  <dimension ref="A1:T314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N210" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O210" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P210" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1583</v>
+        <v>1667</v>
       </c>
       <c r="T210" t="n">
         <v>12</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -17247,13 +17247,13 @@
         <v>108</v>
       </c>
       <c r="N211" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O211" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P211" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1357</v>
+        <v>1429</v>
       </c>
       <c r="T211" t="n">
         <v>14</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -17324,16 +17324,16 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N212" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O212" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P212" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1833</v>
+        <v>1583</v>
       </c>
       <c r="T212" t="n">
         <v>12</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -17400,11 +17400,11 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N213" t="n">
         <v>19000</v>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -17426,10 +17426,10 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1583</v>
+        <v>1357</v>
       </c>
       <c r="T213" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214">
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -17480,24 +17480,24 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N214" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O214" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P214" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
@@ -17506,10 +17506,10 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1357</v>
+        <v>1833</v>
       </c>
       <c r="T214" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N215" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O215" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P215" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1833</v>
+        <v>1583</v>
       </c>
       <c r="T215" t="n">
         <v>12</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -17640,24 +17640,24 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N216" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O216" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P216" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1417</v>
+        <v>1357</v>
       </c>
       <c r="T216" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -17720,24 +17720,24 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N217" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O217" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P217" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -17746,10 +17746,10 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1214</v>
+        <v>1833</v>
       </c>
       <c r="T217" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218">
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -17967,13 +17967,13 @@
         <v>162</v>
       </c>
       <c r="N220" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O220" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P220" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T220" t="n">
         <v>12</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -18047,13 +18047,13 @@
         <v>108</v>
       </c>
       <c r="N221" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O221" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P221" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T221" t="n">
         <v>14</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -18124,7 +18124,7 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N222" t="n">
         <v>16000</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -18204,7 +18204,7 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N223" t="n">
         <v>16000</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N224" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O224" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P224" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T224" t="n">
         <v>12</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N225" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O225" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P225" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T225" t="n">
         <v>14</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -18447,13 +18447,13 @@
         <v>162</v>
       </c>
       <c r="N226" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O226" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P226" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T226" t="n">
         <v>12</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N227" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O227" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P227" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1429</v>
+        <v>1214</v>
       </c>
       <c r="T227" t="n">
         <v>14</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N228" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O228" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P228" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T228" t="n">
         <v>12</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -18687,13 +18687,13 @@
         <v>108</v>
       </c>
       <c r="N229" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O229" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P229" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T229" t="n">
         <v>14</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -18767,13 +18767,13 @@
         <v>108</v>
       </c>
       <c r="N230" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O230" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P230" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T230" t="n">
         <v>12</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -18840,7 +18840,7 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M231" t="n">
@@ -18857,7 +18857,7 @@
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
@@ -18866,10 +18866,10 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T231" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232">
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44187</v>
+        <v>44260</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -18927,13 +18927,13 @@
         <v>108</v>
       </c>
       <c r="N232" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O232" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P232" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1500</v>
+        <v>1417</v>
       </c>
       <c r="T232" t="n">
         <v>12</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -19007,13 +19007,13 @@
         <v>108</v>
       </c>
       <c r="N233" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O233" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P233" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T233" t="n">
         <v>12</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -19080,24 +19080,24 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M234" t="n">
         <v>108</v>
       </c>
       <c r="N234" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O234" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P234" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
@@ -19106,10 +19106,10 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T234" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -19244,7 +19244,7 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N236" t="n">
         <v>17000</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -19327,13 +19327,13 @@
         <v>108</v>
       </c>
       <c r="N237" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O237" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P237" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T237" t="n">
         <v>12</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -19400,11 +19400,11 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N238" t="n">
         <v>17000</v>
@@ -19417,7 +19417,7 @@
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
@@ -19426,10 +19426,10 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T238" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239">
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44196</v>
+        <v>44308</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -19560,24 +19560,24 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N240" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O240" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P240" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19586,10 +19586,10 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T240" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241">
@@ -19640,7 +19640,7 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M241" t="n">
@@ -19657,7 +19657,7 @@
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
@@ -19666,10 +19666,10 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T241" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242">
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -19720,24 +19720,24 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M242" t="n">
         <v>162</v>
       </c>
       <c r="N242" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O242" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P242" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T242" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19800,24 +19800,24 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M243" t="n">
         <v>108</v>
       </c>
       <c r="N243" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O243" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P243" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
@@ -19826,10 +19826,10 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T243" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244">
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N244" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O244" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P244" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T244" t="n">
         <v>12</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -19967,13 +19967,13 @@
         <v>108</v>
       </c>
       <c r="N245" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O245" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P245" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T245" t="n">
         <v>14</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20047,13 +20047,13 @@
         <v>108</v>
       </c>
       <c r="N246" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O246" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P246" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T246" t="n">
         <v>12</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -20120,11 +20120,11 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N247" t="n">
         <v>16000</v>
@@ -20137,7 +20137,7 @@
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T247" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M248" t="n">
         <v>108</v>
       </c>
       <c r="N248" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O248" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P248" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T248" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20280,24 +20280,24 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
         <v>162</v>
       </c>
       <c r="N249" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O249" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P249" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T249" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -20360,24 +20360,24 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N250" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O250" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P250" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>2200</v>
+        <v>1143</v>
       </c>
       <c r="T250" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -20440,11 +20440,11 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N251" t="n">
         <v>22000</v>
@@ -20457,7 +20457,7 @@
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -20466,10 +20466,10 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1833</v>
+        <v>1571</v>
       </c>
       <c r="T251" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252">
@@ -20520,11 +20520,11 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N252" t="n">
         <v>22000</v>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -20546,10 +20546,10 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1571</v>
+        <v>2200</v>
       </c>
       <c r="T252" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253">
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -20607,13 +20607,13 @@
         <v>108</v>
       </c>
       <c r="N253" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O253" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P253" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1500</v>
+        <v>1833</v>
       </c>
       <c r="T253" t="n">
         <v>12</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N254" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O254" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P254" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1286</v>
+        <v>1571</v>
       </c>
       <c r="T254" t="n">
         <v>14</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N255" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O255" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P255" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1583</v>
+        <v>1500</v>
       </c>
       <c r="T255" t="n">
         <v>12</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -20840,24 +20840,24 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N256" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O256" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P256" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R256" t="inlineStr">
@@ -20866,10 +20866,10 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1333</v>
+        <v>1286</v>
       </c>
       <c r="T256" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257">
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -20927,13 +20927,13 @@
         <v>162</v>
       </c>
       <c r="N257" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O257" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P257" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T257" t="n">
         <v>12</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -21000,24 +21000,24 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N258" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O258" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P258" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
@@ -21026,10 +21026,10 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1286</v>
+        <v>1333</v>
       </c>
       <c r="T258" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259">
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -21087,13 +21087,13 @@
         <v>162</v>
       </c>
       <c r="N259" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O259" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P259" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T259" t="n">
         <v>12</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N260" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O260" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P260" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1214</v>
+        <v>1286</v>
       </c>
       <c r="T260" t="n">
         <v>14</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -21244,7 +21244,7 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N261" t="n">
         <v>17000</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -21320,24 +21320,24 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N262" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O262" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P262" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -21346,10 +21346,10 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T262" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263">
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -21404,20 +21404,20 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N263" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O263" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P263" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R263" t="inlineStr">
@@ -21426,10 +21426,10 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T263" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264">
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -21487,13 +21487,13 @@
         <v>108</v>
       </c>
       <c r="N264" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O264" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P264" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T264" t="n">
         <v>12</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
         <v>162</v>
       </c>
       <c r="N265" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O265" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P265" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T265" t="n">
         <v>14</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -21720,24 +21720,24 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N267" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O267" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P267" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,10 +21746,10 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T267" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="268">
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -21800,24 +21800,24 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N268" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O268" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P268" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -21826,10 +21826,10 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T268" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -21887,13 +21887,13 @@
         <v>108</v>
       </c>
       <c r="N269" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O269" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P269" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T269" t="n">
         <v>12</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N270" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O270" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P270" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1571</v>
+        <v>1143</v>
       </c>
       <c r="T270" t="n">
         <v>14</v>
@@ -22040,24 +22040,24 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="N271" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O271" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P271" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,10 +22066,10 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1714</v>
+        <v>1833</v>
       </c>
       <c r="T271" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -22120,24 +22120,24 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M272" t="n">
         <v>108</v>
       </c>
       <c r="N272" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O272" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P272" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,10 +22146,10 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1500</v>
+        <v>1571</v>
       </c>
       <c r="T272" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -22200,24 +22200,24 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="N273" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O273" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P273" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -22226,10 +22226,10 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1333</v>
+        <v>1714</v>
       </c>
       <c r="T273" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22280,24 +22280,24 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M274" t="n">
         <v>108</v>
       </c>
       <c r="N274" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O274" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P274" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T274" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="275">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22444,7 +22444,7 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N276" t="n">
         <v>16000</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -22524,7 +22524,7 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N277" t="n">
         <v>16000</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -22600,24 +22600,24 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M278" t="n">
         <v>162</v>
       </c>
       <c r="N278" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O278" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P278" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T278" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22680,24 +22680,24 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M279" t="n">
         <v>108</v>
       </c>
       <c r="N279" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O279" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P279" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22706,10 +22706,10 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T279" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N280" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O280" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P280" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T280" t="n">
         <v>12</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -22847,13 +22847,13 @@
         <v>108</v>
       </c>
       <c r="N281" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O281" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P281" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1143</v>
+        <v>1571</v>
       </c>
       <c r="T281" t="n">
         <v>14</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -22927,13 +22927,13 @@
         <v>108</v>
       </c>
       <c r="N282" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O282" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P282" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T282" t="n">
         <v>12</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -23007,13 +23007,13 @@
         <v>108</v>
       </c>
       <c r="N283" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O283" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P283" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T283" t="n">
         <v>14</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23087,13 +23087,13 @@
         <v>108</v>
       </c>
       <c r="N284" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O284" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P284" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T284" t="n">
         <v>12</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23160,24 +23160,24 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N285" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O285" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P285" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -23186,10 +23186,10 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1250</v>
+        <v>1286</v>
       </c>
       <c r="T285" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -23240,24 +23240,24 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M286" t="n">
         <v>108</v>
       </c>
       <c r="N286" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O286" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P286" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
@@ -23266,10 +23266,10 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1071</v>
+        <v>1333</v>
       </c>
       <c r="T286" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="287">
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -23320,24 +23320,24 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N287" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O287" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P287" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
@@ -23346,10 +23346,10 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>2100</v>
+        <v>1250</v>
       </c>
       <c r="T287" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23400,24 +23400,24 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N288" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O288" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P288" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -23426,10 +23426,10 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1750</v>
+        <v>1071</v>
       </c>
       <c r="T288" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289">
@@ -23480,11 +23480,11 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N289" t="n">
         <v>21000</v>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -23506,10 +23506,10 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="T289" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N290" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O290" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P290" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1333</v>
+        <v>1750</v>
       </c>
       <c r="T290" t="n">
         <v>12</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -23647,13 +23647,13 @@
         <v>108</v>
       </c>
       <c r="N291" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O291" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P291" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T291" t="n">
         <v>14</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N292" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O292" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P292" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T292" t="n">
         <v>12</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -23807,13 +23807,13 @@
         <v>108</v>
       </c>
       <c r="N293" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O293" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P293" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T293" t="n">
         <v>14</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N294" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O294" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P294" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T294" t="n">
         <v>12</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23960,24 +23960,24 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M295" t="n">
         <v>108</v>
       </c>
       <c r="N295" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O295" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P295" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
@@ -23986,10 +23986,10 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1667</v>
+        <v>1214</v>
       </c>
       <c r="T295" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24040,24 +24040,24 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N296" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O296" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P296" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -24066,10 +24066,10 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1429</v>
+        <v>1833</v>
       </c>
       <c r="T296" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297">
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24204,7 +24204,7 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N298" t="n">
         <v>20000</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -24287,13 +24287,13 @@
         <v>108</v>
       </c>
       <c r="N299" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O299" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P299" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T299" t="n">
         <v>12</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24367,13 +24367,13 @@
         <v>108</v>
       </c>
       <c r="N300" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O300" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P300" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T300" t="n">
         <v>14</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -24444,7 +24444,7 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N301" t="n">
         <v>17000</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -24527,13 +24527,13 @@
         <v>108</v>
       </c>
       <c r="N302" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O302" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P302" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T302" t="n">
         <v>14</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -24607,13 +24607,13 @@
         <v>162</v>
       </c>
       <c r="N303" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O303" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P303" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T303" t="n">
         <v>12</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -24687,13 +24687,13 @@
         <v>108</v>
       </c>
       <c r="N304" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O304" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P304" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T304" t="n">
         <v>14</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -24760,24 +24760,24 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N305" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O305" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P305" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
@@ -24786,10 +24786,10 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T305" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="306">
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -24840,24 +24840,24 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M306" t="n">
         <v>108</v>
       </c>
       <c r="N306" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O306" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P306" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,10 +24866,10 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T306" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="307">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -24920,24 +24920,24 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N307" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O307" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P307" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
@@ -24946,10 +24946,10 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T307" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -25017,7 +25017,7 @@
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,10 +25026,10 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T308" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309">
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -25167,17 +25167,17 @@
         <v>108</v>
       </c>
       <c r="N310" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O310" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P310" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
@@ -25186,10 +25186,10 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T310" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="311">
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -25244,7 +25244,7 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N311" t="n">
         <v>16000</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -25327,28 +25327,188 @@
         <v>108</v>
       </c>
       <c r="N312" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O312" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P312" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S312" t="n">
+        <v>1333</v>
+      </c>
+      <c r="T312" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>3</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D313" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E313" t="n">
+        <v>5</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G313" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M313" t="n">
+        <v>162</v>
+      </c>
+      <c r="N313" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O313" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P313" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S313" t="n">
+        <v>1143</v>
+      </c>
+      <c r="T313" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>3</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D314" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E314" t="n">
+        <v>5</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G314" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M314" t="n">
+        <v>108</v>
+      </c>
+      <c r="N314" t="n">
         <v>19000</v>
       </c>
-      <c r="O312" t="n">
+      <c r="O314" t="n">
         <v>19000</v>
       </c>
-      <c r="P312" t="n">
+      <c r="P314" t="n">
         <v>19000</v>
       </c>
-      <c r="Q312" t="inlineStr">
+      <c r="Q314" t="inlineStr">
         <is>
           <t>$/caja 12 unidades</t>
         </is>
       </c>
-      <c r="R312" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S312" t="n">
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S314" t="n">
         <v>1583</v>
       </c>
-      <c r="T312" t="n">
+      <c r="T314" t="n">
         <v>12</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T314"/>
+  <dimension ref="A1:T316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -23727,13 +23727,13 @@
         <v>108</v>
       </c>
       <c r="N292" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O292" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P292" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T292" t="n">
         <v>12</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N293" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O293" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P293" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T293" t="n">
         <v>14</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N294" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O294" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P294" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T294" t="n">
         <v>12</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23967,13 +23967,13 @@
         <v>108</v>
       </c>
       <c r="N295" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O295" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P295" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T295" t="n">
         <v>14</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N296" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O296" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P296" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T296" t="n">
         <v>12</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24120,24 +24120,24 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
         <v>108</v>
       </c>
       <c r="N297" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O297" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P297" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
@@ -24146,10 +24146,10 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1667</v>
+        <v>1214</v>
       </c>
       <c r="T297" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298">
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24200,24 +24200,24 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N298" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O298" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P298" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1429</v>
+        <v>1833</v>
       </c>
       <c r="T298" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24364,7 +24364,7 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N300" t="n">
         <v>20000</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -24447,13 +24447,13 @@
         <v>108</v>
       </c>
       <c r="N301" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O301" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P301" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T301" t="n">
         <v>12</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -24527,13 +24527,13 @@
         <v>108</v>
       </c>
       <c r="N302" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O302" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P302" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T302" t="n">
         <v>14</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -24604,7 +24604,7 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N303" t="n">
         <v>17000</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -24687,13 +24687,13 @@
         <v>108</v>
       </c>
       <c r="N304" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O304" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P304" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T304" t="n">
         <v>14</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -24767,13 +24767,13 @@
         <v>162</v>
       </c>
       <c r="N305" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O305" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P305" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T305" t="n">
         <v>12</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -24847,13 +24847,13 @@
         <v>108</v>
       </c>
       <c r="N306" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O306" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P306" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T306" t="n">
         <v>14</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -24920,24 +24920,24 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N307" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O307" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P307" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
@@ -24946,10 +24946,10 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T307" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="308">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -25000,24 +25000,24 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M308" t="n">
         <v>108</v>
       </c>
       <c r="N308" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O308" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P308" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,10 +25026,10 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T308" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309">
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -25080,24 +25080,24 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N309" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O309" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P309" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,10 +25106,10 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T309" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310">
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -25177,7 +25177,7 @@
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
@@ -25186,10 +25186,10 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T310" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311">
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -25327,17 +25327,17 @@
         <v>108</v>
       </c>
       <c r="N312" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O312" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P312" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
@@ -25346,10 +25346,10 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T312" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313">
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -25404,7 +25404,7 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N313" t="n">
         <v>16000</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -25487,28 +25487,188 @@
         <v>108</v>
       </c>
       <c r="N314" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O314" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P314" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S314" t="n">
+        <v>1333</v>
+      </c>
+      <c r="T314" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>3</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D315" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E315" t="n">
+        <v>5</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G315" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M315" t="n">
+        <v>162</v>
+      </c>
+      <c r="N315" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O315" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P315" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S315" t="n">
+        <v>1143</v>
+      </c>
+      <c r="T315" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>3</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D316" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E316" t="n">
+        <v>5</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G316" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M316" t="n">
+        <v>108</v>
+      </c>
+      <c r="N316" t="n">
         <v>19000</v>
       </c>
-      <c r="O314" t="n">
+      <c r="O316" t="n">
         <v>19000</v>
       </c>
-      <c r="P314" t="n">
+      <c r="P316" t="n">
         <v>19000</v>
       </c>
-      <c r="Q314" t="inlineStr">
+      <c r="Q316" t="inlineStr">
         <is>
           <t>$/caja 12 unidades</t>
         </is>
       </c>
-      <c r="R314" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S314" t="n">
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S316" t="n">
         <v>1583</v>
       </c>
-      <c r="T314" t="n">
+      <c r="T316" t="n">
         <v>12</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T318"/>
+  <dimension ref="A1:T320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19807,13 +19807,13 @@
         <v>108</v>
       </c>
       <c r="N243" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O243" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P243" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T243" t="n">
         <v>12</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19880,24 +19880,24 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N244" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O244" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P244" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
@@ -19906,10 +19906,10 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1143</v>
+        <v>1125</v>
       </c>
       <c r="T244" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="245">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M245" t="n">
@@ -19977,7 +19977,7 @@
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
@@ -19986,10 +19986,10 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T245" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246">
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20040,24 +20040,24 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M246" t="n">
         <v>162</v>
       </c>
       <c r="N246" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O246" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P246" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T246" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -20120,24 +20120,24 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M247" t="n">
         <v>108</v>
       </c>
       <c r="N247" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O247" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P247" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T247" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N248" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O248" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P248" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T248" t="n">
         <v>12</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20287,13 +20287,13 @@
         <v>108</v>
       </c>
       <c r="N249" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O249" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P249" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T249" t="n">
         <v>14</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -20367,13 +20367,13 @@
         <v>108</v>
       </c>
       <c r="N250" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O250" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P250" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T250" t="n">
         <v>12</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -20440,11 +20440,11 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N251" t="n">
         <v>16000</v>
@@ -20457,7 +20457,7 @@
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -20466,10 +20466,10 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T251" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -20520,24 +20520,24 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
         <v>108</v>
       </c>
       <c r="N252" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O252" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P252" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -20546,10 +20546,10 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T252" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253">
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -20600,24 +20600,24 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M253" t="n">
         <v>162</v>
       </c>
       <c r="N253" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O253" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P253" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -20626,10 +20626,10 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T253" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254">
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -20680,24 +20680,24 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N254" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O254" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P254" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,10 +20706,10 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>2200</v>
+        <v>1143</v>
       </c>
       <c r="T254" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -20760,11 +20760,11 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N255" t="n">
         <v>22000</v>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R255" t="inlineStr">
@@ -20786,10 +20786,10 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1833</v>
+        <v>1571</v>
       </c>
       <c r="T255" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256">
@@ -20840,11 +20840,11 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N256" t="n">
         <v>22000</v>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R256" t="inlineStr">
@@ -20866,10 +20866,10 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1571</v>
+        <v>2200</v>
       </c>
       <c r="T256" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -20927,13 +20927,13 @@
         <v>108</v>
       </c>
       <c r="N257" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O257" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P257" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1500</v>
+        <v>1833</v>
       </c>
       <c r="T257" t="n">
         <v>12</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N258" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O258" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P258" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1286</v>
+        <v>1571</v>
       </c>
       <c r="T258" t="n">
         <v>14</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N259" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O259" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P259" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1583</v>
+        <v>1500</v>
       </c>
       <c r="T259" t="n">
         <v>12</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -21160,24 +21160,24 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N260" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O260" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P260" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -21186,10 +21186,10 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1333</v>
+        <v>1286</v>
       </c>
       <c r="T260" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261">
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -21247,13 +21247,13 @@
         <v>162</v>
       </c>
       <c r="N261" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O261" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P261" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T261" t="n">
         <v>12</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -21320,24 +21320,24 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N262" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O262" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P262" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -21346,10 +21346,10 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1286</v>
+        <v>1333</v>
       </c>
       <c r="T262" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263">
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -21407,13 +21407,13 @@
         <v>162</v>
       </c>
       <c r="N263" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O263" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P263" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T263" t="n">
         <v>12</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N264" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O264" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P264" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1214</v>
+        <v>1286</v>
       </c>
       <c r="T264" t="n">
         <v>14</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -21564,7 +21564,7 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N265" t="n">
         <v>17000</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -21640,24 +21640,24 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N266" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O266" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P266" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -21666,10 +21666,10 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T266" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267">
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -21724,20 +21724,20 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N267" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O267" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P267" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,10 +21746,10 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T267" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268">
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -21807,13 +21807,13 @@
         <v>108</v>
       </c>
       <c r="N268" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O268" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P268" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T268" t="n">
         <v>12</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M269" t="n">
         <v>162</v>
       </c>
       <c r="N269" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O269" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P269" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T269" t="n">
         <v>14</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -22040,24 +22040,24 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N271" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O271" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P271" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,10 +22066,10 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T271" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -22120,24 +22120,24 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N272" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O272" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P272" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,10 +22146,10 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T272" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -22207,13 +22207,13 @@
         <v>108</v>
       </c>
       <c r="N273" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O273" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P273" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T273" t="n">
         <v>12</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N274" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O274" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P274" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1571</v>
+        <v>1143</v>
       </c>
       <c r="T274" t="n">
         <v>14</v>
@@ -22360,24 +22360,24 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="N275" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O275" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P275" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1714</v>
+        <v>1833</v>
       </c>
       <c r="T275" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22440,24 +22440,24 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M276" t="n">
         <v>108</v>
       </c>
       <c r="N276" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O276" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P276" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -22466,10 +22466,10 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1500</v>
+        <v>1571</v>
       </c>
       <c r="T276" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277">
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -22520,24 +22520,24 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="N277" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O277" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P277" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1333</v>
+        <v>1714</v>
       </c>
       <c r="T277" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278">
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -22600,24 +22600,24 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
         <v>108</v>
       </c>
       <c r="N278" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O278" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P278" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T278" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -22764,7 +22764,7 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N280" t="n">
         <v>16000</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -22844,7 +22844,7 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N281" t="n">
         <v>16000</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -22920,24 +22920,24 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M282" t="n">
         <v>162</v>
       </c>
       <c r="N282" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O282" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P282" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T282" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -23000,24 +23000,24 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M283" t="n">
         <v>108</v>
       </c>
       <c r="N283" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O283" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P283" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T283" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284">
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N284" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O284" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P284" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T284" t="n">
         <v>12</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23167,13 +23167,13 @@
         <v>108</v>
       </c>
       <c r="N285" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O285" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P285" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1143</v>
+        <v>1571</v>
       </c>
       <c r="T285" t="n">
         <v>14</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -23247,13 +23247,13 @@
         <v>108</v>
       </c>
       <c r="N286" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O286" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P286" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T286" t="n">
         <v>12</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -23327,13 +23327,13 @@
         <v>108</v>
       </c>
       <c r="N287" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O287" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P287" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T287" t="n">
         <v>14</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23407,13 +23407,13 @@
         <v>108</v>
       </c>
       <c r="N288" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O288" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P288" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T288" t="n">
         <v>12</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -23480,24 +23480,24 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N289" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O289" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P289" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -23506,10 +23506,10 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1250</v>
+        <v>1286</v>
       </c>
       <c r="T289" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -23560,24 +23560,24 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
         <v>108</v>
       </c>
       <c r="N290" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O290" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P290" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1071</v>
+        <v>1333</v>
       </c>
       <c r="T290" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -23640,24 +23640,24 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N291" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O291" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P291" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
@@ -23666,10 +23666,10 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>2100</v>
+        <v>1250</v>
       </c>
       <c r="T291" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="292">
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -23720,24 +23720,24 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N292" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O292" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P292" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
@@ -23746,10 +23746,10 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1750</v>
+        <v>1071</v>
       </c>
       <c r="T292" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293">
@@ -23800,11 +23800,11 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N293" t="n">
         <v>21000</v>
@@ -23817,7 +23817,7 @@
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
@@ -23826,10 +23826,10 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="T293" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N294" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O294" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P294" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1667</v>
+        <v>1750</v>
       </c>
       <c r="T294" t="n">
         <v>12</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N295" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O295" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P295" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1429</v>
+        <v>1500</v>
       </c>
       <c r="T295" t="n">
         <v>14</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24047,13 +24047,13 @@
         <v>108</v>
       </c>
       <c r="N296" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O296" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P296" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T296" t="n">
         <v>12</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N297" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O297" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P297" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T297" t="n">
         <v>14</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N298" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O298" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P298" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T298" t="n">
         <v>12</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -24287,13 +24287,13 @@
         <v>108</v>
       </c>
       <c r="N299" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O299" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P299" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T299" t="n">
         <v>14</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N300" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O300" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P300" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T300" t="n">
         <v>12</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -24440,24 +24440,24 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M301" t="n">
         <v>108</v>
       </c>
       <c r="N301" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O301" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P301" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24466,10 +24466,10 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1667</v>
+        <v>1214</v>
       </c>
       <c r="T301" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302">
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -24520,24 +24520,24 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N302" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O302" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P302" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
@@ -24546,10 +24546,10 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1429</v>
+        <v>1833</v>
       </c>
       <c r="T302" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303">
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -24684,7 +24684,7 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N304" t="n">
         <v>20000</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -24767,13 +24767,13 @@
         <v>108</v>
       </c>
       <c r="N305" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O305" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P305" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T305" t="n">
         <v>12</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -24847,13 +24847,13 @@
         <v>108</v>
       </c>
       <c r="N306" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O306" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P306" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T306" t="n">
         <v>14</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -24924,7 +24924,7 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N307" t="n">
         <v>17000</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -25007,13 +25007,13 @@
         <v>108</v>
       </c>
       <c r="N308" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O308" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P308" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T308" t="n">
         <v>14</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -25087,13 +25087,13 @@
         <v>162</v>
       </c>
       <c r="N309" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O309" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P309" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T309" t="n">
         <v>12</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -25167,13 +25167,13 @@
         <v>108</v>
       </c>
       <c r="N310" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O310" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P310" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T310" t="n">
         <v>14</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -25240,24 +25240,24 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N311" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O311" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P311" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T311" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="312">
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -25320,24 +25320,24 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M312" t="n">
         <v>108</v>
       </c>
       <c r="N312" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O312" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P312" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
@@ -25346,10 +25346,10 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T312" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313">
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -25400,24 +25400,24 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N313" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O313" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P313" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,10 +25426,10 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T313" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314">
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -25497,7 +25497,7 @@
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25506,10 +25506,10 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T314" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315">
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -25647,17 +25647,17 @@
         <v>108</v>
       </c>
       <c r="N316" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O316" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P316" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T316" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="317">
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -25724,7 +25724,7 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N317" t="n">
         <v>16000</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -25807,28 +25807,188 @@
         <v>108</v>
       </c>
       <c r="N318" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O318" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P318" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S318" t="n">
+        <v>1333</v>
+      </c>
+      <c r="T318" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>3</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D319" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E319" t="n">
+        <v>5</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M319" t="n">
+        <v>162</v>
+      </c>
+      <c r="N319" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O319" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P319" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S319" t="n">
+        <v>1143</v>
+      </c>
+      <c r="T319" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>3</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D320" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E320" t="n">
+        <v>5</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M320" t="n">
+        <v>108</v>
+      </c>
+      <c r="N320" t="n">
         <v>19000</v>
       </c>
-      <c r="O318" t="n">
+      <c r="O320" t="n">
         <v>19000</v>
       </c>
-      <c r="P318" t="n">
+      <c r="P320" t="n">
         <v>19000</v>
       </c>
-      <c r="Q318" t="inlineStr">
+      <c r="Q320" t="inlineStr">
         <is>
           <t>$/caja 12 unidades</t>
         </is>
       </c>
-      <c r="R318" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S318" t="n">
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S320" t="n">
         <v>1583</v>
       </c>
-      <c r="T318" t="n">
+      <c r="T320" t="n">
         <v>12</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T320"/>
+  <dimension ref="A1:T322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -18287,13 +18287,13 @@
         <v>162</v>
       </c>
       <c r="N224" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O224" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P224" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T224" t="n">
         <v>12</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -18367,13 +18367,13 @@
         <v>108</v>
       </c>
       <c r="N225" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O225" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P225" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T225" t="n">
         <v>14</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -18444,7 +18444,7 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N226" t="n">
         <v>16000</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -18524,7 +18524,7 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N227" t="n">
         <v>16000</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N228" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O228" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P228" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T228" t="n">
         <v>12</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N229" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O229" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P229" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T229" t="n">
         <v>14</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -18767,13 +18767,13 @@
         <v>162</v>
       </c>
       <c r="N230" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O230" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P230" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T230" t="n">
         <v>12</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N231" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O231" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P231" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1429</v>
+        <v>1214</v>
       </c>
       <c r="T231" t="n">
         <v>14</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N232" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O232" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P232" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T232" t="n">
         <v>12</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -19007,13 +19007,13 @@
         <v>108</v>
       </c>
       <c r="N233" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O233" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P233" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T233" t="n">
         <v>14</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -19087,13 +19087,13 @@
         <v>108</v>
       </c>
       <c r="N234" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O234" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P234" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T234" t="n">
         <v>12</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -19160,7 +19160,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M235" t="n">
@@ -19177,7 +19177,7 @@
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
@@ -19186,10 +19186,10 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T235" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236">
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44187</v>
+        <v>44260</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -19247,13 +19247,13 @@
         <v>108</v>
       </c>
       <c r="N236" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O236" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P236" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1500</v>
+        <v>1417</v>
       </c>
       <c r="T236" t="n">
         <v>12</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -19327,13 +19327,13 @@
         <v>108</v>
       </c>
       <c r="N237" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O237" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P237" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T237" t="n">
         <v>12</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -19400,24 +19400,24 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M238" t="n">
         <v>108</v>
       </c>
       <c r="N238" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O238" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P238" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
@@ -19426,10 +19426,10 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T238" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239">
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -19564,7 +19564,7 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N240" t="n">
         <v>17000</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -19647,13 +19647,13 @@
         <v>108</v>
       </c>
       <c r="N241" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O241" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P241" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T241" t="n">
         <v>12</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -19720,11 +19720,11 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N242" t="n">
         <v>17000</v>
@@ -19737,7 +19737,7 @@
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T242" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19807,13 +19807,13 @@
         <v>108</v>
       </c>
       <c r="N243" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O243" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P243" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T243" t="n">
         <v>12</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19880,24 +19880,24 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M244" t="n">
         <v>108</v>
       </c>
       <c r="N244" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O244" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P244" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
@@ -19906,10 +19906,10 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1125</v>
+        <v>1417</v>
       </c>
       <c r="T244" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -19967,13 +19967,13 @@
         <v>108</v>
       </c>
       <c r="N245" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O245" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P245" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T245" t="n">
         <v>12</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20040,24 +20040,24 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N246" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O246" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P246" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1143</v>
+        <v>1125</v>
       </c>
       <c r="T246" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247">
@@ -20120,7 +20120,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M247" t="n">
@@ -20137,7 +20137,7 @@
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T247" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
         <v>162</v>
       </c>
       <c r="N248" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O248" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P248" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T248" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20280,24 +20280,24 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M249" t="n">
         <v>108</v>
       </c>
       <c r="N249" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O249" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P249" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T249" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N250" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O250" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P250" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T250" t="n">
         <v>12</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -20447,13 +20447,13 @@
         <v>108</v>
       </c>
       <c r="N251" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O251" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P251" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T251" t="n">
         <v>14</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -20527,13 +20527,13 @@
         <v>108</v>
       </c>
       <c r="N252" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O252" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P252" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T252" t="n">
         <v>12</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -20600,11 +20600,11 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N253" t="n">
         <v>16000</v>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -20626,10 +20626,10 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T253" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254">
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -20680,24 +20680,24 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M254" t="n">
         <v>108</v>
       </c>
       <c r="N254" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O254" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P254" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,10 +20706,10 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T254" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -20760,24 +20760,24 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M255" t="n">
         <v>162</v>
       </c>
       <c r="N255" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O255" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P255" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R255" t="inlineStr">
@@ -20786,10 +20786,10 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T255" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256">
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -20840,24 +20840,24 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N256" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O256" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P256" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R256" t="inlineStr">
@@ -20866,10 +20866,10 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>2200</v>
+        <v>1143</v>
       </c>
       <c r="T256" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257">
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -20920,11 +20920,11 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N257" t="n">
         <v>22000</v>
@@ -20937,7 +20937,7 @@
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R257" t="inlineStr">
@@ -20946,10 +20946,10 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1833</v>
+        <v>1571</v>
       </c>
       <c r="T257" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258">
@@ -21000,11 +21000,11 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N258" t="n">
         <v>22000</v>
@@ -21017,7 +21017,7 @@
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
@@ -21026,10 +21026,10 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1571</v>
+        <v>2200</v>
       </c>
       <c r="T258" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259">
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -21087,13 +21087,13 @@
         <v>108</v>
       </c>
       <c r="N259" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O259" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P259" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1500</v>
+        <v>1833</v>
       </c>
       <c r="T259" t="n">
         <v>12</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N260" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O260" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P260" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1286</v>
+        <v>1571</v>
       </c>
       <c r="T260" t="n">
         <v>14</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N261" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O261" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P261" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1583</v>
+        <v>1500</v>
       </c>
       <c r="T261" t="n">
         <v>12</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -21320,24 +21320,24 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N262" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O262" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P262" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -21346,10 +21346,10 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1333</v>
+        <v>1286</v>
       </c>
       <c r="T262" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263">
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -21407,13 +21407,13 @@
         <v>162</v>
       </c>
       <c r="N263" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O263" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P263" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T263" t="n">
         <v>12</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -21480,24 +21480,24 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N264" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O264" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P264" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,10 +21506,10 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1286</v>
+        <v>1333</v>
       </c>
       <c r="T264" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -21567,13 +21567,13 @@
         <v>162</v>
       </c>
       <c r="N265" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O265" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P265" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T265" t="n">
         <v>12</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N266" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O266" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P266" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1214</v>
+        <v>1286</v>
       </c>
       <c r="T266" t="n">
         <v>14</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -21724,7 +21724,7 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N267" t="n">
         <v>17000</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -21800,24 +21800,24 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N268" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O268" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P268" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -21826,10 +21826,10 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T268" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -21884,20 +21884,20 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N269" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O269" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P269" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -21906,10 +21906,10 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T269" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -21967,13 +21967,13 @@
         <v>108</v>
       </c>
       <c r="N270" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O270" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P270" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T270" t="n">
         <v>12</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -22040,20 +22040,20 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M271" t="n">
         <v>162</v>
       </c>
       <c r="N271" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O271" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P271" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T271" t="n">
         <v>14</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -22200,24 +22200,24 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N273" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O273" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P273" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -22226,10 +22226,10 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T273" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22280,24 +22280,24 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N274" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O274" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P274" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T274" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="275">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22367,13 +22367,13 @@
         <v>108</v>
       </c>
       <c r="N275" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O275" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P275" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T275" t="n">
         <v>12</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N276" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O276" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P276" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1571</v>
+        <v>1143</v>
       </c>
       <c r="T276" t="n">
         <v>14</v>
@@ -22520,24 +22520,24 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="N277" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O277" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P277" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1714</v>
+        <v>1833</v>
       </c>
       <c r="T277" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278">
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -22600,24 +22600,24 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M278" t="n">
         <v>108</v>
       </c>
       <c r="N278" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O278" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P278" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1500</v>
+        <v>1571</v>
       </c>
       <c r="T278" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22680,24 +22680,24 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="N279" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O279" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P279" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22706,10 +22706,10 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1333</v>
+        <v>1714</v>
       </c>
       <c r="T279" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -22760,24 +22760,24 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
         <v>108</v>
       </c>
       <c r="N280" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O280" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P280" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,10 +22786,10 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T280" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281">
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -22924,7 +22924,7 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N282" t="n">
         <v>16000</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -23004,7 +23004,7 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N283" t="n">
         <v>16000</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23080,24 +23080,24 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M284" t="n">
         <v>162</v>
       </c>
       <c r="N284" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O284" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P284" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,10 +23106,10 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T284" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23160,24 +23160,24 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
         <v>108</v>
       </c>
       <c r="N285" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O285" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P285" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -23186,10 +23186,10 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T285" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N286" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O286" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P286" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T286" t="n">
         <v>12</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -23327,13 +23327,13 @@
         <v>108</v>
       </c>
       <c r="N287" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O287" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P287" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1143</v>
+        <v>1571</v>
       </c>
       <c r="T287" t="n">
         <v>14</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23407,13 +23407,13 @@
         <v>108</v>
       </c>
       <c r="N288" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O288" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P288" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T288" t="n">
         <v>12</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -23487,13 +23487,13 @@
         <v>108</v>
       </c>
       <c r="N289" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O289" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P289" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T289" t="n">
         <v>14</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -23567,13 +23567,13 @@
         <v>108</v>
       </c>
       <c r="N290" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O290" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P290" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T290" t="n">
         <v>12</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -23640,24 +23640,24 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N291" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O291" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P291" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
@@ -23666,10 +23666,10 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1250</v>
+        <v>1286</v>
       </c>
       <c r="T291" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="292">
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -23720,24 +23720,24 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M292" t="n">
         <v>108</v>
       </c>
       <c r="N292" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O292" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P292" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
@@ -23746,10 +23746,10 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1071</v>
+        <v>1333</v>
       </c>
       <c r="T292" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293">
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -23800,24 +23800,24 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N293" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O293" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P293" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
@@ -23826,10 +23826,10 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>2100</v>
+        <v>1250</v>
       </c>
       <c r="T293" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -23880,24 +23880,24 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N294" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O294" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P294" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -23906,10 +23906,10 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1750</v>
+        <v>1071</v>
       </c>
       <c r="T294" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295">
@@ -23960,11 +23960,11 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N295" t="n">
         <v>21000</v>
@@ -23977,7 +23977,7 @@
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
@@ -23986,10 +23986,10 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="T295" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N296" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O296" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P296" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1667</v>
+        <v>1750</v>
       </c>
       <c r="T296" t="n">
         <v>12</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N297" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O297" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P297" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1429</v>
+        <v>1500</v>
       </c>
       <c r="T297" t="n">
         <v>14</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24207,13 +24207,13 @@
         <v>108</v>
       </c>
       <c r="N298" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O298" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P298" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T298" t="n">
         <v>12</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N299" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O299" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P299" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T299" t="n">
         <v>14</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N300" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O300" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P300" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T300" t="n">
         <v>12</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -24447,13 +24447,13 @@
         <v>108</v>
       </c>
       <c r="N301" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O301" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P301" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T301" t="n">
         <v>14</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N302" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O302" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P302" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T302" t="n">
         <v>12</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -24600,24 +24600,24 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M303" t="n">
         <v>108</v>
       </c>
       <c r="N303" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O303" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P303" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24626,10 +24626,10 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1667</v>
+        <v>1214</v>
       </c>
       <c r="T303" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304">
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -24680,24 +24680,24 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N304" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O304" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P304" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1429</v>
+        <v>1833</v>
       </c>
       <c r="T304" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -24844,7 +24844,7 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N306" t="n">
         <v>20000</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -24927,13 +24927,13 @@
         <v>108</v>
       </c>
       <c r="N307" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O307" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P307" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T307" t="n">
         <v>12</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -25007,13 +25007,13 @@
         <v>108</v>
       </c>
       <c r="N308" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O308" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P308" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T308" t="n">
         <v>14</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -25084,7 +25084,7 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N309" t="n">
         <v>17000</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -25167,13 +25167,13 @@
         <v>108</v>
       </c>
       <c r="N310" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O310" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P310" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T310" t="n">
         <v>14</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -25247,13 +25247,13 @@
         <v>162</v>
       </c>
       <c r="N311" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O311" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P311" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T311" t="n">
         <v>12</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -25327,13 +25327,13 @@
         <v>108</v>
       </c>
       <c r="N312" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O312" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P312" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T312" t="n">
         <v>14</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -25400,24 +25400,24 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N313" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O313" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P313" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,10 +25426,10 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T313" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="314">
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -25480,24 +25480,24 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M314" t="n">
         <v>108</v>
       </c>
       <c r="N314" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O314" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P314" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25506,10 +25506,10 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T314" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="315">
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
@@ -25560,24 +25560,24 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N315" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O315" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P315" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
@@ -25586,10 +25586,10 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T315" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316">
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -25657,7 +25657,7 @@
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T316" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="317">
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -25807,17 +25807,17 @@
         <v>108</v>
       </c>
       <c r="N318" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O318" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P318" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25826,10 +25826,10 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T318" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319">
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E319" t="n">
         <v>5</v>
@@ -25884,7 +25884,7 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N319" t="n">
         <v>16000</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E320" t="n">
         <v>5</v>
@@ -25967,28 +25967,188 @@
         <v>108</v>
       </c>
       <c r="N320" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O320" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P320" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S320" t="n">
+        <v>1333</v>
+      </c>
+      <c r="T320" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>3</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D321" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E321" t="n">
+        <v>5</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M321" t="n">
+        <v>162</v>
+      </c>
+      <c r="N321" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O321" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P321" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S321" t="n">
+        <v>1143</v>
+      </c>
+      <c r="T321" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>3</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D322" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E322" t="n">
+        <v>5</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G322" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M322" t="n">
+        <v>108</v>
+      </c>
+      <c r="N322" t="n">
         <v>19000</v>
       </c>
-      <c r="O320" t="n">
+      <c r="O322" t="n">
         <v>19000</v>
       </c>
-      <c r="P320" t="n">
+      <c r="P322" t="n">
         <v>19000</v>
       </c>
-      <c r="Q320" t="inlineStr">
+      <c r="Q322" t="inlineStr">
         <is>
           <t>$/caja 12 unidades</t>
         </is>
       </c>
-      <c r="R320" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S320" t="n">
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S322" t="n">
         <v>1583</v>
       </c>
-      <c r="T320" t="n">
+      <c r="T322" t="n">
         <v>12</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T322"/>
+  <dimension ref="A1:T324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -11244,7 +11244,7 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N136" t="n">
         <v>17000</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -11324,16 +11324,16 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N137" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O137" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P137" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1250</v>
+        <v>1417</v>
       </c>
       <c r="T137" t="n">
         <v>12</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -11407,13 +11407,13 @@
         <v>108</v>
       </c>
       <c r="N138" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O138" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P138" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1071</v>
+        <v>1214</v>
       </c>
       <c r="T138" t="n">
         <v>14</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="N139" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O139" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P139" t="n">
-        <v>21200</v>
+        <v>15000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1767</v>
+        <v>1250</v>
       </c>
       <c r="T139" t="n">
         <v>12</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="N140" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O140" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P140" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1500</v>
+        <v>1071</v>
       </c>
       <c r="T140" t="n">
         <v>14</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="N141" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O141" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P141" t="n">
-        <v>16000</v>
+        <v>21200</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1333</v>
+        <v>1767</v>
       </c>
       <c r="T141" t="n">
         <v>12</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44300</v>
+        <v>44434</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -11720,24 +11720,24 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="N142" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O142" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P142" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11746,10 +11746,10 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T142" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -11800,7 +11800,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M143" t="n">
@@ -11817,7 +11817,7 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11826,10 +11826,10 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T143" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144">
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -11887,13 +11887,13 @@
         <v>108</v>
       </c>
       <c r="N144" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O144" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P144" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="T144" t="n">
         <v>12</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N145" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O145" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P145" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T145" t="n">
         <v>14</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -12047,13 +12047,13 @@
         <v>108</v>
       </c>
       <c r="N146" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O146" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P146" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T146" t="n">
         <v>12</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N147" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O147" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P147" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1571</v>
+        <v>1429</v>
       </c>
       <c r="T147" t="n">
         <v>14</v>
@@ -12200,11 +12200,11 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N148" t="n">
         <v>22000</v>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,10 +12226,10 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1375</v>
+        <v>1833</v>
       </c>
       <c r="T148" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -12280,24 +12280,24 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N149" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O149" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P149" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,10 +12306,10 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1500</v>
+        <v>1571</v>
       </c>
       <c r="T149" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -12360,24 +12360,24 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N150" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O150" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P150" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -12386,10 +12386,10 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T150" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151">
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -12440,24 +12440,24 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N151" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O151" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P151" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,10 +12466,10 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T151" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44441</v>
+        <v>44218</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -12527,13 +12527,13 @@
         <v>162</v>
       </c>
       <c r="N152" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O152" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P152" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1917</v>
+        <v>1250</v>
       </c>
       <c r="T152" t="n">
         <v>12</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N153" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="O153" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P153" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>1643</v>
+        <v>1214</v>
       </c>
       <c r="T153" t="n">
         <v>14</v>
@@ -12680,24 +12680,24 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="N154" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="O154" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P154" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -12706,10 +12706,10 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1714</v>
+        <v>1917</v>
       </c>
       <c r="T154" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -12760,24 +12760,24 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M155" t="n">
         <v>108</v>
       </c>
       <c r="N155" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O155" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P155" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -12786,10 +12786,10 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>1667</v>
+        <v>1643</v>
       </c>
       <c r="T155" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156">
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -12844,20 +12844,20 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N156" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O156" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P156" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -12866,10 +12866,10 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1429</v>
+        <v>1714</v>
       </c>
       <c r="T156" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -12927,13 +12927,13 @@
         <v>108</v>
       </c>
       <c r="N157" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O157" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P157" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T157" t="n">
         <v>12</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -13004,16 +13004,16 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N158" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O158" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P158" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T158" t="n">
         <v>14</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -13084,16 +13084,16 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N159" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O159" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P159" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T159" t="n">
         <v>12</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N160" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O160" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P160" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1571</v>
+        <v>1214</v>
       </c>
       <c r="T160" t="n">
         <v>14</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -13247,13 +13247,13 @@
         <v>162</v>
       </c>
       <c r="N161" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O161" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P161" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T161" t="n">
         <v>12</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N162" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O162" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P162" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1429</v>
+        <v>1571</v>
       </c>
       <c r="T162" t="n">
         <v>14</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N163" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O163" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P163" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T163" t="n">
         <v>12</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N164" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O164" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P164" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T164" t="n">
         <v>14</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N165" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O165" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P165" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T165" t="n">
         <v>12</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N166" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O166" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P166" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T166" t="n">
         <v>14</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -13727,13 +13727,13 @@
         <v>162</v>
       </c>
       <c r="N167" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O167" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P167" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T167" t="n">
         <v>12</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N168" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O168" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P168" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T168" t="n">
         <v>14</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -13884,7 +13884,7 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N169" t="n">
         <v>17000</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -13964,7 +13964,7 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N170" t="n">
         <v>17000</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -14040,24 +14040,24 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N171" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O171" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P171" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,10 +14066,10 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T171" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -14120,24 +14120,24 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N172" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O172" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P172" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,10 +14146,10 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1583</v>
+        <v>1214</v>
       </c>
       <c r="T172" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N173" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O173" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P173" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T173" t="n">
         <v>14</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -14287,13 +14287,13 @@
         <v>108</v>
       </c>
       <c r="N174" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O174" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P174" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1667</v>
+        <v>1583</v>
       </c>
       <c r="T174" t="n">
         <v>12</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44392</v>
+        <v>44426</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -14360,24 +14360,24 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N175" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O175" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P175" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -14386,10 +14386,10 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1417</v>
+        <v>1357</v>
       </c>
       <c r="T175" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -14440,24 +14440,24 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
         <v>108</v>
       </c>
       <c r="N176" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O176" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P176" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,10 +14466,10 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1214</v>
+        <v>1667</v>
       </c>
       <c r="T176" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N177" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O177" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P177" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T177" t="n">
         <v>12</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -14607,13 +14607,13 @@
         <v>108</v>
       </c>
       <c r="N178" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O178" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P178" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1571</v>
+        <v>1214</v>
       </c>
       <c r="T178" t="n">
         <v>14</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -14684,7 +14684,7 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N179" t="n">
         <v>22000</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -14844,16 +14844,16 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N181" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O181" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P181" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T181" t="n">
         <v>12</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44200</v>
+        <v>44453</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -14920,24 +14920,24 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N182" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O182" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P182" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,10 +14946,10 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1333</v>
+        <v>1571</v>
       </c>
       <c r="T182" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -15000,7 +15000,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M183" t="n">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -15026,10 +15026,10 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T183" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184">
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -15084,7 +15084,7 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N184" t="n">
         <v>16000</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -15164,7 +15164,7 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N185" t="n">
         <v>16000</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N186" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O186" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P186" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="T186" t="n">
         <v>12</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -15324,16 +15324,16 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N187" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O187" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P187" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T187" t="n">
         <v>14</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -15407,13 +15407,13 @@
         <v>162</v>
       </c>
       <c r="N188" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O188" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P188" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T188" t="n">
         <v>12</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -15484,16 +15484,16 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N189" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O189" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P189" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T189" t="n">
         <v>14</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -15644,7 +15644,7 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N191" t="n">
         <v>16000</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -15720,24 +15720,24 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N192" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O192" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P192" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -15746,10 +15746,10 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1900</v>
+        <v>1333</v>
       </c>
       <c r="T192" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193">
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -15800,24 +15800,24 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M193" t="n">
         <v>108</v>
       </c>
       <c r="N193" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O193" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P193" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
@@ -15826,10 +15826,10 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1583</v>
+        <v>1143</v>
       </c>
       <c r="T193" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M194" t="n">
@@ -15897,7 +15897,7 @@
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -15906,10 +15906,10 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1357</v>
+        <v>1900</v>
       </c>
       <c r="T194" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195">
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N195" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O195" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P195" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T195" t="n">
         <v>12</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44237</v>
+        <v>44420</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -16040,24 +16040,24 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="N196" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O196" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P196" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -16066,10 +16066,10 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1500</v>
+        <v>1357</v>
       </c>
       <c r="T196" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197">
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44285</v>
+        <v>44370</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -16127,13 +16127,13 @@
         <v>162</v>
       </c>
       <c r="N197" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O197" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P197" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T197" t="n">
         <v>12</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -16200,24 +16200,24 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="N198" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O198" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P198" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -16226,10 +16226,10 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T198" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199">
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -16287,13 +16287,13 @@
         <v>162</v>
       </c>
       <c r="N199" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O199" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P199" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T199" t="n">
         <v>12</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44210</v>
+        <v>44285</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -16360,11 +16360,11 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N200" t="n">
         <v>16000</v>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -16386,10 +16386,10 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1600</v>
+        <v>1143</v>
       </c>
       <c r="T200" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201">
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -16447,13 +16447,13 @@
         <v>162</v>
       </c>
       <c r="N201" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O201" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P201" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T201" t="n">
         <v>12</v>
@@ -16520,7 +16520,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M202" t="n">
@@ -16537,7 +16537,7 @@
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
@@ -16546,10 +16546,10 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1143</v>
+        <v>1600</v>
       </c>
       <c r="T202" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203">
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -16680,24 +16680,24 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N204" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O204" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P204" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
@@ -16706,10 +16706,10 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1250</v>
+        <v>1143</v>
       </c>
       <c r="T204" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205">
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -16760,24 +16760,24 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N205" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O205" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P205" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
@@ -16786,10 +16786,10 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1071</v>
+        <v>1333</v>
       </c>
       <c r="T205" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206">
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N206" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O206" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P206" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1333</v>
+        <v>1250</v>
       </c>
       <c r="T206" t="n">
         <v>12</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -16927,13 +16927,13 @@
         <v>108</v>
       </c>
       <c r="N207" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O207" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P207" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1143</v>
+        <v>1071</v>
       </c>
       <c r="T207" t="n">
         <v>14</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="N208" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O208" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P208" t="n">
-        <v>20500</v>
+        <v>16000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1708</v>
+        <v>1333</v>
       </c>
       <c r="T208" t="n">
         <v>12</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -17087,13 +17087,13 @@
         <v>108</v>
       </c>
       <c r="N209" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O209" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P209" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T209" t="n">
         <v>14</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="N210" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O210" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P210" t="n">
-        <v>19000</v>
+        <v>20500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1583</v>
+        <v>1708</v>
       </c>
       <c r="T210" t="n">
         <v>12</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -17247,13 +17247,13 @@
         <v>108</v>
       </c>
       <c r="N211" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O211" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P211" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1357</v>
+        <v>1429</v>
       </c>
       <c r="T211" t="n">
         <v>14</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -17324,16 +17324,16 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N212" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O212" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P212" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1667</v>
+        <v>1583</v>
       </c>
       <c r="T212" t="n">
         <v>12</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -17407,13 +17407,13 @@
         <v>108</v>
       </c>
       <c r="N213" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O213" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P213" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1429</v>
+        <v>1357</v>
       </c>
       <c r="T213" t="n">
         <v>14</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N214" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O214" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P214" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1583</v>
+        <v>1667</v>
       </c>
       <c r="T214" t="n">
         <v>12</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -17567,13 +17567,13 @@
         <v>108</v>
       </c>
       <c r="N215" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O215" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P215" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1357</v>
+        <v>1429</v>
       </c>
       <c r="T215" t="n">
         <v>14</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N216" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O216" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P216" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1833</v>
+        <v>1583</v>
       </c>
       <c r="T216" t="n">
         <v>12</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -17720,11 +17720,11 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N217" t="n">
         <v>19000</v>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -17746,10 +17746,10 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1583</v>
+        <v>1357</v>
       </c>
       <c r="T217" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218">
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -17800,24 +17800,24 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N218" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O218" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P218" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
@@ -17826,10 +17826,10 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1357</v>
+        <v>1833</v>
       </c>
       <c r="T218" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219">
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N219" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O219" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P219" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1833</v>
+        <v>1583</v>
       </c>
       <c r="T219" t="n">
         <v>12</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44466</v>
+        <v>44427</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -17960,24 +17960,24 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N220" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O220" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P220" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
@@ -17986,10 +17986,10 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1417</v>
+        <v>1357</v>
       </c>
       <c r="T220" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221">
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -18040,24 +18040,24 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N221" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O221" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P221" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
@@ -18066,10 +18066,10 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1214</v>
+        <v>1833</v>
       </c>
       <c r="T221" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222">
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -18447,13 +18447,13 @@
         <v>162</v>
       </c>
       <c r="N226" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O226" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P226" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T226" t="n">
         <v>12</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -18527,13 +18527,13 @@
         <v>108</v>
       </c>
       <c r="N227" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O227" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P227" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T227" t="n">
         <v>14</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N228" t="n">
         <v>16000</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -18684,7 +18684,7 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N229" t="n">
         <v>16000</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N230" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O230" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P230" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T230" t="n">
         <v>12</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N231" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O231" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P231" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T231" t="n">
         <v>14</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -18927,13 +18927,13 @@
         <v>162</v>
       </c>
       <c r="N232" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O232" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P232" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T232" t="n">
         <v>12</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N233" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O233" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P233" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1429</v>
+        <v>1214</v>
       </c>
       <c r="T233" t="n">
         <v>14</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N234" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O234" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P234" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T234" t="n">
         <v>12</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -19167,13 +19167,13 @@
         <v>108</v>
       </c>
       <c r="N235" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O235" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P235" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T235" t="n">
         <v>14</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -19247,13 +19247,13 @@
         <v>108</v>
       </c>
       <c r="N236" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O236" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P236" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T236" t="n">
         <v>12</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -19320,7 +19320,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M237" t="n">
@@ -19337,7 +19337,7 @@
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R237" t="inlineStr">
@@ -19346,10 +19346,10 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T237" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238">
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44187</v>
+        <v>44260</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -19407,13 +19407,13 @@
         <v>108</v>
       </c>
       <c r="N238" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O238" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P238" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1500</v>
+        <v>1417</v>
       </c>
       <c r="T238" t="n">
         <v>12</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -19487,13 +19487,13 @@
         <v>108</v>
       </c>
       <c r="N239" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O239" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P239" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T239" t="n">
         <v>12</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -19560,24 +19560,24 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M240" t="n">
         <v>108</v>
       </c>
       <c r="N240" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O240" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P240" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19586,10 +19586,10 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T240" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -19724,7 +19724,7 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N242" t="n">
         <v>17000</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19807,13 +19807,13 @@
         <v>108</v>
       </c>
       <c r="N243" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O243" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P243" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T243" t="n">
         <v>12</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19880,11 +19880,11 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N244" t="n">
         <v>17000</v>
@@ -19897,7 +19897,7 @@
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
@@ -19906,10 +19906,10 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T244" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -19967,13 +19967,13 @@
         <v>108</v>
       </c>
       <c r="N245" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O245" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P245" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T245" t="n">
         <v>12</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20040,24 +20040,24 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M246" t="n">
         <v>108</v>
       </c>
       <c r="N246" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O246" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P246" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1125</v>
+        <v>1417</v>
       </c>
       <c r="T246" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -20127,13 +20127,13 @@
         <v>108</v>
       </c>
       <c r="N247" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O247" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P247" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T247" t="n">
         <v>12</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N248" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O248" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P248" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1143</v>
+        <v>1125</v>
       </c>
       <c r="T248" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249">
@@ -20280,7 +20280,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
@@ -20297,7 +20297,7 @@
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T249" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -20360,24 +20360,24 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M250" t="n">
         <v>162</v>
       </c>
       <c r="N250" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O250" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P250" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T250" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -20440,24 +20440,24 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M251" t="n">
         <v>108</v>
       </c>
       <c r="N251" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O251" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P251" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -20466,10 +20466,10 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T251" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N252" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O252" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P252" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T252" t="n">
         <v>12</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -20607,13 +20607,13 @@
         <v>108</v>
       </c>
       <c r="N253" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O253" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P253" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T253" t="n">
         <v>14</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -20687,13 +20687,13 @@
         <v>108</v>
       </c>
       <c r="N254" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O254" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P254" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T254" t="n">
         <v>12</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -20760,11 +20760,11 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N255" t="n">
         <v>16000</v>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R255" t="inlineStr">
@@ -20786,10 +20786,10 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T255" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256">
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -20840,24 +20840,24 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M256" t="n">
         <v>108</v>
       </c>
       <c r="N256" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O256" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P256" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R256" t="inlineStr">
@@ -20866,10 +20866,10 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T256" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257">
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -20920,24 +20920,24 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M257" t="n">
         <v>162</v>
       </c>
       <c r="N257" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O257" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P257" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R257" t="inlineStr">
@@ -20946,10 +20946,10 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T257" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258">
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -21000,24 +21000,24 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N258" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O258" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P258" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
@@ -21026,10 +21026,10 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>2200</v>
+        <v>1143</v>
       </c>
       <c r="T258" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259">
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -21080,11 +21080,11 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N259" t="n">
         <v>22000</v>
@@ -21097,7 +21097,7 @@
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
@@ -21106,10 +21106,10 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1833</v>
+        <v>1571</v>
       </c>
       <c r="T259" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260">
@@ -21160,11 +21160,11 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N260" t="n">
         <v>22000</v>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -21186,10 +21186,10 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1571</v>
+        <v>2200</v>
       </c>
       <c r="T260" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261">
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -21247,13 +21247,13 @@
         <v>108</v>
       </c>
       <c r="N261" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O261" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P261" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1500</v>
+        <v>1833</v>
       </c>
       <c r="T261" t="n">
         <v>12</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N262" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O262" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P262" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1286</v>
+        <v>1571</v>
       </c>
       <c r="T262" t="n">
         <v>14</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N263" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O263" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P263" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1583</v>
+        <v>1500</v>
       </c>
       <c r="T263" t="n">
         <v>12</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -21480,24 +21480,24 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N264" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O264" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P264" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,10 +21506,10 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1333</v>
+        <v>1286</v>
       </c>
       <c r="T264" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -21567,13 +21567,13 @@
         <v>162</v>
       </c>
       <c r="N265" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O265" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P265" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T265" t="n">
         <v>12</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -21640,24 +21640,24 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N266" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O266" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P266" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -21666,10 +21666,10 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1286</v>
+        <v>1333</v>
       </c>
       <c r="T266" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267">
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -21727,13 +21727,13 @@
         <v>162</v>
       </c>
       <c r="N267" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O267" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P267" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T267" t="n">
         <v>12</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N268" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O268" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P268" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1214</v>
+        <v>1286</v>
       </c>
       <c r="T268" t="n">
         <v>14</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -21884,7 +21884,7 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N269" t="n">
         <v>17000</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -21960,24 +21960,24 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N270" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O270" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P270" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -21986,10 +21986,10 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T270" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271">
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -22044,20 +22044,20 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N271" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O271" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P271" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,10 +22066,10 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T271" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -22127,13 +22127,13 @@
         <v>108</v>
       </c>
       <c r="N272" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O272" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P272" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T272" t="n">
         <v>12</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -22200,20 +22200,20 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
         <v>162</v>
       </c>
       <c r="N273" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O273" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P273" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T273" t="n">
         <v>14</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22360,24 +22360,24 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N275" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O275" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P275" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T275" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22440,24 +22440,24 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N276" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O276" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P276" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -22466,10 +22466,10 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T276" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277">
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -22527,13 +22527,13 @@
         <v>108</v>
       </c>
       <c r="N277" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O277" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P277" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T277" t="n">
         <v>12</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N278" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O278" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P278" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1571</v>
+        <v>1143</v>
       </c>
       <c r="T278" t="n">
         <v>14</v>
@@ -22680,24 +22680,24 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="N279" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O279" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P279" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22706,10 +22706,10 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1714</v>
+        <v>1833</v>
       </c>
       <c r="T279" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -22760,24 +22760,24 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M280" t="n">
         <v>108</v>
       </c>
       <c r="N280" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O280" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P280" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,10 +22786,10 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1500</v>
+        <v>1571</v>
       </c>
       <c r="T280" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281">
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -22840,24 +22840,24 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="N281" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O281" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P281" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -22866,10 +22866,10 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1333</v>
+        <v>1714</v>
       </c>
       <c r="T281" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -22920,24 +22920,24 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
         <v>108</v>
       </c>
       <c r="N282" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O282" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P282" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T282" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23084,7 +23084,7 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N284" t="n">
         <v>16000</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23164,7 +23164,7 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N285" t="n">
         <v>16000</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -23240,24 +23240,24 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
         <v>162</v>
       </c>
       <c r="N286" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O286" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P286" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
@@ -23266,10 +23266,10 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T286" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287">
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -23320,24 +23320,24 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
         <v>108</v>
       </c>
       <c r="N287" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O287" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P287" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
@@ -23346,10 +23346,10 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T287" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N288" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O288" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P288" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T288" t="n">
         <v>12</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -23487,13 +23487,13 @@
         <v>108</v>
       </c>
       <c r="N289" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O289" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P289" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1143</v>
+        <v>1571</v>
       </c>
       <c r="T289" t="n">
         <v>14</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -23567,13 +23567,13 @@
         <v>108</v>
       </c>
       <c r="N290" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O290" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P290" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T290" t="n">
         <v>12</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -23647,13 +23647,13 @@
         <v>108</v>
       </c>
       <c r="N291" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O291" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P291" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T291" t="n">
         <v>14</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -23727,13 +23727,13 @@
         <v>108</v>
       </c>
       <c r="N292" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O292" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P292" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T292" t="n">
         <v>12</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -23800,24 +23800,24 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N293" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O293" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P293" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
@@ -23826,10 +23826,10 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1250</v>
+        <v>1286</v>
       </c>
       <c r="T293" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -23880,24 +23880,24 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
         <v>108</v>
       </c>
       <c r="N294" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O294" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P294" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -23906,10 +23906,10 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1071</v>
+        <v>1333</v>
       </c>
       <c r="T294" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23960,24 +23960,24 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N295" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O295" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P295" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
@@ -23986,10 +23986,10 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>2100</v>
+        <v>1250</v>
       </c>
       <c r="T295" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24040,24 +24040,24 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N296" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O296" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P296" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -24066,10 +24066,10 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1750</v>
+        <v>1071</v>
       </c>
       <c r="T296" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297">
@@ -24120,11 +24120,11 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N297" t="n">
         <v>21000</v>
@@ -24137,7 +24137,7 @@
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
@@ -24146,10 +24146,10 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="T297" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298">
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N298" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O298" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P298" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1667</v>
+        <v>1750</v>
       </c>
       <c r="T298" t="n">
         <v>12</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N299" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O299" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P299" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1429</v>
+        <v>1500</v>
       </c>
       <c r="T299" t="n">
         <v>14</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24367,13 +24367,13 @@
         <v>108</v>
       </c>
       <c r="N300" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O300" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P300" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T300" t="n">
         <v>12</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N301" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O301" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P301" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T301" t="n">
         <v>14</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N302" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O302" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P302" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T302" t="n">
         <v>12</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -24607,13 +24607,13 @@
         <v>108</v>
       </c>
       <c r="N303" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O303" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P303" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T303" t="n">
         <v>14</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N304" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O304" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P304" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T304" t="n">
         <v>12</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -24760,24 +24760,24 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M305" t="n">
         <v>108</v>
       </c>
       <c r="N305" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O305" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P305" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
@@ -24786,10 +24786,10 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1667</v>
+        <v>1214</v>
       </c>
       <c r="T305" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="306">
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -24840,24 +24840,24 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N306" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O306" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P306" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,10 +24866,10 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1429</v>
+        <v>1833</v>
       </c>
       <c r="T306" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -25004,7 +25004,7 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N308" t="n">
         <v>20000</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -25087,13 +25087,13 @@
         <v>108</v>
       </c>
       <c r="N309" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O309" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P309" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T309" t="n">
         <v>12</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -25167,13 +25167,13 @@
         <v>108</v>
       </c>
       <c r="N310" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O310" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P310" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T310" t="n">
         <v>14</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -25244,7 +25244,7 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N311" t="n">
         <v>17000</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -25327,13 +25327,13 @@
         <v>108</v>
       </c>
       <c r="N312" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O312" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P312" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T312" t="n">
         <v>14</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -25407,13 +25407,13 @@
         <v>162</v>
       </c>
       <c r="N313" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O313" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P313" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T313" t="n">
         <v>12</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -25487,13 +25487,13 @@
         <v>108</v>
       </c>
       <c r="N314" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O314" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P314" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T314" t="n">
         <v>14</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
@@ -25560,24 +25560,24 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N315" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O315" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P315" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
@@ -25586,10 +25586,10 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T315" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316">
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -25640,24 +25640,24 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M316" t="n">
         <v>108</v>
       </c>
       <c r="N316" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O316" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P316" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T316" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="317">
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -25720,24 +25720,24 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N317" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O317" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P317" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,10 +25746,10 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T317" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318">
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -25817,7 +25817,7 @@
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25826,10 +25826,10 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T318" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="319">
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E319" t="n">
         <v>5</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E320" t="n">
         <v>5</v>
@@ -25967,17 +25967,17 @@
         <v>108</v>
       </c>
       <c r="N320" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O320" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P320" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T320" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E321" t="n">
         <v>5</v>
@@ -26044,7 +26044,7 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N321" t="n">
         <v>16000</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E322" t="n">
         <v>5</v>
@@ -26127,28 +26127,188 @@
         <v>108</v>
       </c>
       <c r="N322" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O322" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P322" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S322" t="n">
+        <v>1333</v>
+      </c>
+      <c r="T322" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>3</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D323" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E323" t="n">
+        <v>5</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G323" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M323" t="n">
+        <v>162</v>
+      </c>
+      <c r="N323" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O323" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P323" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S323" t="n">
+        <v>1143</v>
+      </c>
+      <c r="T323" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>3</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D324" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E324" t="n">
+        <v>5</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M324" t="n">
+        <v>108</v>
+      </c>
+      <c r="N324" t="n">
         <v>19000</v>
       </c>
-      <c r="O322" t="n">
+      <c r="O324" t="n">
         <v>19000</v>
       </c>
-      <c r="P322" t="n">
+      <c r="P324" t="n">
         <v>19000</v>
       </c>
-      <c r="Q322" t="inlineStr">
+      <c r="Q324" t="inlineStr">
         <is>
           <t>$/caja 12 unidades</t>
         </is>
       </c>
-      <c r="R322" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S322" t="n">
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S324" t="n">
         <v>1583</v>
       </c>
-      <c r="T322" t="n">
+      <c r="T324" t="n">
         <v>12</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T324"/>
+  <dimension ref="A1:T326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N239" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O239" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P239" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T239" t="n">
         <v>12</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44187</v>
+        <v>44468</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -19560,24 +19560,24 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M240" t="n">
         <v>108</v>
       </c>
       <c r="N240" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O240" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P240" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19586,10 +19586,10 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1500</v>
+        <v>1214</v>
       </c>
       <c r="T240" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -19647,13 +19647,13 @@
         <v>108</v>
       </c>
       <c r="N241" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O241" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P241" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T241" t="n">
         <v>12</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -19720,24 +19720,24 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M242" t="n">
         <v>108</v>
       </c>
       <c r="N242" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O242" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P242" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T242" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19884,7 +19884,7 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N244" t="n">
         <v>17000</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -19967,13 +19967,13 @@
         <v>108</v>
       </c>
       <c r="N245" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O245" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P245" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T245" t="n">
         <v>12</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20040,11 +20040,11 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N246" t="n">
         <v>17000</v>
@@ -20057,7 +20057,7 @@
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T246" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -20127,13 +20127,13 @@
         <v>108</v>
       </c>
       <c r="N247" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O247" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P247" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T247" t="n">
         <v>12</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M248" t="n">
         <v>108</v>
       </c>
       <c r="N248" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O248" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P248" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1125</v>
+        <v>1417</v>
       </c>
       <c r="T248" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20287,13 +20287,13 @@
         <v>108</v>
       </c>
       <c r="N249" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O249" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P249" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T249" t="n">
         <v>12</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -20360,24 +20360,24 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N250" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O250" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P250" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1143</v>
+        <v>1125</v>
       </c>
       <c r="T250" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="251">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
@@ -20457,7 +20457,7 @@
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -20466,10 +20466,10 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T251" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -20520,24 +20520,24 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M252" t="n">
         <v>162</v>
       </c>
       <c r="N252" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O252" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P252" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -20546,10 +20546,10 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T252" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253">
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -20600,24 +20600,24 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M253" t="n">
         <v>108</v>
       </c>
       <c r="N253" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O253" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P253" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -20626,10 +20626,10 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T253" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="254">
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N254" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O254" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P254" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T254" t="n">
         <v>12</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -20767,13 +20767,13 @@
         <v>108</v>
       </c>
       <c r="N255" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O255" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P255" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T255" t="n">
         <v>14</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -20847,13 +20847,13 @@
         <v>108</v>
       </c>
       <c r="N256" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O256" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P256" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T256" t="n">
         <v>12</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -20920,11 +20920,11 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N257" t="n">
         <v>16000</v>
@@ -20937,7 +20937,7 @@
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R257" t="inlineStr">
@@ -20946,10 +20946,10 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T257" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258">
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -21000,24 +21000,24 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M258" t="n">
         <v>108</v>
       </c>
       <c r="N258" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O258" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P258" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
@@ -21026,10 +21026,10 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T258" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259">
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -21080,24 +21080,24 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M259" t="n">
         <v>162</v>
       </c>
       <c r="N259" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O259" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P259" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
@@ -21106,10 +21106,10 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T259" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -21160,24 +21160,24 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N260" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O260" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P260" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -21186,10 +21186,10 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>2200</v>
+        <v>1143</v>
       </c>
       <c r="T260" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261">
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -21240,11 +21240,11 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N261" t="n">
         <v>22000</v>
@@ -21257,7 +21257,7 @@
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
@@ -21266,10 +21266,10 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1833</v>
+        <v>1571</v>
       </c>
       <c r="T261" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262">
@@ -21320,11 +21320,11 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N262" t="n">
         <v>22000</v>
@@ -21337,7 +21337,7 @@
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -21346,10 +21346,10 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1571</v>
+        <v>2200</v>
       </c>
       <c r="T262" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263">
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -21407,13 +21407,13 @@
         <v>108</v>
       </c>
       <c r="N263" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O263" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P263" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1500</v>
+        <v>1833</v>
       </c>
       <c r="T263" t="n">
         <v>12</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N264" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O264" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P264" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1286</v>
+        <v>1571</v>
       </c>
       <c r="T264" t="n">
         <v>14</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N265" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O265" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P265" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1583</v>
+        <v>1500</v>
       </c>
       <c r="T265" t="n">
         <v>12</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -21640,24 +21640,24 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N266" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O266" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P266" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -21666,10 +21666,10 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1333</v>
+        <v>1286</v>
       </c>
       <c r="T266" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267">
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -21727,13 +21727,13 @@
         <v>162</v>
       </c>
       <c r="N267" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O267" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P267" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T267" t="n">
         <v>12</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -21800,24 +21800,24 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N268" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O268" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P268" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -21826,10 +21826,10 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1286</v>
+        <v>1333</v>
       </c>
       <c r="T268" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -21887,13 +21887,13 @@
         <v>162</v>
       </c>
       <c r="N269" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O269" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P269" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T269" t="n">
         <v>12</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N270" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O270" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P270" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1214</v>
+        <v>1286</v>
       </c>
       <c r="T270" t="n">
         <v>14</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -22044,7 +22044,7 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N271" t="n">
         <v>17000</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -22120,24 +22120,24 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N272" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O272" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P272" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,10 +22146,10 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T272" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -22204,20 +22204,20 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N273" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O273" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P273" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -22226,10 +22226,10 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T273" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22287,13 +22287,13 @@
         <v>108</v>
       </c>
       <c r="N274" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O274" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P274" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T274" t="n">
         <v>12</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22360,20 +22360,20 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M275" t="n">
         <v>162</v>
       </c>
       <c r="N275" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O275" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P275" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T275" t="n">
         <v>14</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -22520,24 +22520,24 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N277" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O277" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P277" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T277" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278">
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -22600,24 +22600,24 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N278" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O278" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P278" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T278" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22687,13 +22687,13 @@
         <v>108</v>
       </c>
       <c r="N279" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O279" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P279" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T279" t="n">
         <v>12</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N280" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O280" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P280" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1571</v>
+        <v>1143</v>
       </c>
       <c r="T280" t="n">
         <v>14</v>
@@ -22840,24 +22840,24 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="N281" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O281" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P281" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -22866,10 +22866,10 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1714</v>
+        <v>1833</v>
       </c>
       <c r="T281" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -22920,24 +22920,24 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M282" t="n">
         <v>108</v>
       </c>
       <c r="N282" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O282" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P282" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1500</v>
+        <v>1571</v>
       </c>
       <c r="T282" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -23000,24 +23000,24 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="N283" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O283" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P283" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1333</v>
+        <v>1714</v>
       </c>
       <c r="T283" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284">
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23080,24 +23080,24 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
         <v>108</v>
       </c>
       <c r="N284" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O284" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P284" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,10 +23106,10 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T284" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -23244,7 +23244,7 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N286" t="n">
         <v>16000</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -23324,7 +23324,7 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N287" t="n">
         <v>16000</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23400,24 +23400,24 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
         <v>162</v>
       </c>
       <c r="N288" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O288" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P288" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -23426,10 +23426,10 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T288" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289">
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -23480,24 +23480,24 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M289" t="n">
         <v>108</v>
       </c>
       <c r="N289" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O289" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P289" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -23506,10 +23506,10 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T289" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N290" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O290" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P290" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T290" t="n">
         <v>12</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -23647,13 +23647,13 @@
         <v>108</v>
       </c>
       <c r="N291" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O291" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P291" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1143</v>
+        <v>1571</v>
       </c>
       <c r="T291" t="n">
         <v>14</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -23727,13 +23727,13 @@
         <v>108</v>
       </c>
       <c r="N292" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O292" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P292" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T292" t="n">
         <v>12</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -23807,13 +23807,13 @@
         <v>108</v>
       </c>
       <c r="N293" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O293" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P293" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T293" t="n">
         <v>14</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -23887,13 +23887,13 @@
         <v>108</v>
       </c>
       <c r="N294" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O294" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P294" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T294" t="n">
         <v>12</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23960,24 +23960,24 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N295" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O295" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P295" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
@@ -23986,10 +23986,10 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1250</v>
+        <v>1286</v>
       </c>
       <c r="T295" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24040,24 +24040,24 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
         <v>108</v>
       </c>
       <c r="N296" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O296" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P296" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -24066,10 +24066,10 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1071</v>
+        <v>1333</v>
       </c>
       <c r="T296" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297">
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24120,24 +24120,24 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N297" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O297" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P297" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
@@ -24146,10 +24146,10 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>2100</v>
+        <v>1250</v>
       </c>
       <c r="T297" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="298">
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24200,24 +24200,24 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N298" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O298" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P298" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1750</v>
+        <v>1071</v>
       </c>
       <c r="T298" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299">
@@ -24280,11 +24280,11 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N299" t="n">
         <v>21000</v>
@@ -24297,7 +24297,7 @@
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
@@ -24306,10 +24306,10 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="T299" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300">
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N300" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O300" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P300" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1667</v>
+        <v>1750</v>
       </c>
       <c r="T300" t="n">
         <v>12</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N301" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O301" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P301" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1429</v>
+        <v>1500</v>
       </c>
       <c r="T301" t="n">
         <v>14</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -24527,13 +24527,13 @@
         <v>108</v>
       </c>
       <c r="N302" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O302" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P302" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T302" t="n">
         <v>12</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N303" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O303" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P303" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T303" t="n">
         <v>14</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N304" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O304" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P304" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T304" t="n">
         <v>12</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -24767,13 +24767,13 @@
         <v>108</v>
       </c>
       <c r="N305" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O305" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P305" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T305" t="n">
         <v>14</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N306" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O306" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P306" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T306" t="n">
         <v>12</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -24920,24 +24920,24 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M307" t="n">
         <v>108</v>
       </c>
       <c r="N307" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O307" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P307" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
@@ -24946,10 +24946,10 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1667</v>
+        <v>1214</v>
       </c>
       <c r="T307" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -25000,24 +25000,24 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N308" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O308" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P308" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,10 +25026,10 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1429</v>
+        <v>1833</v>
       </c>
       <c r="T308" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309">
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -25164,7 +25164,7 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N310" t="n">
         <v>20000</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -25247,13 +25247,13 @@
         <v>108</v>
       </c>
       <c r="N311" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O311" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P311" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T311" t="n">
         <v>12</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -25327,13 +25327,13 @@
         <v>108</v>
       </c>
       <c r="N312" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O312" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P312" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T312" t="n">
         <v>14</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -25404,7 +25404,7 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N313" t="n">
         <v>17000</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -25487,13 +25487,13 @@
         <v>108</v>
       </c>
       <c r="N314" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O314" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P314" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T314" t="n">
         <v>14</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
@@ -25567,13 +25567,13 @@
         <v>162</v>
       </c>
       <c r="N315" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O315" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P315" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T315" t="n">
         <v>12</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -25647,13 +25647,13 @@
         <v>108</v>
       </c>
       <c r="N316" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O316" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P316" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T316" t="n">
         <v>14</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -25720,24 +25720,24 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N317" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O317" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P317" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,10 +25746,10 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T317" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="318">
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -25800,24 +25800,24 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M318" t="n">
         <v>108</v>
       </c>
       <c r="N318" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O318" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P318" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25826,10 +25826,10 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T318" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319">
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E319" t="n">
         <v>5</v>
@@ -25880,24 +25880,24 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N319" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O319" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P319" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25906,10 +25906,10 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T319" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320">
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E320" t="n">
         <v>5</v>
@@ -25977,7 +25977,7 @@
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T320" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E321" t="n">
         <v>5</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E322" t="n">
         <v>5</v>
@@ -26127,17 +26127,17 @@
         <v>108</v>
       </c>
       <c r="N322" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O322" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P322" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,10 +26146,10 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T322" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="323">
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E323" t="n">
         <v>5</v>
@@ -26204,7 +26204,7 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N323" t="n">
         <v>16000</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E324" t="n">
         <v>5</v>
@@ -26287,28 +26287,188 @@
         <v>108</v>
       </c>
       <c r="N324" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O324" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P324" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S324" t="n">
+        <v>1333</v>
+      </c>
+      <c r="T324" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>3</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D325" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E325" t="n">
+        <v>5</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G325" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M325" t="n">
+        <v>162</v>
+      </c>
+      <c r="N325" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O325" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P325" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S325" t="n">
+        <v>1143</v>
+      </c>
+      <c r="T325" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>3</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D326" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E326" t="n">
+        <v>5</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G326" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M326" t="n">
+        <v>108</v>
+      </c>
+      <c r="N326" t="n">
         <v>19000</v>
       </c>
-      <c r="O324" t="n">
+      <c r="O326" t="n">
         <v>19000</v>
       </c>
-      <c r="P324" t="n">
+      <c r="P326" t="n">
         <v>19000</v>
       </c>
-      <c r="Q324" t="inlineStr">
+      <c r="Q326" t="inlineStr">
         <is>
           <t>$/caja 12 unidades</t>
         </is>
       </c>
-      <c r="R324" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S324" t="n">
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S326" t="n">
         <v>1583</v>
       </c>
-      <c r="T324" t="n">
+      <c r="T326" t="n">
         <v>12</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T326"/>
+  <dimension ref="A1:T328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N112" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O112" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P112" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T112" t="n">
         <v>12</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -9400,24 +9400,24 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N113" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O113" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P113" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -9426,10 +9426,10 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1000</v>
+        <v>1286</v>
       </c>
       <c r="T113" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -9484,7 +9484,7 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N114" t="n">
         <v>16000</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44385</v>
+        <v>44299</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -9560,24 +9560,24 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N115" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O115" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P115" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -9586,10 +9586,10 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1417</v>
+        <v>1000</v>
       </c>
       <c r="T115" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -9640,24 +9640,24 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N116" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O116" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P116" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,10 +9666,10 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T116" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44284</v>
+        <v>44385</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -9720,24 +9720,24 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
         <v>162</v>
       </c>
       <c r="N117" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O117" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P117" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,10 +9746,10 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T117" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -9800,11 +9800,11 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N118" t="n">
         <v>17000</v>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -9826,10 +9826,10 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T118" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44417</v>
+        <v>44284</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -9880,24 +9880,24 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N119" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O119" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P119" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -9906,10 +9906,10 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1583</v>
+        <v>1143</v>
       </c>
       <c r="T119" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -9960,24 +9960,24 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N120" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O120" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P120" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,10 +9986,10 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1357</v>
+        <v>1417</v>
       </c>
       <c r="T120" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44216</v>
+        <v>44417</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -10047,13 +10047,13 @@
         <v>108</v>
       </c>
       <c r="N121" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O121" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P121" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1250</v>
+        <v>1583</v>
       </c>
       <c r="T121" t="n">
         <v>12</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44216</v>
+        <v>44417</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N122" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O122" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P122" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1071</v>
+        <v>1357</v>
       </c>
       <c r="T122" t="n">
         <v>14</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44340</v>
+        <v>44216</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N123" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O123" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P123" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1417</v>
+        <v>1250</v>
       </c>
       <c r="T123" t="n">
         <v>12</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44340</v>
+        <v>44216</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -10284,16 +10284,16 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N124" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O124" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P124" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1214</v>
+        <v>1071</v>
       </c>
       <c r="T124" t="n">
         <v>14</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44229</v>
+        <v>44340</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="N125" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O125" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P125" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1250</v>
+        <v>1417</v>
       </c>
       <c r="T125" t="n">
         <v>12</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44253</v>
+        <v>44340</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N126" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O126" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P126" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T126" t="n">
         <v>14</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44245</v>
+        <v>44229</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -10524,16 +10524,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="N127" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O127" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P127" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1417</v>
+        <v>1250</v>
       </c>
       <c r="T127" t="n">
         <v>12</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N128" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O128" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P128" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T128" t="n">
         <v>14</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44334</v>
+        <v>44245</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44419</v>
+        <v>44245</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -10760,24 +10760,24 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N130" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O130" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P130" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10786,10 +10786,10 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1583</v>
+        <v>1214</v>
       </c>
       <c r="T130" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -10840,24 +10840,24 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N131" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O131" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P131" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,10 +10866,10 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1357</v>
+        <v>1417</v>
       </c>
       <c r="T131" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132">
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44250</v>
+        <v>44419</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -10924,16 +10924,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N132" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O132" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P132" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1333</v>
+        <v>1583</v>
       </c>
       <c r="T132" t="n">
         <v>12</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44250</v>
+        <v>44419</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -11007,13 +11007,13 @@
         <v>108</v>
       </c>
       <c r="N133" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O133" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P133" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1143</v>
+        <v>1357</v>
       </c>
       <c r="T133" t="n">
         <v>14</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44281</v>
+        <v>44250</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -11087,13 +11087,13 @@
         <v>108</v>
       </c>
       <c r="N134" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O134" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P134" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T134" t="n">
         <v>12</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44467</v>
+        <v>44250</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -11160,24 +11160,24 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M135" t="n">
         <v>108</v>
       </c>
       <c r="N135" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O135" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P135" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -11186,10 +11186,10 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T135" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44467</v>
+        <v>44281</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -11240,11 +11240,11 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N136" t="n">
         <v>17000</v>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11266,10 +11266,10 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T136" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -11404,7 +11404,7 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N138" t="n">
         <v>17000</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N139" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O139" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P139" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1250</v>
+        <v>1417</v>
       </c>
       <c r="T139" t="n">
         <v>12</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -11567,13 +11567,13 @@
         <v>108</v>
       </c>
       <c r="N140" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O140" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P140" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1071</v>
+        <v>1214</v>
       </c>
       <c r="T140" t="n">
         <v>14</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="N141" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O141" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P141" t="n">
-        <v>21200</v>
+        <v>15000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1767</v>
+        <v>1250</v>
       </c>
       <c r="T141" t="n">
         <v>12</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="N142" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O142" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P142" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1500</v>
+        <v>1071</v>
       </c>
       <c r="T142" t="n">
         <v>14</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="N143" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O143" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P143" t="n">
-        <v>16000</v>
+        <v>21200</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1333</v>
+        <v>1767</v>
       </c>
       <c r="T143" t="n">
         <v>12</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44300</v>
+        <v>44434</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -11880,24 +11880,24 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="N144" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O144" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P144" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,10 +11906,10 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T144" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -11960,7 +11960,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M145" t="n">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T145" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146">
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -12047,13 +12047,13 @@
         <v>108</v>
       </c>
       <c r="N146" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O146" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P146" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="T146" t="n">
         <v>12</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N147" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O147" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P147" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T147" t="n">
         <v>14</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -12207,13 +12207,13 @@
         <v>108</v>
       </c>
       <c r="N148" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O148" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P148" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T148" t="n">
         <v>12</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N149" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O149" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P149" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1571</v>
+        <v>1429</v>
       </c>
       <c r="T149" t="n">
         <v>14</v>
@@ -12360,11 +12360,11 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N150" t="n">
         <v>22000</v>
@@ -12377,7 +12377,7 @@
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -12386,10 +12386,10 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1375</v>
+        <v>1833</v>
       </c>
       <c r="T150" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151">
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -12440,24 +12440,24 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N151" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O151" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P151" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,10 +12466,10 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1500</v>
+        <v>1571</v>
       </c>
       <c r="T151" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152">
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -12520,24 +12520,24 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N152" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O152" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P152" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -12546,10 +12546,10 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T152" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153">
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -12600,24 +12600,24 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N153" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O153" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P153" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T153" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154">
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44441</v>
+        <v>44218</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -12687,13 +12687,13 @@
         <v>162</v>
       </c>
       <c r="N154" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O154" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P154" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1917</v>
+        <v>1250</v>
       </c>
       <c r="T154" t="n">
         <v>12</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N155" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="O155" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P155" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>1643</v>
+        <v>1214</v>
       </c>
       <c r="T155" t="n">
         <v>14</v>
@@ -12840,24 +12840,24 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="N156" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="O156" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P156" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -12866,10 +12866,10 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1714</v>
+        <v>1917</v>
       </c>
       <c r="T156" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157">
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -12920,24 +12920,24 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M157" t="n">
         <v>108</v>
       </c>
       <c r="N157" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O157" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P157" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -12946,10 +12946,10 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1667</v>
+        <v>1643</v>
       </c>
       <c r="T157" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -13004,20 +13004,20 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N158" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O158" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P158" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
@@ -13026,10 +13026,10 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1429</v>
+        <v>1714</v>
       </c>
       <c r="T158" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -13087,13 +13087,13 @@
         <v>108</v>
       </c>
       <c r="N159" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O159" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P159" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T159" t="n">
         <v>12</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N160" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O160" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P160" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T160" t="n">
         <v>14</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -13244,16 +13244,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N161" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O161" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P161" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T161" t="n">
         <v>12</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N162" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O162" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P162" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1571</v>
+        <v>1214</v>
       </c>
       <c r="T162" t="n">
         <v>14</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -13407,13 +13407,13 @@
         <v>162</v>
       </c>
       <c r="N163" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O163" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P163" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T163" t="n">
         <v>12</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N164" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O164" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P164" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>1429</v>
+        <v>1571</v>
       </c>
       <c r="T164" t="n">
         <v>14</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N165" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O165" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P165" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T165" t="n">
         <v>12</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N166" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O166" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P166" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T166" t="n">
         <v>14</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N167" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O167" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P167" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T167" t="n">
         <v>12</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N168" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O168" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P168" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T168" t="n">
         <v>14</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -13887,13 +13887,13 @@
         <v>162</v>
       </c>
       <c r="N169" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O169" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P169" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T169" t="n">
         <v>12</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N170" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O170" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P170" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T170" t="n">
         <v>14</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -14044,7 +14044,7 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N171" t="n">
         <v>17000</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -14124,7 +14124,7 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N172" t="n">
         <v>17000</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -14200,24 +14200,24 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N173" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O173" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P173" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14226,10 +14226,10 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T173" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174">
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -14280,24 +14280,24 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N174" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O174" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P174" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -14306,10 +14306,10 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1583</v>
+        <v>1214</v>
       </c>
       <c r="T174" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175">
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -14364,16 +14364,16 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N175" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O175" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P175" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T175" t="n">
         <v>14</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -14447,13 +14447,13 @@
         <v>108</v>
       </c>
       <c r="N176" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O176" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P176" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1667</v>
+        <v>1583</v>
       </c>
       <c r="T176" t="n">
         <v>12</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44392</v>
+        <v>44426</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -14520,24 +14520,24 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N177" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O177" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P177" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,10 +14546,10 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1417</v>
+        <v>1357</v>
       </c>
       <c r="T177" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178">
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -14600,24 +14600,24 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M178" t="n">
         <v>108</v>
       </c>
       <c r="N178" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O178" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P178" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,10 +14626,10 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1214</v>
+        <v>1667</v>
       </c>
       <c r="T178" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -14684,16 +14684,16 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N179" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O179" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P179" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T179" t="n">
         <v>12</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -14767,13 +14767,13 @@
         <v>108</v>
       </c>
       <c r="N180" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O180" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P180" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1571</v>
+        <v>1214</v>
       </c>
       <c r="T180" t="n">
         <v>14</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -14844,7 +14844,7 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N181" t="n">
         <v>22000</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N183" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O183" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P183" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T183" t="n">
         <v>12</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44200</v>
+        <v>44453</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -15080,24 +15080,24 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N184" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O184" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P184" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -15106,10 +15106,10 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1333</v>
+        <v>1571</v>
       </c>
       <c r="T184" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -15177,7 +15177,7 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -15186,10 +15186,10 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T185" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186">
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -15244,7 +15244,7 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N186" t="n">
         <v>16000</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -15324,7 +15324,7 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N187" t="n">
         <v>16000</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -15404,16 +15404,16 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N188" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O188" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P188" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="T188" t="n">
         <v>12</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -15484,16 +15484,16 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N189" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O189" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P189" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T189" t="n">
         <v>14</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -15567,13 +15567,13 @@
         <v>162</v>
       </c>
       <c r="N190" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O190" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P190" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T190" t="n">
         <v>12</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -15644,16 +15644,16 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N191" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O191" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P191" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T191" t="n">
         <v>14</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -15804,7 +15804,7 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N193" t="n">
         <v>16000</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -15880,24 +15880,24 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N194" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O194" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P194" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -15906,10 +15906,10 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1900</v>
+        <v>1333</v>
       </c>
       <c r="T194" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195">
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -15960,24 +15960,24 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M195" t="n">
         <v>108</v>
       </c>
       <c r="N195" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O195" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P195" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1583</v>
+        <v>1143</v>
       </c>
       <c r="T195" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196">
@@ -16040,7 +16040,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M196" t="n">
@@ -16057,7 +16057,7 @@
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -16066,10 +16066,10 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1357</v>
+        <v>1900</v>
       </c>
       <c r="T196" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N197" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O197" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P197" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T197" t="n">
         <v>12</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44237</v>
+        <v>44420</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -16200,24 +16200,24 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="N198" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O198" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P198" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -16226,10 +16226,10 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1500</v>
+        <v>1357</v>
       </c>
       <c r="T198" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199">
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44285</v>
+        <v>44370</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -16287,13 +16287,13 @@
         <v>162</v>
       </c>
       <c r="N199" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O199" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P199" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T199" t="n">
         <v>12</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -16360,24 +16360,24 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="N200" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O200" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P200" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -16386,10 +16386,10 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T200" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201">
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -16447,13 +16447,13 @@
         <v>162</v>
       </c>
       <c r="N201" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O201" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P201" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T201" t="n">
         <v>12</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44210</v>
+        <v>44285</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -16520,11 +16520,11 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N202" t="n">
         <v>16000</v>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
@@ -16546,10 +16546,10 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1600</v>
+        <v>1143</v>
       </c>
       <c r="T202" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203">
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -16607,13 +16607,13 @@
         <v>162</v>
       </c>
       <c r="N203" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O203" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P203" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T203" t="n">
         <v>12</v>
@@ -16680,7 +16680,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M204" t="n">
@@ -16697,7 +16697,7 @@
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
@@ -16706,10 +16706,10 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1143</v>
+        <v>1600</v>
       </c>
       <c r="T204" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205">
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -16840,24 +16840,24 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N206" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O206" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P206" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
@@ -16866,10 +16866,10 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1250</v>
+        <v>1143</v>
       </c>
       <c r="T206" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -16920,24 +16920,24 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N207" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O207" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P207" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
@@ -16946,10 +16946,10 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1071</v>
+        <v>1333</v>
       </c>
       <c r="T207" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208">
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N208" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O208" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P208" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1333</v>
+        <v>1250</v>
       </c>
       <c r="T208" t="n">
         <v>12</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -17087,13 +17087,13 @@
         <v>108</v>
       </c>
       <c r="N209" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O209" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P209" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1143</v>
+        <v>1071</v>
       </c>
       <c r="T209" t="n">
         <v>14</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="N210" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O210" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P210" t="n">
-        <v>20500</v>
+        <v>16000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1708</v>
+        <v>1333</v>
       </c>
       <c r="T210" t="n">
         <v>12</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -17247,13 +17247,13 @@
         <v>108</v>
       </c>
       <c r="N211" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O211" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P211" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T211" t="n">
         <v>14</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -17324,16 +17324,16 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="N212" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O212" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P212" t="n">
-        <v>19000</v>
+        <v>20500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1583</v>
+        <v>1708</v>
       </c>
       <c r="T212" t="n">
         <v>12</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -17407,13 +17407,13 @@
         <v>108</v>
       </c>
       <c r="N213" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O213" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P213" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1357</v>
+        <v>1429</v>
       </c>
       <c r="T213" t="n">
         <v>14</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N214" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O214" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P214" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1667</v>
+        <v>1583</v>
       </c>
       <c r="T214" t="n">
         <v>12</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -17567,13 +17567,13 @@
         <v>108</v>
       </c>
       <c r="N215" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O215" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P215" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1429</v>
+        <v>1357</v>
       </c>
       <c r="T215" t="n">
         <v>14</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N216" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O216" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P216" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1583</v>
+        <v>1667</v>
       </c>
       <c r="T216" t="n">
         <v>12</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -17727,13 +17727,13 @@
         <v>108</v>
       </c>
       <c r="N217" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O217" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P217" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1357</v>
+        <v>1429</v>
       </c>
       <c r="T217" t="n">
         <v>14</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N218" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O218" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P218" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1833</v>
+        <v>1583</v>
       </c>
       <c r="T218" t="n">
         <v>12</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -17880,11 +17880,11 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N219" t="n">
         <v>19000</v>
@@ -17897,7 +17897,7 @@
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
@@ -17906,10 +17906,10 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1583</v>
+        <v>1357</v>
       </c>
       <c r="T219" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -17960,24 +17960,24 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N220" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O220" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P220" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
@@ -17986,10 +17986,10 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1357</v>
+        <v>1833</v>
       </c>
       <c r="T220" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221">
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N221" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O221" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P221" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1833</v>
+        <v>1583</v>
       </c>
       <c r="T221" t="n">
         <v>12</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44466</v>
+        <v>44427</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -18120,24 +18120,24 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N222" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O222" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P222" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -18146,10 +18146,10 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1417</v>
+        <v>1357</v>
       </c>
       <c r="T222" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223">
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -18200,24 +18200,24 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N223" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O223" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P223" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1214</v>
+        <v>1833</v>
       </c>
       <c r="T223" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224">
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -18607,13 +18607,13 @@
         <v>162</v>
       </c>
       <c r="N228" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O228" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P228" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T228" t="n">
         <v>12</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -18687,13 +18687,13 @@
         <v>108</v>
       </c>
       <c r="N229" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O229" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P229" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T229" t="n">
         <v>14</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -18764,7 +18764,7 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N230" t="n">
         <v>16000</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -18844,7 +18844,7 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N231" t="n">
         <v>16000</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N232" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O232" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P232" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T232" t="n">
         <v>12</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N233" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O233" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P233" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T233" t="n">
         <v>14</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -19087,13 +19087,13 @@
         <v>162</v>
       </c>
       <c r="N234" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O234" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P234" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T234" t="n">
         <v>12</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N235" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O235" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P235" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1429</v>
+        <v>1214</v>
       </c>
       <c r="T235" t="n">
         <v>14</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N236" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O236" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P236" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T236" t="n">
         <v>12</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -19327,13 +19327,13 @@
         <v>108</v>
       </c>
       <c r="N237" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O237" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P237" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T237" t="n">
         <v>14</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -19407,13 +19407,13 @@
         <v>108</v>
       </c>
       <c r="N238" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O238" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P238" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T238" t="n">
         <v>12</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44468</v>
+        <v>44270</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -19480,24 +19480,24 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N239" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O239" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P239" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
@@ -19506,10 +19506,10 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T239" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44468</v>
+        <v>44260</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -19560,7 +19560,7 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M240" t="n">
@@ -19577,7 +19577,7 @@
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19586,10 +19586,10 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T240" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N241" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O241" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P241" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T241" t="n">
         <v>12</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44187</v>
+        <v>44468</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -19720,24 +19720,24 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M242" t="n">
         <v>108</v>
       </c>
       <c r="N242" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O242" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P242" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1500</v>
+        <v>1214</v>
       </c>
       <c r="T242" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19807,13 +19807,13 @@
         <v>108</v>
       </c>
       <c r="N243" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O243" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P243" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T243" t="n">
         <v>12</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19880,24 +19880,24 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M244" t="n">
         <v>108</v>
       </c>
       <c r="N244" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O244" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P244" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
@@ -19906,10 +19906,10 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T244" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N246" t="n">
         <v>17000</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -20127,13 +20127,13 @@
         <v>108</v>
       </c>
       <c r="N247" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O247" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P247" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T247" t="n">
         <v>12</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20200,11 +20200,11 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N248" t="n">
         <v>17000</v>
@@ -20217,7 +20217,7 @@
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T248" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20287,13 +20287,13 @@
         <v>108</v>
       </c>
       <c r="N249" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O249" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P249" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T249" t="n">
         <v>12</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -20360,24 +20360,24 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M250" t="n">
         <v>108</v>
       </c>
       <c r="N250" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O250" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P250" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1125</v>
+        <v>1417</v>
       </c>
       <c r="T250" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -20447,13 +20447,13 @@
         <v>108</v>
       </c>
       <c r="N251" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O251" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P251" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T251" t="n">
         <v>12</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -20520,24 +20520,24 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N252" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O252" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P252" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -20546,10 +20546,10 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1143</v>
+        <v>1125</v>
       </c>
       <c r="T252" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="253">
@@ -20600,7 +20600,7 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M253" t="n">
@@ -20617,7 +20617,7 @@
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -20626,10 +20626,10 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T253" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254">
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -20680,24 +20680,24 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M254" t="n">
         <v>162</v>
       </c>
       <c r="N254" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O254" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P254" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,10 +20706,10 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T254" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -20760,24 +20760,24 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M255" t="n">
         <v>108</v>
       </c>
       <c r="N255" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O255" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P255" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R255" t="inlineStr">
@@ -20786,10 +20786,10 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T255" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="256">
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N256" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O256" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P256" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T256" t="n">
         <v>12</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -20927,13 +20927,13 @@
         <v>108</v>
       </c>
       <c r="N257" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O257" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P257" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T257" t="n">
         <v>14</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -21007,13 +21007,13 @@
         <v>108</v>
       </c>
       <c r="N258" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O258" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P258" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T258" t="n">
         <v>12</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -21080,11 +21080,11 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N259" t="n">
         <v>16000</v>
@@ -21097,7 +21097,7 @@
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
@@ -21106,10 +21106,10 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T259" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -21160,24 +21160,24 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M260" t="n">
         <v>108</v>
       </c>
       <c r="N260" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O260" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P260" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -21186,10 +21186,10 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T260" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261">
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -21240,24 +21240,24 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M261" t="n">
         <v>162</v>
       </c>
       <c r="N261" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O261" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P261" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
@@ -21266,10 +21266,10 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T261" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262">
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -21320,24 +21320,24 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N262" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O262" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P262" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -21346,10 +21346,10 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>2200</v>
+        <v>1143</v>
       </c>
       <c r="T262" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263">
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -21400,11 +21400,11 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N263" t="n">
         <v>22000</v>
@@ -21417,7 +21417,7 @@
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R263" t="inlineStr">
@@ -21426,10 +21426,10 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1833</v>
+        <v>1571</v>
       </c>
       <c r="T263" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264">
@@ -21480,11 +21480,11 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N264" t="n">
         <v>22000</v>
@@ -21497,7 +21497,7 @@
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,10 +21506,10 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1571</v>
+        <v>2200</v>
       </c>
       <c r="T264" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -21567,13 +21567,13 @@
         <v>108</v>
       </c>
       <c r="N265" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O265" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P265" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1500</v>
+        <v>1833</v>
       </c>
       <c r="T265" t="n">
         <v>12</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N266" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O266" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P266" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1286</v>
+        <v>1571</v>
       </c>
       <c r="T266" t="n">
         <v>14</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N267" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O267" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P267" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1583</v>
+        <v>1500</v>
       </c>
       <c r="T267" t="n">
         <v>12</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -21800,24 +21800,24 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N268" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O268" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P268" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -21826,10 +21826,10 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1333</v>
+        <v>1286</v>
       </c>
       <c r="T268" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -21887,13 +21887,13 @@
         <v>162</v>
       </c>
       <c r="N269" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O269" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P269" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T269" t="n">
         <v>12</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -21960,24 +21960,24 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N270" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O270" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P270" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -21986,10 +21986,10 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1286</v>
+        <v>1333</v>
       </c>
       <c r="T270" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271">
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -22047,13 +22047,13 @@
         <v>162</v>
       </c>
       <c r="N271" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O271" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P271" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T271" t="n">
         <v>12</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N272" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O272" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P272" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1214</v>
+        <v>1286</v>
       </c>
       <c r="T272" t="n">
         <v>14</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N273" t="n">
         <v>17000</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22280,24 +22280,24 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N274" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O274" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P274" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T274" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22364,20 +22364,20 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N275" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O275" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P275" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T275" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22447,13 +22447,13 @@
         <v>108</v>
       </c>
       <c r="N276" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O276" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P276" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T276" t="n">
         <v>12</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -22520,20 +22520,20 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
         <v>162</v>
       </c>
       <c r="N277" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O277" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P277" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T277" t="n">
         <v>14</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22680,24 +22680,24 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N279" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O279" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P279" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22706,10 +22706,10 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T279" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -22760,24 +22760,24 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N280" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O280" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P280" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,10 +22786,10 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T280" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281">
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -22847,13 +22847,13 @@
         <v>108</v>
       </c>
       <c r="N281" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O281" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P281" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T281" t="n">
         <v>12</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N282" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O282" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P282" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1571</v>
+        <v>1143</v>
       </c>
       <c r="T282" t="n">
         <v>14</v>
@@ -23000,24 +23000,24 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="N283" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O283" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P283" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1714</v>
+        <v>1833</v>
       </c>
       <c r="T283" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284">
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23080,24 +23080,24 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M284" t="n">
         <v>108</v>
       </c>
       <c r="N284" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O284" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P284" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,10 +23106,10 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1500</v>
+        <v>1571</v>
       </c>
       <c r="T284" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23160,24 +23160,24 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="N285" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O285" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P285" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -23186,10 +23186,10 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1333</v>
+        <v>1714</v>
       </c>
       <c r="T285" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -23240,24 +23240,24 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M286" t="n">
         <v>108</v>
       </c>
       <c r="N286" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O286" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P286" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
@@ -23266,10 +23266,10 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T286" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="287">
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23404,7 +23404,7 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N288" t="n">
         <v>16000</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -23484,7 +23484,7 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N289" t="n">
         <v>16000</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -23560,24 +23560,24 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M290" t="n">
         <v>162</v>
       </c>
       <c r="N290" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O290" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P290" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T290" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -23640,24 +23640,24 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
         <v>108</v>
       </c>
       <c r="N291" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O291" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P291" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
@@ -23666,10 +23666,10 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T291" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="292">
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N292" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O292" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P292" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T292" t="n">
         <v>12</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -23807,13 +23807,13 @@
         <v>108</v>
       </c>
       <c r="N293" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O293" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P293" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1143</v>
+        <v>1571</v>
       </c>
       <c r="T293" t="n">
         <v>14</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -23887,13 +23887,13 @@
         <v>108</v>
       </c>
       <c r="N294" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O294" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P294" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T294" t="n">
         <v>12</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23967,13 +23967,13 @@
         <v>108</v>
       </c>
       <c r="N295" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O295" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P295" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T295" t="n">
         <v>14</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24047,13 +24047,13 @@
         <v>108</v>
       </c>
       <c r="N296" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O296" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P296" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T296" t="n">
         <v>12</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24120,24 +24120,24 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N297" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O297" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P297" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
@@ -24146,10 +24146,10 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1250</v>
+        <v>1286</v>
       </c>
       <c r="T297" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298">
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24200,24 +24200,24 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M298" t="n">
         <v>108</v>
       </c>
       <c r="N298" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O298" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P298" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1071</v>
+        <v>1333</v>
       </c>
       <c r="T298" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -24280,24 +24280,24 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N299" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O299" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P299" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
@@ -24306,10 +24306,10 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>2100</v>
+        <v>1250</v>
       </c>
       <c r="T299" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300">
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24360,24 +24360,24 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N300" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O300" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P300" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
@@ -24386,10 +24386,10 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1750</v>
+        <v>1071</v>
       </c>
       <c r="T300" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301">
@@ -24440,11 +24440,11 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N301" t="n">
         <v>21000</v>
@@ -24457,7 +24457,7 @@
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24466,10 +24466,10 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="T301" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302">
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N302" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O302" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P302" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1667</v>
+        <v>1750</v>
       </c>
       <c r="T302" t="n">
         <v>12</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N303" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O303" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P303" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1429</v>
+        <v>1500</v>
       </c>
       <c r="T303" t="n">
         <v>14</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -24687,13 +24687,13 @@
         <v>108</v>
       </c>
       <c r="N304" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O304" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P304" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T304" t="n">
         <v>12</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N305" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O305" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P305" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T305" t="n">
         <v>14</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N306" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O306" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P306" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T306" t="n">
         <v>12</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -24927,13 +24927,13 @@
         <v>108</v>
       </c>
       <c r="N307" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O307" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P307" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T307" t="n">
         <v>14</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N308" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O308" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P308" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T308" t="n">
         <v>12</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -25080,24 +25080,24 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M309" t="n">
         <v>108</v>
       </c>
       <c r="N309" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O309" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P309" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,10 +25106,10 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1667</v>
+        <v>1214</v>
       </c>
       <c r="T309" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="310">
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -25160,24 +25160,24 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N310" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O310" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P310" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
@@ -25186,10 +25186,10 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1429</v>
+        <v>1833</v>
       </c>
       <c r="T310" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311">
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -25324,7 +25324,7 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N312" t="n">
         <v>20000</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -25407,13 +25407,13 @@
         <v>108</v>
       </c>
       <c r="N313" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O313" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P313" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T313" t="n">
         <v>12</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -25487,13 +25487,13 @@
         <v>108</v>
       </c>
       <c r="N314" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O314" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P314" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T314" t="n">
         <v>14</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
@@ -25564,7 +25564,7 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N315" t="n">
         <v>17000</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -25647,13 +25647,13 @@
         <v>108</v>
       </c>
       <c r="N316" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O316" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P316" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T316" t="n">
         <v>14</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -25727,13 +25727,13 @@
         <v>162</v>
       </c>
       <c r="N317" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O317" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P317" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T317" t="n">
         <v>12</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -25807,13 +25807,13 @@
         <v>108</v>
       </c>
       <c r="N318" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O318" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P318" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T318" t="n">
         <v>14</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E319" t="n">
         <v>5</v>
@@ -25880,24 +25880,24 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N319" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O319" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P319" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25906,10 +25906,10 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T319" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320">
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E320" t="n">
         <v>5</v>
@@ -25960,24 +25960,24 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M320" t="n">
         <v>108</v>
       </c>
       <c r="N320" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O320" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P320" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T320" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E321" t="n">
         <v>5</v>
@@ -26040,24 +26040,24 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N321" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O321" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P321" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,10 +26066,10 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T321" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322">
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E322" t="n">
         <v>5</v>
@@ -26137,7 +26137,7 @@
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,10 +26146,10 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T322" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323">
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E323" t="n">
         <v>5</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E324" t="n">
         <v>5</v>
@@ -26287,17 +26287,17 @@
         <v>108</v>
       </c>
       <c r="N324" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O324" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P324" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T324" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="325">
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E325" t="n">
         <v>5</v>
@@ -26364,7 +26364,7 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N325" t="n">
         <v>16000</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E326" t="n">
         <v>5</v>
@@ -26447,28 +26447,188 @@
         <v>108</v>
       </c>
       <c r="N326" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O326" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P326" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S326" t="n">
+        <v>1333</v>
+      </c>
+      <c r="T326" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>3</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D327" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E327" t="n">
+        <v>5</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G327" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M327" t="n">
+        <v>162</v>
+      </c>
+      <c r="N327" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O327" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P327" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S327" t="n">
+        <v>1143</v>
+      </c>
+      <c r="T327" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>3</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D328" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E328" t="n">
+        <v>5</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G328" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M328" t="n">
+        <v>108</v>
+      </c>
+      <c r="N328" t="n">
         <v>19000</v>
       </c>
-      <c r="O326" t="n">
+      <c r="O328" t="n">
         <v>19000</v>
       </c>
-      <c r="P326" t="n">
+      <c r="P328" t="n">
         <v>19000</v>
       </c>
-      <c r="Q326" t="inlineStr">
+      <c r="Q328" t="inlineStr">
         <is>
           <t>$/caja 12 unidades</t>
         </is>
       </c>
-      <c r="R326" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S326" t="n">
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S328" t="n">
         <v>1583</v>
       </c>
-      <c r="T326" t="n">
+      <c r="T328" t="n">
         <v>12</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T330"/>
+  <dimension ref="A1:T332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N285" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O285" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P285" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1833</v>
+        <v>1583</v>
       </c>
       <c r="T285" t="n">
         <v>12</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -23247,13 +23247,13 @@
         <v>108</v>
       </c>
       <c r="N286" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O286" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P286" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1571</v>
+        <v>1357</v>
       </c>
       <c r="T286" t="n">
         <v>14</v>
@@ -23320,24 +23320,24 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="N287" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O287" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P287" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
@@ -23346,10 +23346,10 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1714</v>
+        <v>1833</v>
       </c>
       <c r="T287" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23400,24 +23400,24 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
         <v>108</v>
       </c>
       <c r="N288" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O288" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P288" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -23426,10 +23426,10 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1500</v>
+        <v>1571</v>
       </c>
       <c r="T288" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289">
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -23480,24 +23480,24 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="N289" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O289" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P289" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -23506,10 +23506,10 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1333</v>
+        <v>1714</v>
       </c>
       <c r="T289" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -23560,24 +23560,24 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
         <v>108</v>
       </c>
       <c r="N290" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O290" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P290" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T290" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -23724,7 +23724,7 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N292" t="n">
         <v>16000</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -23804,7 +23804,7 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N293" t="n">
         <v>16000</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -23880,24 +23880,24 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M294" t="n">
         <v>162</v>
       </c>
       <c r="N294" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O294" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P294" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -23906,10 +23906,10 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T294" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23960,24 +23960,24 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M295" t="n">
         <v>108</v>
       </c>
       <c r="N295" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O295" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P295" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
@@ -23986,10 +23986,10 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T295" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N296" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O296" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P296" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T296" t="n">
         <v>12</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24127,13 +24127,13 @@
         <v>108</v>
       </c>
       <c r="N297" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O297" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P297" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1143</v>
+        <v>1571</v>
       </c>
       <c r="T297" t="n">
         <v>14</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24207,13 +24207,13 @@
         <v>108</v>
       </c>
       <c r="N298" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O298" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P298" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T298" t="n">
         <v>12</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -24287,13 +24287,13 @@
         <v>108</v>
       </c>
       <c r="N299" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O299" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P299" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T299" t="n">
         <v>14</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24367,13 +24367,13 @@
         <v>108</v>
       </c>
       <c r="N300" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O300" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P300" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T300" t="n">
         <v>12</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -24440,24 +24440,24 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N301" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O301" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P301" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24466,10 +24466,10 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1250</v>
+        <v>1286</v>
       </c>
       <c r="T301" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302">
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -24520,24 +24520,24 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M302" t="n">
         <v>108</v>
       </c>
       <c r="N302" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O302" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P302" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
@@ -24546,10 +24546,10 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1071</v>
+        <v>1333</v>
       </c>
       <c r="T302" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303">
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -24600,24 +24600,24 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N303" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O303" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P303" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24626,10 +24626,10 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>2100</v>
+        <v>1250</v>
       </c>
       <c r="T303" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304">
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -24680,24 +24680,24 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N304" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O304" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P304" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1750</v>
+        <v>1071</v>
       </c>
       <c r="T304" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305">
@@ -24760,11 +24760,11 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N305" t="n">
         <v>21000</v>
@@ -24777,7 +24777,7 @@
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
@@ -24786,10 +24786,10 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="T305" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306">
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N306" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O306" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P306" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1667</v>
+        <v>1750</v>
       </c>
       <c r="T306" t="n">
         <v>12</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N307" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O307" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P307" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1429</v>
+        <v>1500</v>
       </c>
       <c r="T307" t="n">
         <v>14</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -25007,13 +25007,13 @@
         <v>108</v>
       </c>
       <c r="N308" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O308" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P308" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="T308" t="n">
         <v>12</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N309" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O309" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P309" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T309" t="n">
         <v>14</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N310" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O310" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P310" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T310" t="n">
         <v>12</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -25247,13 +25247,13 @@
         <v>108</v>
       </c>
       <c r="N311" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O311" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P311" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T311" t="n">
         <v>14</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N312" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O312" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P312" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T312" t="n">
         <v>12</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -25400,24 +25400,24 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
         <v>108</v>
       </c>
       <c r="N313" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O313" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P313" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,10 +25426,10 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1667</v>
+        <v>1214</v>
       </c>
       <c r="T313" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314">
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -25480,24 +25480,24 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N314" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O314" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P314" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25506,10 +25506,10 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1429</v>
+        <v>1833</v>
       </c>
       <c r="T314" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315">
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -25644,7 +25644,7 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N316" t="n">
         <v>20000</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -25727,13 +25727,13 @@
         <v>108</v>
       </c>
       <c r="N317" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O317" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P317" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T317" t="n">
         <v>12</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -25807,13 +25807,13 @@
         <v>108</v>
       </c>
       <c r="N318" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O318" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P318" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T318" t="n">
         <v>14</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E319" t="n">
         <v>5</v>
@@ -25884,7 +25884,7 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N319" t="n">
         <v>17000</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E320" t="n">
         <v>5</v>
@@ -25967,13 +25967,13 @@
         <v>108</v>
       </c>
       <c r="N320" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O320" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P320" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T320" t="n">
         <v>14</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E321" t="n">
         <v>5</v>
@@ -26047,13 +26047,13 @@
         <v>162</v>
       </c>
       <c r="N321" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O321" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P321" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T321" t="n">
         <v>12</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E322" t="n">
         <v>5</v>
@@ -26127,13 +26127,13 @@
         <v>108</v>
       </c>
       <c r="N322" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O322" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P322" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T322" t="n">
         <v>14</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E323" t="n">
         <v>5</v>
@@ -26200,24 +26200,24 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N323" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O323" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P323" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
@@ -26226,10 +26226,10 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T323" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324">
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E324" t="n">
         <v>5</v>
@@ -26280,24 +26280,24 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
         <v>108</v>
       </c>
       <c r="N324" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O324" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P324" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T324" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="325">
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E325" t="n">
         <v>5</v>
@@ -26360,24 +26360,24 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N325" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O325" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P325" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T325" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E326" t="n">
         <v>5</v>
@@ -26457,7 +26457,7 @@
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,10 +26466,10 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T326" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E327" t="n">
         <v>5</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E328" t="n">
         <v>5</v>
@@ -26607,17 +26607,17 @@
         <v>108</v>
       </c>
       <c r="N328" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O328" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P328" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T328" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="329">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E329" t="n">
         <v>5</v>
@@ -26684,7 +26684,7 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N329" t="n">
         <v>16000</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E330" t="n">
         <v>5</v>
@@ -26767,28 +26767,188 @@
         <v>108</v>
       </c>
       <c r="N330" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O330" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P330" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S330" t="n">
+        <v>1333</v>
+      </c>
+      <c r="T330" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>3</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D331" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E331" t="n">
+        <v>5</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G331" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M331" t="n">
+        <v>162</v>
+      </c>
+      <c r="N331" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O331" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P331" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S331" t="n">
+        <v>1143</v>
+      </c>
+      <c r="T331" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>3</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E332" t="n">
+        <v>5</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M332" t="n">
+        <v>108</v>
+      </c>
+      <c r="N332" t="n">
         <v>19000</v>
       </c>
-      <c r="O330" t="n">
+      <c r="O332" t="n">
         <v>19000</v>
       </c>
-      <c r="P330" t="n">
+      <c r="P332" t="n">
         <v>19000</v>
       </c>
-      <c r="Q330" t="inlineStr">
+      <c r="Q332" t="inlineStr">
         <is>
           <t>$/caja 12 unidades</t>
         </is>
       </c>
-      <c r="R330" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S330" t="n">
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S332" t="n">
         <v>1583</v>
       </c>
-      <c r="T330" t="n">
+      <c r="T332" t="n">
         <v>12</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T334"/>
+  <dimension ref="A1:T337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -22840,24 +22840,24 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N281" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O281" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P281" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -22866,10 +22866,10 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1417</v>
+        <v>1900</v>
       </c>
       <c r="T281" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -22920,24 +22920,24 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N282" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O282" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P282" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1214</v>
+        <v>1583</v>
       </c>
       <c r="T282" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -23000,24 +23000,24 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M283" t="n">
         <v>108</v>
       </c>
       <c r="N283" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O283" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P283" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1417</v>
+        <v>1357</v>
       </c>
       <c r="T283" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284">
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23080,7 +23080,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
@@ -23097,7 +23097,7 @@
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,10 +23106,10 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T284" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23160,7 +23160,7 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M285" t="n">
@@ -23177,7 +23177,7 @@
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -23186,10 +23186,10 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T285" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -23244,7 +23244,7 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N286" t="n">
         <v>17000</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44363</v>
+        <v>44386</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -23320,24 +23320,24 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N287" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O287" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P287" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
@@ -23346,10 +23346,10 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T287" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="288">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23404,20 +23404,20 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N288" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O288" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P288" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -23426,10 +23426,10 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T288" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289">
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N289" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O289" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P289" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T289" t="n">
         <v>12</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -23567,13 +23567,13 @@
         <v>108</v>
       </c>
       <c r="N290" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O290" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P290" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T290" t="n">
         <v>12</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N291" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O291" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P291" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T291" t="n">
         <v>14</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="N292" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O292" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P292" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T292" t="n">
         <v>12</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N293" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O293" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P293" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T293" t="n">
         <v>12</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N294" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O294" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P294" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1214</v>
+        <v>1286</v>
       </c>
       <c r="T294" t="n">
         <v>14</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="N295" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O295" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P295" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T295" t="n">
         <v>12</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24040,24 +24040,24 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N296" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O296" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P296" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -24066,10 +24066,10 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T296" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297">
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24120,24 +24120,24 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N297" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O297" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P297" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
@@ -24146,10 +24146,10 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T297" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298">
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24204,7 +24204,7 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N298" t="n">
         <v>16000</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N300" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O300" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P300" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T300" t="n">
         <v>12</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N301" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O301" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P301" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1583</v>
+        <v>1333</v>
       </c>
       <c r="T301" t="n">
         <v>12</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -24527,13 +24527,13 @@
         <v>108</v>
       </c>
       <c r="N302" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O302" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P302" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T302" t="n">
         <v>14</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -24604,7 +24604,7 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N303" t="n">
         <v>17000</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -24680,24 +24680,24 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
         <v>108</v>
       </c>
       <c r="N304" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O304" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P304" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1214</v>
+        <v>1583</v>
       </c>
       <c r="T304" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -24755,29 +24755,29 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Caramelo</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M305" t="n">
         <v>108</v>
       </c>
       <c r="N305" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O305" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P305" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
@@ -24786,10 +24786,10 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1333</v>
+        <v>1357</v>
       </c>
       <c r="T305" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="306">
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -24835,29 +24835,29 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Caramelo</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N306" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O306" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P306" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,10 +24866,10 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T306" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -24920,11 +24920,11 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N307" t="n">
         <v>17000</v>
@@ -24937,7 +24937,7 @@
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
@@ -24946,10 +24946,10 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T307" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -24995,29 +24995,29 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Caramelo</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M308" t="n">
         <v>108</v>
       </c>
       <c r="N308" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O308" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P308" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,10 +25026,10 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T308" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309">
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -25075,29 +25075,29 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Caramelo</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M309" t="n">
         <v>108</v>
       </c>
       <c r="N309" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O309" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P309" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,10 +25106,10 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1583</v>
+        <v>1143</v>
       </c>
       <c r="T309" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="310">
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -25164,7 +25164,7 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N310" t="n">
         <v>17000</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -25327,13 +25327,13 @@
         <v>108</v>
       </c>
       <c r="N312" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O312" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P312" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T312" t="n">
         <v>12</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -25404,7 +25404,7 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N313" t="n">
         <v>17000</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
@@ -25567,13 +25567,13 @@
         <v>108</v>
       </c>
       <c r="N315" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O315" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P315" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T315" t="n">
         <v>12</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -25640,24 +25640,24 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N316" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O316" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P316" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T316" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="317">
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -25720,24 +25720,24 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M317" t="n">
         <v>108</v>
       </c>
       <c r="N317" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O317" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P317" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,10 +25746,10 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T317" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="318">
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -25800,7 +25800,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
@@ -25817,7 +25817,7 @@
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25826,10 +25826,10 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T318" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="319">
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E319" t="n">
         <v>5</v>
@@ -25880,24 +25880,24 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M319" t="n">
         <v>108</v>
       </c>
       <c r="N319" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O319" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P319" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25906,10 +25906,10 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1833</v>
+        <v>1143</v>
       </c>
       <c r="T319" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320">
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E320" t="n">
         <v>5</v>
@@ -25960,24 +25960,24 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
         <v>108</v>
       </c>
       <c r="N320" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O320" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P320" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1571</v>
+        <v>1333</v>
       </c>
       <c r="T320" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E321" t="n">
         <v>5</v>
@@ -26044,20 +26044,20 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="N321" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O321" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P321" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/caja 7 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,10 +26066,10 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>1714</v>
+        <v>1143</v>
       </c>
       <c r="T321" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="322">
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E322" t="n">
         <v>5</v>
@@ -26127,13 +26127,13 @@
         <v>108</v>
       </c>
       <c r="N322" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O322" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P322" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T322" t="n">
         <v>12</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E323" t="n">
         <v>5</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N323" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O323" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P323" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1143</v>
+        <v>1571</v>
       </c>
       <c r="T323" t="n">
         <v>14</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E324" t="n">
         <v>5</v>
@@ -26280,24 +26280,24 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="N324" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O324" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P324" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 7 unidades</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1667</v>
+        <v>1714</v>
       </c>
       <c r="T324" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325">
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E325" t="n">
         <v>5</v>
@@ -26360,24 +26360,24 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N325" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O325" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P325" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1429</v>
+        <v>1333</v>
       </c>
       <c r="T325" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="326">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E326" t="n">
         <v>5</v>
@@ -26440,7 +26440,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M326" t="n">
@@ -26457,7 +26457,7 @@
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,10 +26466,10 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T326" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E327" t="n">
         <v>5</v>
@@ -26520,24 +26520,24 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N327" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O327" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P327" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
@@ -26546,10 +26546,10 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1143</v>
+        <v>1667</v>
       </c>
       <c r="T327" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328">
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E328" t="n">
         <v>5</v>
@@ -26600,24 +26600,24 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M328" t="n">
         <v>162</v>
       </c>
       <c r="N328" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O328" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P328" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1333</v>
+        <v>1429</v>
       </c>
       <c r="T328" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="329">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E329" t="n">
         <v>5</v>
@@ -26680,11 +26680,11 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N329" t="n">
         <v>16000</v>
@@ -26697,7 +26697,7 @@
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
@@ -26706,10 +26706,10 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T329" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330">
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E330" t="n">
         <v>5</v>
@@ -26760,24 +26760,24 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M330" t="n">
         <v>162</v>
       </c>
       <c r="N330" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O330" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P330" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26786,10 +26786,10 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T330" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="331">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E331" t="n">
         <v>5</v>
@@ -26840,24 +26840,24 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N331" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O331" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P331" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26866,10 +26866,10 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="T331" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E332" t="n">
         <v>5</v>
@@ -26920,7 +26920,7 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M332" t="n">
@@ -26937,7 +26937,7 @@
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
@@ -26946,10 +26946,10 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T332" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="333">
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44432</v>
+        <v>44389</v>
       </c>
       <c r="E333" t="n">
         <v>5</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N333" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O333" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P333" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1583</v>
+        <v>1417</v>
       </c>
       <c r="T333" t="n">
         <v>12</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44432</v>
+        <v>44389</v>
       </c>
       <c r="E334" t="n">
         <v>5</v>
@@ -27087,28 +27087,268 @@
         <v>108</v>
       </c>
       <c r="N334" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O334" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P334" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>$/caja 14 unidades</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S334" t="n">
+        <v>1214</v>
+      </c>
+      <c r="T334" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>3</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D335" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E335" t="n">
+        <v>5</v>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G335" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M335" t="n">
+        <v>108</v>
+      </c>
+      <c r="N335" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O335" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P335" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S335" t="n">
+        <v>1333</v>
+      </c>
+      <c r="T335" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>3</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D336" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E336" t="n">
+        <v>5</v>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G336" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M336" t="n">
+        <v>108</v>
+      </c>
+      <c r="N336" t="n">
         <v>19000</v>
       </c>
-      <c r="O334" t="n">
+      <c r="O336" t="n">
         <v>19000</v>
       </c>
-      <c r="P334" t="n">
+      <c r="P336" t="n">
         <v>19000</v>
       </c>
-      <c r="Q334" t="inlineStr">
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S336" t="n">
+        <v>1583</v>
+      </c>
+      <c r="T336" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>3</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D337" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E337" t="n">
+        <v>5</v>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G337" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>100108005</v>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>Caramelo</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M337" t="n">
+        <v>108</v>
+      </c>
+      <c r="N337" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O337" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P337" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q337" t="inlineStr">
         <is>
           <t>$/caja 14 unidades</t>
         </is>
       </c>
-      <c r="R334" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S334" t="n">
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S337" t="n">
         <v>1357</v>
       </c>
-      <c r="T334" t="n">
+      <c r="T337" t="n">
         <v>14</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Piña.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T337"/>
+  <dimension ref="A1:T339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44424</v>
+        <v>44477</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -10847,13 +10847,13 @@
         <v>108</v>
       </c>
       <c r="N131" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O131" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P131" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T131" t="n">
         <v>12</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44424</v>
+        <v>44477</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -10927,13 +10927,13 @@
         <v>108</v>
       </c>
       <c r="N132" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O132" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P132" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1286</v>
+        <v>1357</v>
       </c>
       <c r="T132" t="n">
         <v>14</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44245</v>
+        <v>44424</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -11004,16 +11004,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N133" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O133" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P133" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1417</v>
+        <v>1500</v>
       </c>
       <c r="T133" t="n">
         <v>12</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44245</v>
+        <v>44424</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -11087,13 +11087,13 @@
         <v>108</v>
       </c>
       <c r="N134" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O134" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P134" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1214</v>
+        <v>1286</v>
       </c>
       <c r="T134" t="n">
         <v>14</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -11164,20 +11164,20 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N135" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O135" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P135" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -11186,10 +11186,10 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1500</v>
+        <v>1417</v>
       </c>
       <c r="T135" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44382</v>
+        <v>44245</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -11240,7 +11240,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M136" t="n">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11266,10 +11266,10 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1417</v>
+        <v>1214</v>
       </c>
       <c r="T136" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -11320,24 +11320,24 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="N137" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O137" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P137" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11346,10 +11346,10 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1214</v>
+        <v>1500</v>
       </c>
       <c r="T137" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44216</v>
+        <v>44382</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -11407,13 +11407,13 @@
         <v>108</v>
       </c>
       <c r="N138" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O138" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P138" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1250</v>
+        <v>1417</v>
       </c>
       <c r="T138" t="n">
         <v>12</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44216</v>
+        <v>44382</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N139" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O139" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P139" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1071</v>
+        <v>1214</v>
       </c>
       <c r="T139" t="n">
         <v>14</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44370</v>
+        <v>44216</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N140" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O140" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P140" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T140" t="n">
         <v>12</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44284</v>
+        <v>44216</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -11647,13 +11647,13 @@
         <v>162</v>
       </c>
       <c r="N141" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O141" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P141" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1143</v>
+        <v>1071</v>
       </c>
       <c r="T141" t="n">
         <v>14</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44174</v>
+        <v>44370</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -11727,13 +11727,13 @@
         <v>162</v>
       </c>
       <c r="N142" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O142" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P142" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1833</v>
+        <v>1500</v>
       </c>
       <c r="T142" t="n">
         <v>12</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44174</v>
+        <v>44284</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N143" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O143" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P143" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1571</v>
+        <v>1143</v>
       </c>
       <c r="T143" t="n">
         <v>14</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -11887,13 +11887,13 @@
         <v>162</v>
       </c>
       <c r="N144" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O144" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P144" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1417</v>
+        <v>1833</v>
       </c>
       <c r="T144" t="n">
         <v>12</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N145" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O145" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P145" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1143</v>
+        <v>1571</v>
       </c>
       <c r="T145" t="n">
         <v>14</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44449</v>
+        <v>44244</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N146" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O146" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P146" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1667</v>
+        <v>1417</v>
       </c>
       <c r="T146" t="n">
         <v>12</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44449</v>
+        <v>44244</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -12127,13 +12127,13 @@
         <v>108</v>
       </c>
       <c r="N147" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O147" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P147" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T147" t="n">
         <v>14</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -12200,11 +12200,11 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N148" t="n">
         <v>20000</v>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,10 +12226,10 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1429</v>
+        <v>1667</v>
       </c>
       <c r="T148" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44336</v>
+        <v>44449</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -12280,24 +12280,24 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N149" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O149" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P149" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,10 +12306,10 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T149" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N150" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O150" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P150" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T150" t="n">
         <v>14</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -12447,13 +12447,13 @@
         <v>162</v>
       </c>
       <c r="N151" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O151" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P151" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T151" t="n">
         <v>12</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -12527,13 +12527,13 @@
         <v>108</v>
       </c>
       <c r="N152" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O152" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P152" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T152" t="n">
         <v>14</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -12604,7 +12604,7 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N153" t="n">
         <v>16000</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44330</v>
+        <v>44271</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -12684,7 +12684,7 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N154" t="n">
         <v>16000</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -12767,13 +12767,13 @@
         <v>108</v>
       </c>
       <c r="N155" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O155" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P155" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T155" t="n">
         <v>12</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -12840,24 +12840,24 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N156" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O156" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P156" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -12866,10 +12866,10 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1125</v>
+        <v>1143</v>
       </c>
       <c r="T156" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157">
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44428</v>
+        <v>44463</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -12920,24 +12920,24 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M157" t="n">
         <v>108</v>
       </c>
       <c r="N157" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O157" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P157" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -12946,10 +12946,10 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T157" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158">
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44428</v>
+        <v>44463</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -13000,24 +13000,24 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M158" t="n">
         <v>108</v>
       </c>
       <c r="N158" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O158" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P158" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
@@ -13026,10 +13026,10 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1583</v>
+        <v>1125</v>
       </c>
       <c r="T158" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159">
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -13087,13 +13087,13 @@
         <v>108</v>
       </c>
       <c r="N159" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O159" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P159" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T159" t="n">
         <v>10</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N160" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O160" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P160" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1250</v>
+        <v>1583</v>
       </c>
       <c r="T160" t="n">
         <v>12</v>
@@ -13240,7 +13240,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M161" t="n">
@@ -13257,7 +13257,7 @@
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -13266,10 +13266,10 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>1071</v>
+        <v>1500</v>
       </c>
       <c r="T161" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N162" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O162" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P162" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1417</v>
+        <v>1250</v>
       </c>
       <c r="T162" t="n">
         <v>12</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -13400,24 +13400,24 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M163" t="n">
         <v>108</v>
       </c>
       <c r="N163" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O163" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P163" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,10 +13426,10 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>1333</v>
+        <v>1071</v>
       </c>
       <c r="T163" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164">
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44293</v>
+        <v>44264</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -13484,7 +13484,7 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N164" t="n">
         <v>17000</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -13564,7 +13564,7 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N165" t="n">
         <v>16000</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -13640,24 +13640,24 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N166" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O166" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P166" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
@@ -13666,10 +13666,10 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T166" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167">
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -13720,11 +13720,11 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N167" t="n">
         <v>16000</v>
@@ -13737,7 +13737,7 @@
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
@@ -13746,10 +13746,10 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1600</v>
+        <v>1333</v>
       </c>
       <c r="T167" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168">
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -13800,11 +13800,11 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N168" t="n">
         <v>16000</v>
@@ -13817,7 +13817,7 @@
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -13826,10 +13826,10 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T168" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169">
@@ -13880,11 +13880,11 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N169" t="n">
         <v>16000</v>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -13906,10 +13906,10 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1143</v>
+        <v>1600</v>
       </c>
       <c r="T169" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -14127,13 +14127,13 @@
         <v>162</v>
       </c>
       <c r="N172" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O172" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P172" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="T172" t="n">
         <v>12</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N173" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O173" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P173" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T173" t="n">
         <v>14</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N174" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O174" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P174" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1583</v>
+        <v>1667</v>
       </c>
       <c r="T174" t="n">
         <v>12</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44294</v>
+        <v>44447</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -14360,24 +14360,24 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N175" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O175" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P175" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -14386,10 +14386,10 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1333</v>
+        <v>1429</v>
       </c>
       <c r="T175" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -14440,24 +14440,24 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
         <v>108</v>
       </c>
       <c r="N176" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O176" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P176" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,10 +14466,10 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1143</v>
+        <v>1583</v>
       </c>
       <c r="T176" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -14520,24 +14520,24 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="N177" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O177" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P177" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,10 +14546,10 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T177" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178">
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44356</v>
+        <v>44294</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M178" t="n">
@@ -14617,7 +14617,7 @@
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,10 +14626,10 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1333</v>
+        <v>1143</v>
       </c>
       <c r="T178" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44169</v>
+        <v>44232</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -14680,24 +14680,24 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="N179" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O179" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P179" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,10 +14706,10 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>1833</v>
+        <v>1500</v>
       </c>
       <c r="T179" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -14764,16 +14764,16 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N180" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O180" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P180" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T180" t="n">
         <v>12</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -14840,11 +14840,11 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N181" t="n">
         <v>22000</v>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14866,10 +14866,10 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1571</v>
+        <v>1833</v>
       </c>
       <c r="T181" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -14924,16 +14924,16 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N182" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O182" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P182" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T182" t="n">
         <v>12</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N183" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O183" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P183" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1429</v>
+        <v>1571</v>
       </c>
       <c r="T183" t="n">
         <v>14</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -15087,13 +15087,13 @@
         <v>108</v>
       </c>
       <c r="N184" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O184" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P184" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T184" t="n">
         <v>12</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -15167,13 +15167,13 @@
         <v>162</v>
       </c>
       <c r="N185" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O185" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P185" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T185" t="n">
         <v>14</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N186" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O186" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P186" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1583</v>
+        <v>1417</v>
       </c>
       <c r="T186" t="n">
         <v>12</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -15324,16 +15324,16 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N187" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O187" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P187" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1357</v>
+        <v>1214</v>
       </c>
       <c r="T187" t="n">
         <v>14</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -15404,16 +15404,16 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N188" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O188" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P188" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1333</v>
+        <v>1583</v>
       </c>
       <c r="T188" t="n">
         <v>12</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -15487,13 +15487,13 @@
         <v>108</v>
       </c>
       <c r="N189" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O189" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P189" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1143</v>
+        <v>1357</v>
       </c>
       <c r="T189" t="n">
         <v>14</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="N190" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O190" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P190" t="n">
-        <v>18600</v>
+        <v>16000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1550</v>
+        <v>1333</v>
       </c>
       <c r="T190" t="n">
         <v>12</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -15640,20 +15640,20 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="N191" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O191" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P191" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1321</v>
+        <v>1143</v>
       </c>
       <c r="T191" t="n">
         <v>14</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="N192" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O192" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P192" t="n">
-        <v>16000</v>
+        <v>18600</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1333</v>
+        <v>1550</v>
       </c>
       <c r="T192" t="n">
         <v>12</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="N193" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O193" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P193" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1143</v>
+        <v>1321</v>
       </c>
       <c r="T193" t="n">
         <v>14</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -15887,13 +15887,13 @@
         <v>108</v>
       </c>
       <c r="N194" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O194" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P194" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="T194" t="n">
         <v>12</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N195" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O195" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P195" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T195" t="n">
         <v>14</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -16040,24 +16040,24 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N196" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O196" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P196" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -16066,10 +16066,10 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T196" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197">
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44215</v>
+        <v>44411</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -16120,24 +16120,24 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N197" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O197" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P197" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -16146,10 +16146,10 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1250</v>
+        <v>1429</v>
       </c>
       <c r="T197" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198">
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -16200,11 +16200,11 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="N198" t="n">
         <v>15000</v>
@@ -16217,7 +16217,7 @@
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -16226,10 +16226,10 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1071</v>
+        <v>1500</v>
       </c>
       <c r="T198" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199">
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -16280,11 +16280,11 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="N199" t="n">
         <v>15000</v>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
@@ -16306,10 +16306,10 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T199" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200">
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -16360,11 +16360,11 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="N200" t="n">
         <v>15000</v>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -16386,10 +16386,10 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1250</v>
+        <v>1071</v>
       </c>
       <c r="T200" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201">
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -16440,24 +16440,24 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N201" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O201" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P201" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
@@ -16466,10 +16466,10 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T201" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202">
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="N202" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O202" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P202" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1417</v>
+        <v>1250</v>
       </c>
       <c r="T202" t="n">
         <v>12</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -16600,24 +16600,24 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="N203" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O203" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P203" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -16626,10 +16626,10 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1214</v>
+        <v>1667</v>
       </c>
       <c r="T203" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204">
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -16680,24 +16680,24 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="N204" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O204" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P204" t="n">
-        <v>18600</v>
+        <v>17000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
@@ -16706,10 +16706,10 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1860</v>
+        <v>1417</v>
       </c>
       <c r="T204" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205">
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -16760,24 +16760,24 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="N205" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O205" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P205" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
@@ -16786,10 +16786,10 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1542</v>
+        <v>1214</v>
       </c>
       <c r="T205" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206">
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -16840,24 +16840,24 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="N206" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O206" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P206" t="n">
-        <v>17000</v>
+        <v>18600</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
@@ -16866,10 +16866,10 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1417</v>
+        <v>1860</v>
       </c>
       <c r="T206" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="N207" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O207" t="n">
         <v>19000</v>
       </c>
       <c r="P207" t="n">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1583</v>
+        <v>1542</v>
       </c>
       <c r="T207" t="n">
         <v>12</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -17000,24 +17000,24 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M208" t="n">
         <v>108</v>
       </c>
       <c r="N208" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O208" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P208" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
@@ -17026,10 +17026,10 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1357</v>
+        <v>1417</v>
       </c>
       <c r="T208" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209">
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -17084,16 +17084,16 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N209" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O209" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P209" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1500</v>
+        <v>1583</v>
       </c>
       <c r="T209" t="n">
         <v>12</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -17167,13 +17167,13 @@
         <v>108</v>
       </c>
       <c r="N210" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O210" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P210" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1286</v>
+        <v>1357</v>
       </c>
       <c r="T210" t="n">
         <v>14</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -17240,24 +17240,24 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N211" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O211" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P211" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
@@ -17266,10 +17266,10 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="T211" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212">
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -17320,24 +17320,24 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M212" t="n">
         <v>108</v>
       </c>
       <c r="N212" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O212" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P212" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -17346,10 +17346,10 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1833</v>
+        <v>1286</v>
       </c>
       <c r="T212" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213">
@@ -17400,11 +17400,11 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N213" t="n">
         <v>22000</v>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -17426,10 +17426,10 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1571</v>
+        <v>2200</v>
       </c>
       <c r="T213" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214">
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="N214" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O214" t="n">
         <v>22000</v>
       </c>
       <c r="P214" t="n">
-        <v>21200</v>
+        <v>22000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1767</v>
+        <v>1833</v>
       </c>
       <c r="T214" t="n">
         <v>12</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="N215" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O215" t="n">
         <v>22000</v>
       </c>
       <c r="P215" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1500</v>
+        <v>1571</v>
       </c>
       <c r="T215" t="n">
         <v>14</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -17644,20 +17644,20 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="N216" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O216" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P216" t="n">
-        <v>17000</v>
+        <v>21200</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1214</v>
+        <v>1767</v>
       </c>
       <c r="T216" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -17720,24 +17720,24 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="N217" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O217" t="n">
         <v>22000</v>
       </c>
       <c r="P217" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -17746,10 +17746,10 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1833</v>
+        <v>1500</v>
       </c>
       <c r="T217" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218">
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M218" t="n">
         <v>108</v>
       </c>
       <c r="N218" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O218" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P218" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1571</v>
+        <v>1214</v>
       </c>
       <c r="T218" t="n">
         <v>14</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N219" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O219" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P219" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T219" t="n">
         <v>12</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -17967,13 +17967,13 @@
         <v>108</v>
       </c>
       <c r="N220" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O220" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P220" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1143</v>
+        <v>1571</v>
       </c>
       <c r="T220" t="n">
         <v>14</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -18044,7 +18044,7 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N221" t="n">
         <v>16000</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -18124,7 +18124,7 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N222" t="n">
         <v>16000</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -18207,13 +18207,13 @@
         <v>162</v>
       </c>
       <c r="N223" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O223" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P223" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T223" t="n">
         <v>12</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N224" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O224" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P224" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T224" t="n">
         <v>14</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -18360,24 +18360,24 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M225" t="n">
         <v>162</v>
       </c>
       <c r="N225" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O225" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P225" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
@@ -18386,10 +18386,10 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1143</v>
+        <v>1417</v>
       </c>
       <c r="T225" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226">
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -18440,24 +18440,24 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N226" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O226" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P226" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
@@ -18466,10 +18466,10 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1750</v>
+        <v>1214</v>
       </c>
       <c r="T226" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N227" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O227" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P227" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1500</v>
+        <v>1143</v>
       </c>
       <c r="T227" t="n">
         <v>14</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="N228" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O228" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P228" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1250</v>
+        <v>1750</v>
       </c>
       <c r="T228" t="n">
         <v>12</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44344</v>
+        <v>44445</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -18680,24 +18680,24 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N229" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O229" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P229" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
@@ -18706,10 +18706,10 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T229" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44407</v>
+        <v>44229</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="N230" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O230" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P230" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1667</v>
+        <v>1250</v>
       </c>
       <c r="T230" t="n">
         <v>12</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -18840,24 +18840,24 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N231" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O231" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P231" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
@@ -18866,10 +18866,10 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1429</v>
+        <v>1333</v>
       </c>
       <c r="T231" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232">
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -18920,24 +18920,24 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N232" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O232" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P232" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
@@ -18946,10 +18946,10 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1143</v>
+        <v>1667</v>
       </c>
       <c r="T232" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233">
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44391</v>
+        <v>44407</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -19000,24 +19000,24 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N233" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O233" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P233" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
@@ -19026,10 +19026,10 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T233" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234">
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -19080,24 +19080,24 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N234" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O234" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P234" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
@@ -19106,10 +19106,10 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1417</v>
+        <v>1143</v>
       </c>
       <c r="T234" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44165</v>
+        <v>44391</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -19167,13 +19167,13 @@
         <v>162</v>
       </c>
       <c r="N235" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O235" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P235" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T235" t="n">
         <v>12</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -19247,13 +19247,13 @@
         <v>162</v>
       </c>
       <c r="N236" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O236" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P236" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T236" t="n">
         <v>12</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N237" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O237" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P237" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1333</v>
+        <v>1833</v>
       </c>
       <c r="T237" t="n">
         <v>12</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -19400,11 +19400,11 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N238" t="n">
         <v>16000</v>
@@ -19417,7 +19417,7 @@
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
@@ -19426,10 +19426,10 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T238" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239">
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N239" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O239" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P239" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1583</v>
+        <v>1333</v>
       </c>
       <c r="T239" t="n">
         <v>12</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -19567,13 +19567,13 @@
         <v>108</v>
       </c>
       <c r="N240" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O240" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P240" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1357</v>
+        <v>1143</v>
       </c>
       <c r="T240" t="n">
         <v>14</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19807,13 +19807,13 @@
         <v>162</v>
       </c>
       <c r="N243" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O243" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P243" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1333</v>
+        <v>1583</v>
       </c>
       <c r="T243" t="n">
         <v>12</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19887,13 +19887,13 @@
         <v>108</v>
       </c>
       <c r="N244" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O244" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P244" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1143</v>
+        <v>1357</v>
       </c>
       <c r="T244" t="n">
         <v>14</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N245" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O245" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P245" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1417</v>
+        <v>1333</v>
       </c>
       <c r="T245" t="n">
         <v>12</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N246" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O246" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P246" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T246" t="n">
         <v>14</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -20127,13 +20127,13 @@
         <v>108</v>
       </c>
       <c r="N247" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O247" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P247" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="T247" t="n">
         <v>12</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44300</v>
+        <v>44204</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N248" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O248" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P248" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T248" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20280,11 +20280,11 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N249" t="n">
         <v>16000</v>
@@ -20297,7 +20297,7 @@
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1143</v>
+        <v>1333</v>
       </c>
       <c r="T249" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N250" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O250" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P250" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T250" t="n">
         <v>12</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N251" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O251" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P251" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1286</v>
+        <v>1143</v>
       </c>
       <c r="T251" t="n">
         <v>14</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -20520,24 +20520,24 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N252" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O252" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P252" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -20546,10 +20546,10 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T252" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253">
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -20600,24 +20600,24 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M253" t="n">
         <v>108</v>
       </c>
       <c r="N253" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O253" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P253" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -20626,10 +20626,10 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1333</v>
+        <v>1286</v>
       </c>
       <c r="T253" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254">
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -20680,24 +20680,24 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M254" t="n">
         <v>108</v>
       </c>
       <c r="N254" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O254" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P254" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,10 +20706,10 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T254" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -20840,24 +20840,24 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M256" t="n">
         <v>108</v>
       </c>
       <c r="N256" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O256" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P256" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R256" t="inlineStr">
@@ -20866,10 +20866,10 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1143</v>
+        <v>1500</v>
       </c>
       <c r="T256" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257">
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N257" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O257" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P257" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="T257" t="n">
         <v>12</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -21007,13 +21007,13 @@
         <v>108</v>
       </c>
       <c r="N258" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O258" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P258" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T258" t="n">
         <v>14</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N259" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O259" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P259" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1417</v>
+        <v>1667</v>
       </c>
       <c r="T259" t="n">
         <v>12</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -21160,24 +21160,24 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N260" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O260" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P260" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -21186,10 +21186,10 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="T260" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261">
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -21240,7 +21240,7 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M261" t="n">
@@ -21257,7 +21257,7 @@
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
@@ -21266,10 +21266,10 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1214</v>
+        <v>1417</v>
       </c>
       <c r="T261" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262">
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N262" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O262" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P262" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T262" t="n">
         <v>12</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N263" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O263" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P263" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1571</v>
+        <v>1214</v>
       </c>
       <c r="T263" t="n">
         <v>14</v>
@@ -21480,11 +21480,11 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N264" t="n">
         <v>22000</v>
@@ -21497,7 +21497,7 @@
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,10 +21506,10 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1375</v>
+        <v>1833</v>
       </c>
       <c r="T264" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -21560,24 +21560,24 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M265" t="n">
         <v>162</v>
       </c>
       <c r="N265" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O265" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P265" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -21586,10 +21586,10 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1333</v>
+        <v>1571</v>
       </c>
       <c r="T265" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266">
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -21640,24 +21640,24 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N266" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O266" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P266" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -21666,10 +21666,10 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1143</v>
+        <v>1375</v>
       </c>
       <c r="T266" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="267">
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -21727,13 +21727,13 @@
         <v>162</v>
       </c>
       <c r="N267" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O267" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P267" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1833</v>
+        <v>1333</v>
       </c>
       <c r="T267" t="n">
         <v>12</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N268" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O268" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P268" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1571</v>
+        <v>1143</v>
       </c>
       <c r="T268" t="n">
         <v>14</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -21880,24 +21880,24 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="N269" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O269" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P269" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -21906,10 +21906,10 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>2000</v>
+        <v>1833</v>
       </c>
       <c r="T269" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -21960,24 +21960,24 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>864</v>
+        <v>108</v>
       </c>
       <c r="N270" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O270" t="n">
         <v>22000</v>
       </c>
       <c r="P270" t="n">
-        <v>20438</v>
+        <v>22000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -21986,10 +21986,10 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1703</v>
+        <v>1571</v>
       </c>
       <c r="T270" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271">
@@ -22040,24 +22040,24 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>432</v>
+        <v>54</v>
       </c>
       <c r="N271" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O271" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P271" t="n">
-        <v>20250</v>
+        <v>20000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,10 +22066,10 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1446</v>
+        <v>2000</v>
       </c>
       <c r="T271" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>108</v>
+        <v>864</v>
       </c>
       <c r="N272" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O272" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P272" t="n">
-        <v>17000</v>
+        <v>20438</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1417</v>
+        <v>1703</v>
       </c>
       <c r="T272" t="n">
         <v>12</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>108</v>
+        <v>432</v>
       </c>
       <c r="N273" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O273" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P273" t="n">
-        <v>17000</v>
+        <v>20250</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1214</v>
+        <v>1446</v>
       </c>
       <c r="T273" t="n">
         <v>14</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22284,7 +22284,7 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N274" t="n">
         <v>17000</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44433</v>
+        <v>44242</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22360,24 +22360,24 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N275" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O275" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P275" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 14 unidades</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1583</v>
+        <v>1214</v>
       </c>
       <c r="T275" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22444,7 +22444,7 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N276" t="n">
         <v>17000</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -22520,24 +22520,24 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N277" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O277" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P277" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/caja 14 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1214</v>
+        <v>1583</v>
       </c>
       <c r="T277" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278">
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -22607,13 +22607,13 @@
         <v>108</v>
       </c>
       <c r="N278" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O278" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P278" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1833</v>
+        <v>1417</v>
       </c>
       <c r="T278" t="n">
         <v>12</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44166</v>
+        <v>44307</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N279" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O279" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P279" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1571</v>
+        <v>1214</v>
       </c>
       <c r="T279" t="n">
         <v>14</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="N2